--- a/S6_Assignment/Part1/Class BP File_HG.xlsx
+++ b/S6_Assignment/Part1/Class BP File_HG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1398ca9ef5033dae/Documents/Work/ERA_V2/S6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{8116C86C-BA20-45A6-88F7-1B9466D35EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10F7288-823A-44D5-9F88-5BEAFB2F2046}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{8116C86C-BA20-45A6-88F7-1B9466D35EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48BA660-5D91-40BB-A72F-404A3A36F09C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{20ABD9D6-099D-4511-830E-A4E388347D91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{20ABD9D6-099D-4511-830E-A4E388347D91}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_main" sheetId="1" r:id="rId1"/>
@@ -408,205 +408,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>1.2595285488543436E-2</c:v>
+                  <c:v>1.3377915411524407E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1168497434690484E-2</c:v>
+                  <c:v>1.2614906140887516E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8888086235940226E-3</c:v>
+                  <c:v>1.1890859119519582E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7441406004491219E-3</c:v>
+                  <c:v>1.1204279244324985E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7227423278106106E-3</c:v>
+                  <c:v>1.0553674914861293E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8133435061279932E-3</c:v>
+                  <c:v>9.937564870222286E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0052651024819128E-3</c:v>
+                  <c:v>9.354484277672135E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2884926627942593E-3</c:v>
+                  <c:v>8.8029900957136489E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6537183409196495E-3</c:v>
+                  <c:v>8.2816657411971546E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0923574830449422E-3</c:v>
+                  <c:v>7.7891250954947328E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5965452037297774E-3</c:v>
+                  <c:v>7.3240158887983627E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1591178044558625E-3</c:v>
+                  <c:v>6.885022504389637E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.773583213791779E-3</c:v>
+                  <c:v>6.4708682464123691E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4340839409666571E-3</c:v>
+                  <c:v>6.0803171154111026E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1353553793165021E-3</c:v>
+                  <c:v>5.7121751358152548E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.87268170140174E-3</c:v>
+                  <c:v>5.365291278793774E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6418510679904851E-3</c:v>
+                  <c:v>5.038558022602925E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4391114328218279E-3</c:v>
+                  <c:v>4.7309115908204073E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2611278617005459E-3</c:v>
+                  <c:v>4.441331906805829E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1049419916321895E-3</c:v>
+                  <c:v>4.1688423004453889E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.6793402496452539E-4</c:v>
+                  <c:v>3.9125090008066202E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.4778747576170989E-4</c:v>
+                  <c:v>3.6714404458160501E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4245675199623379E-4</c:v>
+                  <c:v>3.4447864375374802E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5013755939953718E-4</c:v>
+                  <c:v>3.2317371691145502E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.692400437183763E-4</c:v>
+                  <c:v>3.0315221469904576E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9836454147931435E-4</c:v>
+                  <c:v>2.8434090296545773E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3627977998760931E-4</c:v>
+                  <c:v>2.6667024019152528E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.8190335094388632E-4</c:v>
+                  <c:v>2.5007425015739129E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.342842753461568E-4</c:v>
+                  <c:v>2.3449039133884336E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9258747756505263E-4</c:v>
+                  <c:v>2.1985942433688224E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.5607999153842785E-4</c:v>
+                  <c:v>2.0612527847477628E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2411873031940021E-4</c:v>
+                  <c:v>1.9323491854110763E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9613966051318209E-4</c:v>
+                  <c:v>1.8113821251561704E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.716482345498964E-4</c:v>
+                  <c:v>1.6978780098636274E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5021094560483794E-4</c:v>
+                  <c:v>1.5913896885133955E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3144788182686498E-4</c:v>
+                  <c:v>1.4914951979442918E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1502616804692835E-4</c:v>
+                  <c:v>1.3977965393363241E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0065419410008276E-4</c:v>
+                  <c:v>1.3099184895813579E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.8076539174749717E-5</c:v>
+                  <c:v>1.2275074499913331E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.7069511132333497E-5</c:v>
+                  <c:v>1.1502303341652249E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.743722849100823E-5</c:v>
+                  <c:v>1.0777734962899711E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.9008180743257561E-5</c:v>
+                  <c:v>1.0098417006775375E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.1632209901124974E-5</c:v>
+                  <c:v>9.461571329340714E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.5177862673963641E-5</c:v>
+                  <c:v>8.8645845281027009E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.9530068526122273E-5</c:v>
+                  <c:v>8.3049988848876342E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4588104086498895E-5</c:v>
+                  <c:v>7.7805037181804973E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0263809039429409E-5</c:v>
+                  <c:v>7.288927137987667E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6480022767970557E-5</c:v>
+                  <c:v>6.8282281946093067E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3169214695290268E-5</c:v>
+                  <c:v>6.3964894113640995E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0272284524221337E-5</c:v>
+                  <c:v>5.9919096902495065E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.773751145246061E-5</c:v>
+                  <c:v>5.6127975787086733E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5519633981573373E-5</c:v>
+                  <c:v>5.2575648850773746E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3579044178613157E-5</c:v>
+                  <c:v>4.9247206298714511E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1881082223182678E-5</c:v>
+                  <c:v>4.612865319821384E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0395418810343422E-5</c:v>
+                  <c:v>4.3206855314387616E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.0955145080050789E-6</c:v>
+                  <c:v>4.0469487908956399E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.9581465107232014E-6</c:v>
+                  <c:v>3.7904987370851516E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.9629944117290034E-6</c:v>
+                  <c:v>3.5502505549003338E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.0922776510596485E-6</c:v>
+                  <c:v>3.3251866660028849E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.3304382067939745E-6</c:v>
+                  <c:v>3.1143526646378267E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.6638628940147517E-6</c:v>
+                  <c:v>2.9168534863794991E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.0806403355624653E-6</c:v>
+                  <c:v>2.7318497980539881E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.5703482818788781E-6</c:v>
+                  <c:v>2.5585545974691841E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.1238674947264937E-6</c:v>
+                  <c:v>2.3962300119852436E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7332188805480729E-6</c:v>
+                  <c:v>2.2441842853743307E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.3914209718979892E-6</c:v>
+                  <c:v>2.1017689428382458E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.092365216835856E-6</c:v>
+                  <c:v>1.9683761244783252E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,11 +814,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN" b="1"/>
-              <a:t>Variation</a:t>
+              <a:t>Change</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" b="1" baseline="0"/>
-              <a:t> in Loss wrt different learning rate</a:t>
+              <a:t> in Loss Value wrt different learning rate</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN" b="1"/>
           </a:p>
@@ -11597,8 +11597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A677CD16-2D5C-4E7A-9BDE-9D5527AA442D}">
   <dimension ref="B2:AF100"/>
   <sheetViews>
-    <sheetView topLeftCell="E49" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33:X100"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11629,7 +11629,7 @@
         <v>35</v>
       </c>
       <c r="J31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11856,111 +11856,111 @@
       </c>
       <c r="F34" s="8">
         <f>F33-($J$31*Y33)</f>
-        <v>0.14936601320817941</v>
+        <v>0.1496830066040897</v>
       </c>
       <c r="G34" s="8">
         <f>G33-($J$31*Z33)</f>
-        <v>0.19873202641635884</v>
+        <v>0.19936601320817943</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" ref="H34:I34" si="0">H33-($J$31*AA33)</f>
-        <v>0.24929626266972921</v>
+        <v>0.2496481313348646</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="0"/>
-        <v>0.2985925253394584</v>
+        <v>0.2992962626697292</v>
       </c>
       <c r="J34" s="9">
         <f>(D34*F34)+(E34*G34)</f>
-        <v>2.7341503302044858E-2</v>
+        <v>2.7420751651022431E-2</v>
       </c>
       <c r="K34" s="9">
         <f>1/(1+EXP(-J34))</f>
-        <v>0.50683495003746348</v>
+        <v>0.50685475841175931</v>
       </c>
       <c r="L34" s="9">
         <f>(D34*H34)+(E34*I34)</f>
-        <v>4.2324065667432305E-2</v>
+        <v>4.2412032833716154E-2</v>
       </c>
       <c r="M34" s="9">
         <f>1/(1+EXP(-L34))</f>
-        <v>0.51057943719512511</v>
+        <v>0.51060141912054424</v>
       </c>
       <c r="N34" s="8">
         <f>N33-($J$31*AC33)</f>
-        <v>0.37423836273674355</v>
+        <v>0.38711918136837176</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" ref="O34:Q34" si="1">O33-($J$31*AD33)</f>
-        <v>0.42404783017860298</v>
+        <v>0.4370239150893015</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="1"/>
-        <v>0.46918330343645387</v>
+        <v>0.48459165171822693</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="1"/>
-        <v>0.51895538376001049</v>
+        <v>0.53447769188000527</v>
       </c>
       <c r="R34" s="9">
         <f>(K34*N34)+(M34*O34)</f>
-        <v>0.40618718435618462</v>
+        <v>0.41935823038323766</v>
       </c>
       <c r="S34" s="9">
         <f>1/(1+EXP(-R34))</f>
-        <v>0.60017328577944118</v>
+        <v>0.60332966983775138</v>
       </c>
       <c r="T34" s="9">
         <f>(K34*P34)+(M34*Q34)</f>
-        <v>0.50276644392519354</v>
+        <v>0.51852265252220098</v>
       </c>
       <c r="U34" s="9">
         <f>1/(1+EXP(-T34))</f>
-        <v>0.62310923520693839</v>
+        <v>0.626802248222459</v>
       </c>
       <c r="V34" s="9">
         <f>0.5*(B34-S34)^2</f>
-        <v>5.0173435919247961E-3</v>
+        <v>5.3385103343893542E-3</v>
       </c>
       <c r="W34" s="9">
         <f>0.5*(C34-U34)^2</f>
-        <v>7.5779418966186399E-3</v>
+        <v>8.039405077135053E-3</v>
       </c>
       <c r="X34" s="6">
         <f>V34+W34</f>
-        <v>1.2595285488543436E-2</v>
+        <v>1.3377915411524407E-2</v>
       </c>
       <c r="Y34" s="9">
         <f>((S34-B34)*S34*(1-S34)*N34 + (U34-C34)*U34*(1-U34)*P34)*K34*(1-K34)*D34</f>
-        <v>2.8195690008238887E-4</v>
+        <v>2.9928076402450411E-4</v>
       </c>
       <c r="Z34" s="9">
         <f>((S34-B34)*S34*(1-S34)*N34 + (U34-C34)*U34*(1-U34)*P34)*K34*(1-K34)*E34</f>
-        <v>5.6391380016477773E-4</v>
+        <v>5.9856152804900822E-4</v>
       </c>
       <c r="AA34" s="9">
         <f>((S34-B34)*S34*(1-S34)*O34 + (U34-C34)*U34*(1-U34)*Q34)*K34*(1-K34)*D34</f>
-        <v>3.1490461876097791E-4</v>
+        <v>3.3319699773066617E-4</v>
       </c>
       <c r="AB34" s="9">
         <f>((S34-B34)*S34*(1-S34)*O34 + (U34-C34)*U34*(1-U34)*Q34)*K34*(1-K34)*E34</f>
-        <v>6.2980923752195583E-4</v>
+        <v>6.6639399546133233E-4</v>
       </c>
       <c r="AC34" s="9">
         <f>(S34-B34)*S34*(1-S34)*K34</f>
-        <v>1.2183356236156122E-2</v>
+        <v>1.2534094667394254E-2</v>
       </c>
       <c r="AD34" s="9">
         <f>(S34-B34)*S34*(1-S34)*M34</f>
-        <v>1.2273366644791381E-2</v>
+        <v>1.2626746456158496E-2</v>
       </c>
       <c r="AE34" s="9">
         <f xml:space="preserve"> (U34-C34)*U34*(1-U34)*K34</f>
-        <v>1.4653348287690611E-2</v>
+        <v>1.503419040193194E-2</v>
       </c>
       <c r="AF34" s="9">
         <f xml:space="preserve"> (U34-C34)*U34*(1-U34)*M34</f>
-        <v>1.4761606951533633E-2</v>
+        <v>1.5145322850690663E-2</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
@@ -11978,111 +11978,111 @@
       </c>
       <c r="F35" s="8">
         <f t="shared" ref="F35:F80" si="2">F34-($J$31*Y34)</f>
-        <v>0.14880209940801464</v>
+        <v>0.14938372584006521</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" ref="G35:G80" si="3">G34-($J$31*Z34)</f>
-        <v>0.19760419881602928</v>
+        <v>0.19876745168013041</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" ref="H35:H81" si="4">H34-($J$31*AA34)</f>
-        <v>0.24866645343220725</v>
+        <v>0.24931493433713395</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" ref="I35:I81" si="5">I34-($J$31*AB34)</f>
-        <v>0.29733290686441449</v>
+        <v>0.29862986867426788</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" ref="J35:J80" si="6">(D35*F35)+(E35*G35)</f>
-        <v>2.7200524852003662E-2</v>
+        <v>2.7345931460016303E-2</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" ref="K35:K98" si="7">1/(1+EXP(-J35))</f>
-        <v>0.50679971197708251</v>
+        <v>0.50683605687005462</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" ref="L35:L80" si="8">(D35*H35)+(E35*I35)</f>
-        <v>4.2166613358051816E-2</v>
+        <v>4.232873358428349E-2</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" ref="M35:M98" si="9">1/(1+EXP(-L35))</f>
-        <v>0.51054009167509085</v>
+        <v>0.510580603651826</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ref="N35:N80" si="10">N34-($J$31*AC34)</f>
-        <v>0.34987165026443129</v>
+        <v>0.37458508670097751</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" ref="O35:O81" si="11">O34-($J$31*AD34)</f>
-        <v>0.39950109688902025</v>
+        <v>0.42439716863314297</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ref="P35:P81" si="12">P34-($J$31*AE34)</f>
-        <v>0.43987660686107266</v>
+        <v>0.469557461316295</v>
       </c>
       <c r="Q35" s="8">
         <f t="shared" ref="Q35:Q81" si="13">Q34-($J$31*AF34)</f>
-        <v>0.48943216985694321</v>
+        <v>0.51933236902931457</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" ref="R35:R80" si="14">(K35*N35)+(M35*O35)</f>
-        <v>0.3812761782129801</v>
+        <v>0.4065421908546869</v>
       </c>
       <c r="S35" s="9">
         <f t="shared" ref="S35:S98" si="15">1/(1+EXP(-R35))</f>
-        <v>0.59418086469022169</v>
+        <v>0.60025847199460491</v>
       </c>
       <c r="T35" s="9">
         <f t="shared" ref="T35:T80" si="16">(K35*P35)+(M35*Q35)</f>
-        <v>0.47280408253015038</v>
+        <v>0.50314968664238446</v>
       </c>
       <c r="U35" s="9">
         <f t="shared" ref="U35:U98" si="17">1/(1+EXP(-T35))</f>
-        <v>0.61604723002115613</v>
+        <v>0.62319923325687565</v>
       </c>
       <c r="V35" s="9">
         <f t="shared" ref="V35:V80" si="18">0.5*(B35-S35)^2</f>
-        <v>4.4350176368989228E-3</v>
+        <v>5.025880603346489E-3</v>
       </c>
       <c r="W35" s="9">
         <f t="shared" ref="W35:W80" si="19">0.5*(C35-U35)^2</f>
-        <v>6.7334797977915608E-3</v>
+        <v>7.5890255375410274E-3</v>
       </c>
       <c r="X35" s="6">
         <f t="shared" ref="X35:X80" si="20">V35+W35</f>
-        <v>1.1168497434690484E-2</v>
+        <v>1.2614906140887516E-2</v>
       </c>
       <c r="Y35" s="9">
         <f t="shared" ref="Y35:Y80" si="21">((S35-B35)*S35*(1-S35)*N35 + (U35-C35)*U35*(1-U35)*P35)*K35*(1-K35)*D35</f>
-        <v>2.5019996848459064E-4</v>
+        <v>2.8239192639058149E-4</v>
       </c>
       <c r="Z35" s="9">
         <f t="shared" ref="Z35:Z80" si="22">((S35-B35)*S35*(1-S35)*N35 + (U35-C35)*U35*(1-U35)*P35)*K35*(1-K35)*E35</f>
-        <v>5.0039993696918128E-4</v>
+        <v>5.6478385278116298E-4</v>
       </c>
       <c r="AA35" s="9">
         <f t="shared" ref="AA35:AA80" si="23">((S35-B35)*S35*(1-S35)*O35 + (U35-C35)*U35*(1-U35)*Q35)*K35*(1-K35)*D35</f>
-        <v>2.8128580676649648E-4</v>
+        <v>3.1536455905510727E-4</v>
       </c>
       <c r="AB35" s="9">
         <f t="shared" ref="AB35:AB80" si="24">((S35-B35)*S35*(1-S35)*O35 + (U35-C35)*U35*(1-U35)*Q35)*K35*(1-K35)*E35</f>
-        <v>5.6257161353299296E-4</v>
+        <v>6.3072911811021455E-4</v>
       </c>
       <c r="AC35" s="9">
         <f t="shared" ref="AC35:AC80" si="25">(S35-B35)*S35*(1-S35)*K35</f>
-        <v>1.1509334583715431E-2</v>
+        <v>1.2192875841795495E-2</v>
       </c>
       <c r="AD35" s="9">
         <f t="shared" ref="AD35:AD80" si="26">(S35-B35)*S35*(1-S35)*M35</f>
-        <v>1.1594277965483693E-2</v>
+        <v>1.2282957818748526E-2</v>
       </c>
       <c r="AE35" s="9">
         <f t="shared" ref="AE35:AE80" si="27" xml:space="preserve"> (U35-C35)*U35*(1-U35)*K35</f>
-        <v>1.3911147395967556E-2</v>
+        <v>1.4662708362391938E-2</v>
       </c>
       <c r="AF35" s="9">
         <f t="shared" ref="AF35:AF80" si="28" xml:space="preserve"> (U35-C35)*U35*(1-U35)*M35</f>
-        <v>1.4013817093811092E-2</v>
+        <v>1.4771037666643715E-2</v>
       </c>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.3">
@@ -12100,111 +12100,111 @@
       </c>
       <c r="F36" s="8">
         <f t="shared" si="2"/>
-        <v>0.14830169947104546</v>
+        <v>0.14910133391367464</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="3"/>
-        <v>0.19660339894209092</v>
+        <v>0.19820266782734924</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="4"/>
-        <v>0.24810388181867427</v>
+        <v>0.24899956977807883</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="5"/>
-        <v>0.29620776363734852</v>
+        <v>0.29799913955615764</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="6"/>
-        <v>2.7075424867761367E-2</v>
+        <v>2.7275333478418658E-2</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="7"/>
-        <v>0.506768442738597</v>
+        <v>0.50681841066530808</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="8"/>
-        <v>4.2025970454668563E-2</v>
+        <v>4.224989244451971E-2</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="9"/>
-        <v>0.51050494652172107</v>
+        <v>0.51056090217666106</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="10"/>
-        <v>0.32685298109700045</v>
+        <v>0.362392210859182</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="11"/>
-        <v>0.37631254095805289</v>
+        <v>0.41211421081439442</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="12"/>
-        <v>0.41205431206913756</v>
+        <v>0.45489475295390308</v>
       </c>
       <c r="Q36" s="8">
         <f t="shared" si="13"/>
-        <v>0.46140453566932105</v>
+        <v>0.5045613313626709</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="14"/>
-        <v>0.35774818983223877</v>
+        <v>0.39407644761835769</v>
       </c>
       <c r="S36" s="9">
         <f t="shared" si="15"/>
-        <v>0.58849522523044928</v>
+        <v>0.59726363470476029</v>
       </c>
       <c r="T36" s="9">
         <f t="shared" si="16"/>
-        <v>0.44436541985774702</v>
+        <v>0.48815832425606759</v>
       </c>
       <c r="U36" s="9">
         <f t="shared" si="17"/>
-        <v>0.60929872990387446</v>
+        <v>0.61967248473671011</v>
       </c>
       <c r="V36" s="9">
         <f t="shared" si="18"/>
-        <v>3.9157024442939732E-3</v>
+        <v>4.7301073179905253E-3</v>
       </c>
       <c r="W36" s="9">
         <f t="shared" si="19"/>
-        <v>5.9731061793000502E-3</v>
+        <v>7.1607518015290566E-3</v>
       </c>
       <c r="X36" s="6">
         <f t="shared" si="20"/>
-        <v>9.8888086235940226E-3</v>
+        <v>1.1890859119519582E-2</v>
       </c>
       <c r="Y36" s="9">
         <f t="shared" si="21"/>
-        <v>2.2153365637509132E-4</v>
+        <v>2.6630550547534815E-4</v>
       </c>
       <c r="Z36" s="9">
         <f t="shared" si="22"/>
-        <v>4.4306731275018264E-4</v>
+        <v>5.326110109506963E-4</v>
       </c>
       <c r="AA36" s="9">
         <f t="shared" si="23"/>
-        <v>2.508282683344305E-4</v>
+        <v>2.9835069925099062E-4</v>
       </c>
       <c r="AB36" s="9">
         <f t="shared" si="24"/>
-        <v>5.01656536668861E-4</v>
+        <v>5.9670139850198124E-4</v>
       </c>
       <c r="AC36" s="9">
         <f t="shared" si="25"/>
-        <v>1.0860435085532969E-2</v>
+        <v>1.1857408901511166E-2</v>
       </c>
       <c r="AD36" s="9">
         <f t="shared" si="26"/>
-        <v>1.0940511217669712E-2</v>
+        <v>1.194496738641761E-2</v>
       </c>
       <c r="AE36" s="9">
         <f t="shared" si="27"/>
-        <v>1.3185596272497104E-2</v>
+        <v>1.429442366266623E-2</v>
       </c>
       <c r="AF36" s="9">
         <f t="shared" si="28"/>
-        <v>1.3282816277138051E-2</v>
+        <v>1.4399977758751622E-2</v>
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.3">
@@ -12222,111 +12222,111 @@
       </c>
       <c r="F37" s="8">
         <f t="shared" si="2"/>
-        <v>0.14785863215829528</v>
+        <v>0.14883502840819929</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="3"/>
-        <v>0.19571726431659056</v>
+        <v>0.19767005681639854</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="4"/>
-        <v>0.2476022252820054</v>
+        <v>0.24870121907882783</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="5"/>
-        <v>0.29520445056401079</v>
+        <v>0.29740243815765566</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="6"/>
-        <v>2.6964658039573822E-2</v>
+        <v>2.720875710204982E-2</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="7"/>
-        <v>0.50674075608525093</v>
+        <v>0.50680176965885193</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="8"/>
-        <v>4.1900556320501353E-2</v>
+        <v>4.2175304769706962E-2</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="9"/>
-        <v>0.51047360678687026</v>
+        <v>0.51054226356224597</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="10"/>
-        <v>0.30513211092593451</v>
+        <v>0.35053480195767084</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="11"/>
-        <v>0.35443151852271348</v>
+        <v>0.40016924342797683</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="12"/>
-        <v>0.38568311952414336</v>
+        <v>0.44060032929123683</v>
       </c>
       <c r="Q37" s="8">
         <f t="shared" si="13"/>
-        <v>0.43483890311504492</v>
+        <v>0.49016135360391927</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="14"/>
-        <v>0.33555081221573368</v>
+        <v>0.38195496930687345</v>
       </c>
       <c r="S37" s="9">
         <f t="shared" si="15"/>
-        <v>0.58310935883043935</v>
+        <v>0.59434453109341323</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" si="16"/>
-        <v>0.41741513884136605</v>
+        <v>0.47354511357675111</v>
       </c>
       <c r="U37" s="9">
         <f t="shared" si="17"/>
-        <v>0.60286455014090867</v>
+        <v>0.61622249326792966</v>
       </c>
       <c r="V37" s="9">
         <f t="shared" si="18"/>
-        <v>3.4535827626033634E-3</v>
+        <v>4.4504452736180084E-3</v>
       </c>
       <c r="W37" s="9">
         <f t="shared" si="19"/>
-        <v>5.2905578378457576E-3</v>
+        <v>6.7538339707069774E-3</v>
       </c>
       <c r="X37" s="6">
         <f t="shared" si="20"/>
-        <v>8.7441406004491219E-3</v>
+        <v>1.1204279244324985E-2</v>
       </c>
       <c r="Y37" s="9">
         <f t="shared" si="21"/>
-        <v>1.9575399844831638E-4</v>
+        <v>2.509987884343432E-4</v>
       </c>
       <c r="Z37" s="9">
         <f t="shared" si="22"/>
-        <v>3.9150799689663277E-4</v>
+        <v>5.019975768686864E-4</v>
       </c>
       <c r="AA37" s="9">
         <f t="shared" si="23"/>
-        <v>2.233315462729841E-4</v>
+        <v>2.8213333627781099E-4</v>
       </c>
       <c r="AB37" s="9">
         <f t="shared" si="24"/>
-        <v>4.4666309254596821E-4</v>
+        <v>5.6426667255562199E-4</v>
       </c>
       <c r="AC37" s="9">
         <f t="shared" si="25"/>
-        <v>1.0237830252114244E-2</v>
+        <v>1.152790686803013E-2</v>
       </c>
       <c r="AD37" s="9">
         <f t="shared" si="26"/>
-        <v>1.031324611590799E-2</v>
+        <v>1.1612989572827682E-2</v>
       </c>
       <c r="AE37" s="9">
         <f t="shared" si="27"/>
-        <v>1.2479867340984507E-2</v>
+        <v>1.3929815829260745E-2</v>
       </c>
       <c r="AF37" s="9">
         <f t="shared" si="28"/>
-        <v>1.2571798927304501E-2</v>
+        <v>1.4032626029035353E-2</v>
       </c>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.3">
@@ -12344,111 +12344,111 @@
       </c>
       <c r="F38" s="8">
         <f t="shared" si="2"/>
-        <v>0.14746712416139865</v>
+        <v>0.14858402961976494</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="3"/>
-        <v>0.19493424832279729</v>
+        <v>0.19716805923952985</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="4"/>
-        <v>0.24715556218945944</v>
+        <v>0.24841908574255003</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="5"/>
-        <v>0.29431112437891888</v>
+        <v>0.29683817148510006</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="6"/>
-        <v>2.6866781040349664E-2</v>
+        <v>2.7146007404941233E-2</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="7"/>
-        <v>0.5067162912666382</v>
+        <v>0.50678608513094203</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="8"/>
-        <v>4.1788890547364857E-2</v>
+        <v>4.2104771435637511E-2</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="9"/>
-        <v>0.51044570256031763</v>
+        <v>0.51052463805465687</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" si="10"/>
-        <v>0.28465645042170601</v>
+        <v>0.33900689508964071</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="11"/>
-        <v>0.33380502629089748</v>
+        <v>0.38855625385514914</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="12"/>
-        <v>0.36072338484217437</v>
+        <v>0.4266705134619761</v>
       </c>
       <c r="Q38" s="8">
         <f t="shared" si="13"/>
-        <v>0.4096953052604359</v>
+        <v>0.47612872757488389</v>
       </c>
       <c r="R38" s="9">
         <f t="shared" si="14"/>
-        <v>0.31462940200603501</v>
+        <v>0.37017151805814841</v>
       </c>
       <c r="S38" s="9">
         <f t="shared" si="15"/>
-        <v>0.57801484157657612</v>
+        <v>0.59150042259231261</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="16"/>
-        <v>0.39191162366970184</v>
+        <v>0.45930612547079569</v>
       </c>
       <c r="U38" s="9">
         <f t="shared" si="17"/>
-        <v>0.59674279895373583</v>
+        <v>0.61284955691162812</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" si="18"/>
-        <v>3.0431577531091353E-3</v>
+        <v>4.1861636672858964E-3</v>
       </c>
       <c r="W38" s="9">
         <f t="shared" si="19"/>
-        <v>4.6795845747014753E-3</v>
+        <v>6.3675112475753979E-3</v>
       </c>
       <c r="X38" s="6">
         <f t="shared" si="20"/>
-        <v>7.7227423278106106E-3</v>
+        <v>1.0553674914861293E-2</v>
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="21"/>
-        <v>1.7264924825730857E-4</v>
+        <v>2.3644798307662147E-4</v>
       </c>
       <c r="Z38" s="9">
         <f t="shared" si="22"/>
-        <v>3.4529849651461714E-4</v>
+        <v>4.7289596615324294E-4</v>
       </c>
       <c r="AA38" s="9">
         <f t="shared" si="23"/>
-        <v>1.9858609410435999E-4</v>
+        <v>2.6668921641676712E-4</v>
       </c>
       <c r="AB38" s="9">
         <f t="shared" si="24"/>
-        <v>3.9717218820871998E-4</v>
+        <v>5.3337843283353425E-4</v>
       </c>
       <c r="AC38" s="9">
         <f t="shared" si="25"/>
-        <v>9.6422472776927677E-3</v>
+        <v>1.1204550867406921E-2</v>
       </c>
       <c r="AD38" s="9">
         <f t="shared" si="26"/>
-        <v>9.713213825470397E-3</v>
+        <v>1.1287206661702126E-2</v>
       </c>
       <c r="AE38" s="9">
         <f t="shared" si="27"/>
-        <v>1.1796490816942755E-2</v>
+        <v>1.3569322900528799E-2</v>
       </c>
       <c r="AF38" s="9">
         <f t="shared" si="28"/>
-        <v>1.1883312509548138E-2</v>
+        <v>1.3669423580659933E-2</v>
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
@@ -12466,111 +12466,111 @@
       </c>
       <c r="F39" s="8">
         <f t="shared" si="2"/>
-        <v>0.14712182566488402</v>
+        <v>0.14834758163668832</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="3"/>
-        <v>0.19424365132976806</v>
+        <v>0.19669516327337661</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="4"/>
-        <v>0.24675839000125072</v>
+        <v>0.24815239652613327</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="5"/>
-        <v>0.29351678000250142</v>
+        <v>0.29630479305226654</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="6"/>
-        <v>2.678045641622101E-2</v>
+        <v>2.7086895409172078E-2</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="7"/>
-        <v>0.50669471399208954</v>
+        <v>0.5067713098482407</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="8"/>
-        <v>4.1689597500312675E-2</v>
+        <v>4.2038099131533321E-2</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="9"/>
-        <v>0.51042089010697245</v>
+        <v>0.51050797735210429</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" si="10"/>
-        <v>0.26537195586632045</v>
+        <v>0.32780234422223381</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="11"/>
-        <v>0.31437859863995671</v>
+        <v>0.377269047193447</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="12"/>
-        <v>0.33713040320828885</v>
+        <v>0.41310119056144728</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="13"/>
-        <v>0.38592868024133964</v>
+        <v>0.46245930399422397</v>
       </c>
       <c r="R39" s="9">
         <f t="shared" si="14"/>
-        <v>0.29492797142759597</v>
+        <v>0.35871968155310752</v>
       </c>
       <c r="S39" s="9">
         <f t="shared" si="15"/>
-        <v>0.5732021515987179</v>
+        <v>0.58873046977261956</v>
       </c>
       <c r="T39" s="9">
         <f t="shared" si="16"/>
-        <v>0.36780825371825548</v>
+        <v>0.44543699533044556</v>
       </c>
       <c r="U39" s="9">
         <f t="shared" si="17"/>
-        <v>0.5909292692897854</v>
+        <v>0.60955379260607467</v>
       </c>
       <c r="V39" s="9">
         <f t="shared" si="18"/>
-        <v>2.679277499340839E-3</v>
+        <v>3.9365481330348763E-3</v>
       </c>
       <c r="W39" s="9">
         <f t="shared" si="19"/>
-        <v>4.1340660067871546E-3</v>
+        <v>6.0010167371874106E-3</v>
       </c>
       <c r="X39" s="6">
         <f t="shared" si="20"/>
-        <v>6.8133435061279932E-3</v>
+        <v>9.937564870222286E-3</v>
       </c>
       <c r="Y39" s="9">
         <f t="shared" si="21"/>
-        <v>1.5200587987062783E-4</v>
+        <v>2.2262845644147926E-4</v>
       </c>
       <c r="Z39" s="9">
         <f t="shared" si="22"/>
-        <v>3.0401175974125567E-4</v>
+        <v>4.4525691288295851E-4</v>
       </c>
       <c r="AA39" s="9">
         <f t="shared" si="23"/>
-        <v>1.763794509655184E-4</v>
+        <v>2.5199415766896178E-4</v>
       </c>
       <c r="AB39" s="9">
         <f t="shared" si="24"/>
-        <v>3.527589019310368E-4</v>
+        <v>5.0398831533792355E-4</v>
       </c>
       <c r="AC39" s="9">
         <f t="shared" si="25"/>
-        <v>9.0740308858143666E-3</v>
+        <v>1.0887492006865097E-2</v>
       </c>
       <c r="AD39" s="9">
         <f t="shared" si="26"/>
-        <v>9.1407602915467481E-3</v>
+        <v>1.096777069823934E-2</v>
       </c>
       <c r="AE39" s="9">
         <f t="shared" si="27"/>
-        <v>1.1137404235126602E-2</v>
+        <v>1.3213342220829503E-2</v>
       </c>
       <c r="AF39" s="9">
         <f t="shared" si="28"/>
-        <v>1.1219307457119505E-2</v>
+        <v>1.3310770519421995E-2</v>
       </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
@@ -12588,111 +12588,111 @@
       </c>
       <c r="F40" s="8">
         <f t="shared" si="2"/>
-        <v>0.14681781390514276</v>
+        <v>0.14812495318024685</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="3"/>
-        <v>0.19363562781028557</v>
+        <v>0.19624990636049364</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="4"/>
-        <v>0.24640563109931968</v>
+        <v>0.24790040236846431</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="5"/>
-        <v>0.29281126219863934</v>
+        <v>0.2958008047369286</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="6"/>
-        <v>2.6704453476285698E-2</v>
+        <v>2.7031238295061707E-2</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="7"/>
-        <v>0.50667571665383926</v>
+        <v>0.50675739811638787</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="8"/>
-        <v>4.1601407774829922E-2</v>
+        <v>4.197510059211608E-2</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="9"/>
-        <v>0.51039885223232184</v>
+        <v>0.51049223466298044</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="10"/>
-        <v>0.24722389409469173</v>
+        <v>0.31691485221536869</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="11"/>
-        <v>0.29609707805686319</v>
+        <v>0.36630127649520766</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="12"/>
-        <v>0.31485559473803565</v>
+        <v>0.3998878483406178</v>
       </c>
       <c r="Q40" s="8">
         <f t="shared" si="13"/>
-        <v>0.36349006532710065</v>
+        <v>0.44914853347480199</v>
       </c>
       <c r="R40" s="9">
         <f t="shared" si="14"/>
-        <v>0.27638995250394799</v>
+        <v>0.34759290313104063</v>
       </c>
       <c r="S40" s="9">
         <f t="shared" si="15"/>
-        <v>0.56866095140019934</v>
+        <v>0.58603374275090914</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="16"/>
-        <v>0.34505459624716883</v>
+        <v>0.43193296411260429</v>
       </c>
       <c r="U40" s="9">
         <f t="shared" si="17"/>
-        <v>0.58541781990769426</v>
+        <v>0.60633514782805664</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="18"/>
-        <v>2.357163123590268E-3</v>
+        <v>3.7009024458648054E-3</v>
       </c>
       <c r="W40" s="9">
         <f t="shared" si="19"/>
-        <v>3.6481019788916448E-3</v>
+        <v>5.65358183180733E-3</v>
       </c>
       <c r="X40" s="6">
         <f t="shared" si="20"/>
-        <v>6.0052651024819128E-3</v>
+        <v>9.354484277672135E-3</v>
       </c>
       <c r="Y40" s="9">
         <f t="shared" si="21"/>
-        <v>1.336133838785713E-4</v>
+        <v>2.095149552420508E-4</v>
       </c>
       <c r="Z40" s="9">
         <f t="shared" si="22"/>
-        <v>2.672267677571426E-4</v>
+        <v>4.1902991048410159E-4</v>
       </c>
       <c r="AA40" s="9">
         <f t="shared" si="23"/>
-        <v>1.5650120832617779E-4</v>
+        <v>2.3802327521741789E-4</v>
       </c>
       <c r="AB40" s="9">
         <f t="shared" si="24"/>
-        <v>3.1300241665235557E-4</v>
+        <v>4.7604655043483577E-4</v>
       </c>
       <c r="AC40" s="9">
         <f t="shared" si="25"/>
-        <v>8.5332032629760034E-3</v>
+        <v>1.0576853272934108E-2</v>
       </c>
       <c r="AD40" s="9">
         <f t="shared" si="26"/>
-        <v>8.5959066285065753E-3</v>
+        <v>1.0654805402095978E-2</v>
       </c>
       <c r="AE40" s="9">
         <f t="shared" si="27"/>
-        <v>1.05040103822567E-2</v>
+        <v>1.2862231500248485E-2</v>
       </c>
       <c r="AF40" s="9">
         <f t="shared" si="28"/>
-        <v>1.0581195559058154E-2</v>
+        <v>1.2957027022635372E-2</v>
       </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
@@ -12710,111 +12710,111 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" si="2"/>
-        <v>0.14655058713738561</v>
+        <v>0.1479154382250048</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="3"/>
-        <v>0.19310117427477128</v>
+        <v>0.19583087645000954</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="4"/>
-        <v>0.24609262868266732</v>
+        <v>0.2476623790932469</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="5"/>
-        <v>0.29218525736533463</v>
+        <v>0.29532475818649379</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="6"/>
-        <v>2.6637646784346408E-2</v>
+        <v>2.6978859556251195E-2</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="7"/>
-        <v>0.50665901795066637</v>
+        <v>0.50674430581879482</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="8"/>
-        <v>4.1523157170666833E-2</v>
+        <v>4.1915594773311728E-2</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="9"/>
-        <v>0.51037929802709681</v>
+        <v>0.5104773647498162</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="10"/>
-        <v>0.23015748756873972</v>
+        <v>0.30633799894243458</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="11"/>
-        <v>0.27890526479985006</v>
+        <v>0.3556464710931117</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="12"/>
-        <v>0.29384757397352224</v>
+        <v>0.38702561684036929</v>
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="13"/>
-        <v>0.34232767420898436</v>
+        <v>0.43619150645216664</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="14"/>
-        <v>0.25895883989017943</v>
+        <v>0.33678450996618603</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="15"/>
-        <v>0.56438033438459068</v>
+        <v>0.58340923112899268</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="16"/>
-        <v>0.32359748131464067</v>
+        <v>0.41878891827981823</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="17"/>
-        <v>0.58020073484773571</v>
+        <v>0.60319341235707624</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="18"/>
-        <v>2.0724137277358542E-3</v>
+        <v>3.4785499187648607E-3</v>
       </c>
       <c r="W41" s="9">
         <f t="shared" si="19"/>
-        <v>3.2160789350584047E-3</v>
+        <v>5.3244401769487878E-3</v>
       </c>
       <c r="X41" s="6">
         <f t="shared" si="20"/>
-        <v>5.2884926627942593E-3</v>
+        <v>8.8029900957136489E-3</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="21"/>
-        <v>1.1726794723423549E-4</v>
+        <v>1.9708180780888523E-4</v>
       </c>
       <c r="Z41" s="9">
         <f t="shared" si="22"/>
-        <v>2.3453589446847099E-4</v>
+        <v>3.9416361561777047E-4</v>
       </c>
       <c r="AA41" s="9">
         <f t="shared" si="23"/>
-        <v>1.3874685207572056E-4</v>
+        <v>2.2475118850927728E-4</v>
       </c>
       <c r="AB41" s="9">
         <f t="shared" si="24"/>
-        <v>2.7749370415144112E-4</v>
+        <v>4.4950237701855457E-4</v>
       </c>
       <c r="AC41" s="9">
         <f t="shared" si="25"/>
-        <v>8.0195196317240508E-3</v>
+        <v>1.0272731429071555E-2</v>
       </c>
       <c r="AD41" s="9">
         <f t="shared" si="26"/>
-        <v>8.0784051110136951E-3</v>
+        <v>1.0348408079735277E-2</v>
       </c>
       <c r="AE41" s="9">
         <f t="shared" si="27"/>
-        <v>9.897239349075557E-3</v>
+        <v>1.2516310097507498E-2</v>
       </c>
       <c r="AF41" s="9">
         <f t="shared" si="28"/>
-        <v>9.9699124902957806E-3</v>
+        <v>1.260851463272657E-2</v>
       </c>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.3">
@@ -12832,111 +12832,111 @@
       </c>
       <c r="F42" s="8">
         <f t="shared" si="2"/>
-        <v>0.14631605124291713</v>
+        <v>0.14771835641719591</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="3"/>
-        <v>0.19263210248583434</v>
+        <v>0.19543671283439176</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="4"/>
-        <v>0.24581513497851587</v>
+        <v>0.24743762790473761</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="5"/>
-        <v>0.29163026995703173</v>
+        <v>0.29487525580947521</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="6"/>
-        <v>2.6579012810729292E-2</v>
+        <v>2.6929589104298973E-2</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="7"/>
-        <v>0.50664436205152219</v>
+        <v>0.50673199044281603</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="8"/>
-        <v>4.1453783744628971E-2</v>
+        <v>4.1859406976184406E-2</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="9"/>
-        <v>0.51036196213169882</v>
+        <v>0.51046332396029725</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="10"/>
-        <v>0.21411844830529161</v>
+        <v>0.29606526751336304</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="11"/>
-        <v>0.2627484545778227</v>
+        <v>0.3452980630133764</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="12"/>
-        <v>0.27405309527537114</v>
+        <v>0.37450930674286181</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" si="13"/>
-        <v>0.32238784922839281</v>
+        <v>0.42358299181944009</v>
       </c>
       <c r="R42" s="9">
         <f t="shared" si="14"/>
-        <v>0.24257872147050544</v>
+        <v>0.32628773931089156</v>
       </c>
       <c r="S42" s="9">
         <f t="shared" si="15"/>
-        <v>0.56034903644422118</v>
+        <v>0.58085585343871249</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="16"/>
-        <v>0.30338195092365627</v>
+        <v>0.4059994284223683</v>
       </c>
       <c r="U42" s="9">
         <f t="shared" si="17"/>
-        <v>0.5752690539471127</v>
+        <v>0.60012823002076765</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="18"/>
-        <v>1.8210030998729683E-3</v>
+        <v>3.2688345176512769E-3</v>
       </c>
       <c r="W42" s="9">
         <f t="shared" si="19"/>
-        <v>2.8327152410466809E-3</v>
+        <v>5.0128312235458777E-3</v>
       </c>
       <c r="X42" s="6">
         <f t="shared" si="20"/>
-        <v>4.6537183409196495E-3</v>
+        <v>8.2816657411971546E-3</v>
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="21"/>
-        <v>1.0277514129427999E-4</v>
+        <v>1.8530310749581287E-4</v>
       </c>
       <c r="Z42" s="9">
         <f t="shared" si="22"/>
-        <v>2.0555028258855998E-4</v>
+        <v>3.7060621499162573E-4</v>
       </c>
       <c r="AA42" s="9">
         <f t="shared" si="23"/>
-        <v>1.2292060035834417E-4</v>
+        <v>2.1215220985210605E-4</v>
       </c>
       <c r="AB42" s="9">
         <f t="shared" si="24"/>
-        <v>2.4584120071668834E-4</v>
+        <v>4.2430441970421211E-4</v>
       </c>
       <c r="AC42" s="9">
         <f t="shared" si="25"/>
-        <v>7.5325186102544297E-3</v>
+        <v>9.9751988938607036E-3</v>
       </c>
       <c r="AD42" s="9">
         <f t="shared" si="26"/>
-        <v>7.5877899087961201E-3</v>
+        <v>1.0048651517097848E-2</v>
       </c>
       <c r="AE42" s="9">
         <f t="shared" si="27"/>
-        <v>9.3176112926276027E-3</v>
+        <v>1.2175860485715092E-2</v>
       </c>
       <c r="AF42" s="9">
         <f t="shared" si="28"/>
-        <v>9.3859810507519494E-3</v>
+        <v>1.2265517734894925E-2</v>
       </c>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
@@ -12954,111 +12954,111 @@
       </c>
       <c r="F43" s="8">
         <f t="shared" si="2"/>
-        <v>0.14611050096032857</v>
+        <v>0.1475330533097001</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="3"/>
-        <v>0.19222100192065722</v>
+        <v>0.19506610661940013</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="4"/>
-        <v>0.24556929377779918</v>
+        <v>0.24722547569488551</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="5"/>
-        <v>0.29113858755559835</v>
+        <v>0.29445095138977101</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="6"/>
-        <v>2.6527625240082151E-2</v>
+        <v>2.6883263327425019E-2</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="7"/>
-        <v>0.50663151742311274</v>
+        <v>0.50672041109445842</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="8"/>
-        <v>4.1392323444449798E-2</v>
+        <v>4.1806368923721374E-2</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="9"/>
-        <v>0.51034660364588613</v>
+        <v>0.51045007024649636</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="10"/>
-        <v>0.19905341108478275</v>
+        <v>0.28609006861950231</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="11"/>
-        <v>0.24757287476023046</v>
+        <v>0.33524941149627857</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="12"/>
-        <v>0.25541787269011595</v>
+        <v>0.3623334462571467</v>
       </c>
       <c r="Q43" s="8">
         <f t="shared" si="13"/>
-        <v>0.30361588712688892</v>
+        <v>0.41131747408454516</v>
       </c>
       <c r="R43" s="9">
         <f t="shared" si="14"/>
-        <v>0.22719470749486209</v>
+        <v>0.31609576282928797</v>
       </c>
       <c r="S43" s="9">
         <f t="shared" si="15"/>
-        <v>0.55655561458700586</v>
+        <v>0.5783724660721985</v>
       </c>
       <c r="T43" s="9">
         <f t="shared" si="16"/>
-        <v>0.28435208122611733</v>
+        <v>0.39355878638076081</v>
       </c>
       <c r="U43" s="9">
         <f t="shared" si="17"/>
-        <v>0.57061287010719741</v>
+        <v>0.59713911031480349</v>
       </c>
       <c r="V43" s="9">
         <f t="shared" si="18"/>
-        <v>1.5992687706569753E-3</v>
+        <v>3.0711217191189523E-3</v>
       </c>
       <c r="W43" s="9">
         <f t="shared" si="19"/>
-        <v>2.4930887123879668E-3</v>
+        <v>4.7180033763757805E-3</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="20"/>
-        <v>4.0923574830449422E-3</v>
+        <v>7.7891250954947328E-3</v>
       </c>
       <c r="Y43" s="9">
         <f t="shared" si="21"/>
-        <v>8.9951759031016242E-5</v>
+        <v>1.7415287779079899E-4</v>
       </c>
       <c r="Z43" s="9">
         <f t="shared" si="22"/>
-        <v>1.7990351806203248E-4</v>
+        <v>3.4830575558159797E-4</v>
       </c>
       <c r="AA43" s="9">
         <f t="shared" si="23"/>
-        <v>1.0883737578091629E-4</v>
+        <v>2.0020051470698996E-4</v>
       </c>
       <c r="AB43" s="9">
         <f t="shared" si="24"/>
-        <v>2.1767475156183257E-4</v>
+        <v>4.0040102941397992E-4</v>
       </c>
       <c r="AC43" s="9">
         <f t="shared" si="25"/>
-        <v>7.0715669709938032E-3</v>
+        <v>9.6843055838347382E-3</v>
       </c>
       <c r="AD43" s="9">
         <f t="shared" si="26"/>
-        <v>7.1234221756620465E-3</v>
+        <v>9.7555858365363582E-3</v>
       </c>
       <c r="AE43" s="9">
         <f t="shared" si="27"/>
-        <v>8.7652973539009277E-3</v>
+        <v>1.1841129863140091E-2</v>
       </c>
       <c r="AF43" s="9">
         <f t="shared" si="28"/>
-        <v>8.8295725407341891E-3</v>
+        <v>1.192828518074244E-2</v>
       </c>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.3">
@@ -13076,111 +13076,111 @@
       </c>
       <c r="F44" s="8">
         <f t="shared" si="2"/>
-        <v>0.14593059744226655</v>
+        <v>0.1473589004319093</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="3"/>
-        <v>0.19186119488453315</v>
+        <v>0.19471780086381854</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="4"/>
-        <v>0.24535161902623734</v>
+        <v>0.24702527518017853</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="5"/>
-        <v>0.29070323805247467</v>
+        <v>0.29405055036035704</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="6"/>
-        <v>2.6482649360566646E-2</v>
+        <v>2.683972510797732E-2</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="7"/>
-        <v>0.50662027542778809</v>
+        <v>0.50670952850277096</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="8"/>
-        <v>4.1337904756559338E-2</v>
+        <v>4.1756318795044628E-2</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="9"/>
-        <v>0.51033300479190069</v>
+        <v>0.5104375631734609</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="10"/>
-        <v>0.18491027714279515</v>
+        <v>0.27640576303566755</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="11"/>
-        <v>0.23332603040890637</v>
+        <v>0.32549382565974222</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="12"/>
-        <v>0.2378872779823141</v>
+        <v>0.35049231639400663</v>
       </c>
       <c r="Q44" s="8">
         <f t="shared" si="13"/>
-        <v>0.28595674204542054</v>
+        <v>0.39938918890380271</v>
       </c>
       <c r="R44" s="9">
         <f t="shared" si="14"/>
-        <v>0.2127532697302551</v>
+        <v>0.30620170906101785</v>
       </c>
       <c r="S44" s="9">
         <f t="shared" si="15"/>
-        <v>0.55298859527682109</v>
+        <v>0.57595787168630808</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="16"/>
-        <v>0.26645168170070865</v>
+        <v>0.38146104072573322</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="17"/>
-        <v>0.56622159147928119</v>
+        <v>0.59422543980519849</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" si="18"/>
-        <v>1.4038956147053732E-3</v>
+        <v>2.8847991355568209E-3</v>
       </c>
       <c r="W44" s="9">
         <f t="shared" si="19"/>
-        <v>2.192649589024404E-3</v>
+        <v>4.4392167532415414E-3</v>
       </c>
       <c r="X44" s="6">
         <f t="shared" si="20"/>
-        <v>3.5965452037297774E-3</v>
+        <v>7.3240158887983627E-3</v>
       </c>
       <c r="Y44" s="9">
         <f t="shared" si="21"/>
-        <v>7.8626945254620551E-5</v>
+        <v>1.6360521960757653E-4</v>
       </c>
       <c r="Z44" s="9">
         <f t="shared" si="22"/>
-        <v>1.572538905092411E-4</v>
+        <v>3.2721043921515305E-4</v>
       </c>
       <c r="AA44" s="9">
         <f t="shared" si="23"/>
-        <v>9.6324054787457511E-5</v>
+        <v>1.8887029410239443E-4</v>
       </c>
       <c r="AB44" s="9">
         <f t="shared" si="24"/>
-        <v>1.9264810957491502E-4</v>
+        <v>3.7774058820478886E-4</v>
       </c>
       <c r="AC44" s="9">
         <f t="shared" si="25"/>
-        <v>6.6358987562571787E-3</v>
+        <v>9.400080707734737E-3</v>
       </c>
       <c r="AD44" s="9">
         <f t="shared" si="26"/>
-        <v>6.6845294514042107E-3</v>
+        <v>9.4692403047315944E-3</v>
       </c>
       <c r="AE44" s="9">
         <f t="shared" si="27"/>
-        <v>8.240176945430425E-3</v>
+        <v>1.1512331874076317E-2</v>
       </c>
       <c r="AF44" s="9">
         <f t="shared" si="28"/>
-        <v>8.3005644750944324E-3</v>
+        <v>1.1597032022687812E-2</v>
       </c>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.3">
@@ -13198,111 +13198,111 @@
       </c>
       <c r="F45" s="8">
         <f t="shared" si="2"/>
-        <v>0.14577334355175731</v>
+        <v>0.14719529521230174</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="3"/>
-        <v>0.19154668710351466</v>
+        <v>0.19439059042460338</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="4"/>
-        <v>0.24515897091666242</v>
+        <v>0.24683640488607614</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="5"/>
-        <v>0.29031794183332482</v>
+        <v>0.29367280977215227</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="6"/>
-        <v>2.6443335887939335E-2</v>
+        <v>2.6798823803075425E-2</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="7"/>
-        <v>0.50661044878010764</v>
+        <v>0.50669930501502691</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="8"/>
-        <v>4.1289742729165607E-2</v>
+        <v>4.1709101221519038E-2</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="9"/>
-        <v>0.51032096942137239</v>
+        <v>0.51042576391827765</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="10"/>
-        <v>0.17163847963028078</v>
+        <v>0.26700568232793281</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="11"/>
-        <v>0.21995697150609794</v>
+        <v>0.3160245853550106</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="12"/>
-        <v>0.22140692409145324</v>
+        <v>0.33897998451993033</v>
       </c>
       <c r="Q45" s="8">
         <f t="shared" si="13"/>
-        <v>0.26935561309523171</v>
+        <v>0.3877921568811149</v>
       </c>
       <c r="R45" s="9">
         <f t="shared" si="14"/>
-        <v>0.19920250212341301</v>
+        <v>0.29659868406741485</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" si="15"/>
-        <v>0.54963659553654098</v>
+        <v>0.57361082707713162</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="16"/>
-        <v>0.24962487877084111</v>
+        <v>0.36970003048781291</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" si="17"/>
-        <v>0.56208416861369381</v>
+        <v>0.59138649323505033</v>
       </c>
       <c r="V45" s="9">
         <f t="shared" si="18"/>
-        <v>1.2318958082290802E-3</v>
+        <v>2.7092769314896871E-3</v>
       </c>
       <c r="W45" s="9">
         <f t="shared" si="19"/>
-        <v>1.9272219962267821E-3</v>
+        <v>4.1757455728999495E-3</v>
       </c>
       <c r="X45" s="6">
         <f t="shared" si="20"/>
-        <v>3.1591178044558625E-3</v>
+        <v>6.885022504389637E-3</v>
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="21"/>
-        <v>6.8642757044572482E-5</v>
+        <v>1.5363444142224561E-4</v>
       </c>
       <c r="Z45" s="9">
         <f t="shared" si="22"/>
-        <v>1.3728551408914496E-4</v>
+        <v>3.0726888284449122E-4</v>
       </c>
       <c r="AA45" s="9">
         <f t="shared" si="23"/>
-        <v>8.522013133336389E-5</v>
+        <v>1.7813588978903569E-4</v>
       </c>
       <c r="AB45" s="9">
         <f t="shared" si="24"/>
-        <v>1.7044026266672778E-4</v>
+        <v>3.5627177957807139E-4</v>
       </c>
       <c r="AC45" s="9">
         <f t="shared" si="25"/>
-        <v>6.2246489514647188E-3</v>
+        <v>9.1225345015371901E-3</v>
       </c>
       <c r="AD45" s="9">
         <f t="shared" si="26"/>
-        <v>6.2702395792827046E-3</v>
+        <v>9.1896250808551488E-3</v>
       </c>
       <c r="AE45" s="9">
         <f t="shared" si="27"/>
-        <v>7.7418902754436145E-3</v>
+        <v>1.1189648407985951E-2</v>
       </c>
       <c r="AF45" s="9">
         <f t="shared" si="28"/>
-        <v>7.7985934953211603E-3</v>
+        <v>1.1271941327122573E-2</v>
       </c>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.3">
@@ -13320,111 +13320,111 @@
       </c>
       <c r="F46" s="8">
         <f t="shared" si="2"/>
-        <v>0.14563605803766816</v>
+        <v>0.14704166077087949</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="3"/>
-        <v>0.19127211607533637</v>
+        <v>0.19408332154175889</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="4"/>
-        <v>0.2449885306539957</v>
+        <v>0.24665826899628709</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="5"/>
-        <v>0.28997706130799139</v>
+        <v>0.29331653799257418</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="6"/>
-        <v>2.6409014509417048E-2</v>
+        <v>2.6760415192719867E-2</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="7"/>
-        <v>0.50660186993330836</v>
+        <v>0.50668970458377383</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="8"/>
-        <v>4.1247132663498928E-2</v>
+        <v>4.1664567249071777E-2</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="9"/>
-        <v>0.51031032143920141</v>
+        <v>0.51041463526068998</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="10"/>
-        <v>0.15918918172735136</v>
+        <v>0.2578831478263956</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="11"/>
-        <v>0.20741649234753254</v>
+        <v>0.30683496027415547</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="12"/>
-        <v>0.20592314354056601</v>
+        <v>0.32779033611194436</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="13"/>
-        <v>0.25375842610458937</v>
+        <v>0.37652021555399234</v>
       </c>
       <c r="R46" s="9">
         <f t="shared" si="14"/>
-        <v>0.1864923140178904</v>
+        <v>0.28727979032285145</v>
       </c>
       <c r="S46" s="9">
         <f t="shared" si="15"/>
-        <v>0.54648841999302777</v>
+        <v>0.57133005052656649</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="16"/>
-        <v>0.23381659357353465</v>
+        <v>0.3582694170602444</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="17"/>
-        <v>0.55818928796724887</v>
+        <v>0.58862144427113683</v>
       </c>
       <c r="V46" s="9">
         <f t="shared" si="18"/>
-        <v>1.0805865967240722E-3</v>
+        <v>2.5439880540612642E-3</v>
       </c>
       <c r="W46" s="9">
         <f t="shared" si="19"/>
-        <v>1.692996617067707E-3</v>
+        <v>3.9268801923511053E-3</v>
       </c>
       <c r="X46" s="6">
         <f t="shared" si="20"/>
-        <v>2.773583213791779E-3</v>
+        <v>6.4708682464123691E-3</v>
       </c>
       <c r="Y46" s="9">
         <f t="shared" si="21"/>
-        <v>5.9854279036721212E-5</v>
+        <v>1.4421517306600535E-4</v>
       </c>
       <c r="Z46" s="9">
         <f t="shared" si="22"/>
-        <v>1.1970855807344242E-4</v>
+        <v>2.884303461320107E-4</v>
       </c>
       <c r="AA46" s="9">
         <f t="shared" si="23"/>
-        <v>7.5377920131265241E-5</v>
+        <v>1.6797191291041327E-4</v>
       </c>
       <c r="AB46" s="9">
         <f t="shared" si="24"/>
-        <v>1.5075584026253048E-4</v>
+        <v>3.3594382582082655E-4</v>
       </c>
       <c r="AC46" s="9">
         <f t="shared" si="25"/>
-        <v>5.8368820743807323E-3</v>
+        <v>8.8516598958755435E-3</v>
       </c>
       <c r="AD46" s="9">
         <f t="shared" si="26"/>
-        <v>5.8796095007941146E-3</v>
+        <v>8.9167328965493193E-3</v>
       </c>
       <c r="AE46" s="9">
         <f t="shared" si="27"/>
-        <v>7.269885499132306E-3</v>
+        <v>1.0873231448344262E-2</v>
       </c>
       <c r="AF46" s="9">
         <f t="shared" si="28"/>
-        <v>7.3231028665109079E-3</v>
+        <v>1.0953166037527237E-2</v>
       </c>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.3">
@@ -13442,111 +13442,111 @@
       </c>
       <c r="F47" s="8">
         <f t="shared" si="2"/>
-        <v>0.14551634947959471</v>
+        <v>0.14689744559781348</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="3"/>
-        <v>0.19103269895918948</v>
+        <v>0.19379489119562687</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="4"/>
-        <v>0.24483777481373317</v>
+        <v>0.24649029708337669</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="5"/>
-        <v>0.28967554962746633</v>
+        <v>0.29298059416675337</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="6"/>
-        <v>2.6379087369898684E-2</v>
+        <v>2.6724361399453365E-2</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065943894513163</v>
+        <v>0.5066806927467693</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="8"/>
-        <v>4.1209443703433296E-2</v>
+        <v>4.1622574270844176E-2</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="9"/>
-        <v>0.51030090320196564</v>
+        <v>0.51040414156629799</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="10"/>
-        <v>0.14751541757858988</v>
+        <v>0.24903148793052005</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="11"/>
-        <v>0.19565727334594432</v>
+        <v>0.29791822737760615</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="12"/>
-        <v>0.19138337254230139</v>
+        <v>0.31691710466360012</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="13"/>
-        <v>0.23911222037156757</v>
+        <v>0.36556704951646513</v>
       </c>
       <c r="R47" s="9">
         <f t="shared" si="14"/>
-        <v>0.17457456620935097</v>
+        <v>0.27823814392201485</v>
       </c>
       <c r="S47" s="9">
         <f t="shared" si="15"/>
-        <v>0.54353313699989703</v>
+        <v>0.56911422862814132</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="16"/>
-        <v>0.21897292478643937</v>
+        <v>0.34716271422762901</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="17"/>
-        <v>0.55452553406323968</v>
+        <v>0.58592937583829652</v>
       </c>
       <c r="V47" s="9">
         <f t="shared" si="18"/>
-        <v>9.4756700852590174E-4</v>
+        <v>2.3883882994314943E-3</v>
       </c>
       <c r="W47" s="9">
         <f t="shared" si="19"/>
-        <v>1.4865169324407553E-3</v>
+        <v>3.6919288159796087E-3</v>
       </c>
       <c r="X47" s="6">
         <f t="shared" si="20"/>
-        <v>2.4340839409666571E-3</v>
+        <v>6.0803171154111026E-3</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="21"/>
-        <v>5.2129402573461154E-5</v>
+        <v>1.353224640946519E-4</v>
       </c>
       <c r="Z47" s="9">
         <f t="shared" si="22"/>
-        <v>1.0425880514692231E-4</v>
+        <v>2.706449281893038E-4</v>
       </c>
       <c r="AA47" s="9">
         <f t="shared" si="23"/>
-        <v>6.6662409552686611E-5</v>
+        <v>1.5835334708002932E-4</v>
       </c>
       <c r="AB47" s="9">
         <f t="shared" si="24"/>
-        <v>1.3332481910537322E-4</v>
+        <v>3.1670669416005863E-4</v>
       </c>
       <c r="AC47" s="9">
         <f t="shared" si="25"/>
-        <v>5.4716161308686305E-3</v>
+        <v>8.587434109529838E-3</v>
       </c>
       <c r="AD47" s="9">
         <f t="shared" si="26"/>
-        <v>5.5116493820250535E-3</v>
+        <v>8.6505406613594932E-3</v>
       </c>
       <c r="AE47" s="9">
         <f t="shared" si="27"/>
-        <v>6.8234602881269554E-3</v>
+        <v>1.0563204945869433E-2</v>
       </c>
       <c r="AF47" s="9">
         <f t="shared" si="28"/>
-        <v>6.8733843494896262E-3</v>
+        <v>1.0640830862051313E-2</v>
       </c>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.3">
@@ -13564,111 +13564,111 @@
       </c>
       <c r="F48" s="8">
         <f t="shared" si="2"/>
-        <v>0.1454120906744478</v>
+        <v>0.14676212313371884</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="3"/>
-        <v>0.19082418134889564</v>
+        <v>0.19352424626743756</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="4"/>
-        <v>0.24470444999462779</v>
+        <v>0.24633194373629666</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="5"/>
-        <v>0.28940889998925556</v>
+        <v>0.29266388747259331</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="6"/>
-        <v>2.6353022668611954E-2</v>
+        <v>2.66905307834297E-2</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="7"/>
-        <v>0.50658787440832409</v>
+        <v>0.50667223660076932</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="8"/>
-        <v>4.117611249865695E-2</v>
+        <v>4.1582985934074168E-2</v>
       </c>
       <c r="M48" s="9">
         <f t="shared" si="9"/>
-        <v>0.51029257393464034</v>
+        <v>0.51039424876331763</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="10"/>
-        <v>0.13657218531685261</v>
+        <v>0.24044405382099021</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="11"/>
-        <v>0.18463397458189421</v>
+        <v>0.28926768671624664</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="12"/>
-        <v>0.17773645196604748</v>
+        <v>0.30635389971773069</v>
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="13"/>
-        <v>0.22536545167258831</v>
+        <v>0.35492621865441382</v>
       </c>
       <c r="R48" s="9">
         <f t="shared" si="14"/>
-        <v>0.16340315918814186</v>
+        <v>0.26946689017987829</v>
       </c>
       <c r="S48" s="9">
         <f t="shared" si="15"/>
-        <v>0.54076013681410195</v>
+        <v>0.56696202260354789</v>
       </c>
       <c r="T48" s="9">
         <f t="shared" si="16"/>
-        <v>0.20504144781630507</v>
+        <v>0.33637331629787492</v>
       </c>
       <c r="U48" s="9">
         <f t="shared" si="17"/>
-        <v>0.5510815231324272</v>
+        <v>0.58330929000101039</v>
       </c>
       <c r="V48" s="9">
         <f t="shared" si="18"/>
-        <v>8.3069437655215468E-4</v>
+        <v>2.2419562355790292E-3</v>
       </c>
       <c r="W48" s="9">
         <f t="shared" si="19"/>
-        <v>1.3046610027643475E-3</v>
+        <v>3.4702189002362251E-3</v>
       </c>
       <c r="X48" s="6">
         <f t="shared" si="20"/>
-        <v>2.1353553793165021E-3</v>
+        <v>5.7121751358152548E-3</v>
       </c>
       <c r="Y48" s="9">
         <f t="shared" si="21"/>
-        <v>4.5348361071337638E-5</v>
+        <v>1.2693186773148096E-4</v>
       </c>
       <c r="Z48" s="9">
         <f t="shared" si="22"/>
-        <v>9.0696722142675275E-5</v>
+        <v>2.5386373546296191E-4</v>
       </c>
       <c r="AA48" s="9">
         <f t="shared" si="23"/>
-        <v>5.8950857877020964E-5</v>
+        <v>1.492556368386461E-4</v>
       </c>
       <c r="AB48" s="9">
         <f t="shared" si="24"/>
-        <v>1.1790171575404193E-4</v>
+        <v>2.985112736772922E-4</v>
       </c>
       <c r="AC48" s="9">
         <f t="shared" si="25"/>
-        <v>5.1278424303421973E-3</v>
+        <v>8.3298201644683954E-3</v>
       </c>
       <c r="AD48" s="9">
         <f t="shared" si="26"/>
-        <v>5.1653425687829381E-3</v>
+        <v>8.3910109890772064E-3</v>
       </c>
       <c r="AE48" s="9">
         <f t="shared" si="27"/>
-        <v>6.401797899564147E-3</v>
+        <v>1.0259666694026417E-2</v>
       </c>
       <c r="AF48" s="9">
         <f t="shared" si="28"/>
-        <v>6.4486145306842423E-3</v>
+        <v>1.0335034163290274E-2</v>
       </c>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.3">
@@ -13686,111 +13686,111 @@
       </c>
       <c r="F49" s="8">
         <f t="shared" si="2"/>
-        <v>0.14532139395230512</v>
+        <v>0.14663519126598734</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="3"/>
-        <v>0.19064278790461028</v>
+        <v>0.19327038253197459</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="4"/>
-        <v>0.24458654827887374</v>
+        <v>0.24618268809945801</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="5"/>
-        <v>0.28917309655774748</v>
+        <v>0.292365376198916</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="6"/>
-        <v>2.6330348488076288E-2</v>
+        <v>2.6658797816496826E-2</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="7"/>
-        <v>0.50658220684640531</v>
+        <v>0.50666430477006918</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="8"/>
-        <v>4.1146637069718439E-2</v>
+        <v>4.1545672024864505E-2</v>
       </c>
       <c r="M49" s="9">
         <f t="shared" si="9"/>
-        <v>0.51028520819771239</v>
+        <v>0.51038492431380977</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="10"/>
-        <v>0.12631650045616821</v>
+        <v>0.23211423365652181</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="11"/>
-        <v>0.17430328944432832</v>
+        <v>0.28087667572716946</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="12"/>
-        <v>0.16493285616691919</v>
+        <v>0.2960942330237043</v>
       </c>
       <c r="Q49" s="8">
         <f t="shared" si="13"/>
-        <v>0.21246822261121984</v>
+        <v>0.34459118449112353</v>
       </c>
       <c r="R49" s="9">
         <f t="shared" si="14"/>
-        <v>0.15293408190584587</v>
+        <v>0.26095921770534491</v>
       </c>
       <c r="S49" s="9">
         <f t="shared" si="15"/>
-        <v>0.53815917457126683</v>
+        <v>0.56487207412481844</v>
       </c>
       <c r="T49" s="9">
         <f t="shared" si="16"/>
-        <v>0.1919714414690829</v>
+        <v>0.3258945243370901</v>
       </c>
       <c r="U49" s="9">
         <f t="shared" si="17"/>
-        <v>0.54784601131591915</v>
+        <v>0.58076011736204702</v>
       </c>
       <c r="V49" s="9">
         <f t="shared" si="18"/>
-        <v>7.2806130198020853E-4</v>
+        <v>2.1041930006279689E-3</v>
       </c>
       <c r="W49" s="9">
         <f t="shared" si="19"/>
-        <v>1.1446203994215315E-3</v>
+        <v>3.2610982781658047E-3</v>
       </c>
       <c r="X49" s="6">
         <f t="shared" si="20"/>
-        <v>1.87268170140174E-3</v>
+        <v>5.365291278793774E-3</v>
       </c>
       <c r="Y49" s="9">
         <f t="shared" si="21"/>
-        <v>3.9403097701877427E-5</v>
+        <v>1.1901951142705161E-4</v>
       </c>
       <c r="Z49" s="9">
         <f t="shared" si="22"/>
-        <v>7.8806195403754854E-5</v>
+        <v>2.3803902285410322E-4</v>
       </c>
       <c r="AA49" s="9">
         <f t="shared" si="23"/>
-        <v>5.2132210437182289E-5</v>
+        <v>1.4065476251746227E-4</v>
       </c>
       <c r="AB49" s="9">
         <f t="shared" si="24"/>
-        <v>1.0426442087436458E-4</v>
+        <v>2.8130952503492454E-4</v>
       </c>
       <c r="AC49" s="9">
         <f t="shared" si="25"/>
-        <v>4.8045417615012699E-3</v>
+        <v>8.0787683195074206E-3</v>
       </c>
       <c r="AD49" s="9">
         <f t="shared" si="26"/>
-        <v>4.8396618750678423E-3</v>
+        <v>8.1380936420452944E-3</v>
       </c>
       <c r="AE49" s="9">
         <f t="shared" si="27"/>
-        <v>6.0039980237518867E-3</v>
+        <v>9.9626901877845914E-3</v>
       </c>
       <c r="AF49" s="9">
         <f t="shared" si="28"/>
-        <v>6.0478858912978136E-3</v>
+        <v>1.0035849831106466E-2</v>
       </c>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.3">
@@ -13808,111 +13808,111 @@
       </c>
       <c r="F50" s="8">
         <f t="shared" si="2"/>
-        <v>0.14524258775690135</v>
+        <v>0.14651617175456028</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="3"/>
-        <v>0.19048517551380278</v>
+        <v>0.19303234350912049</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="4"/>
-        <v>0.24448228385799939</v>
+        <v>0.24604203333694055</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="5"/>
-        <v>0.28896456771599877</v>
+        <v>0.29208406667388109</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="6"/>
-        <v>2.6310646939225347E-2</v>
+        <v>2.6629042938640067E-2</v>
       </c>
       <c r="K50" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065772823121325</v>
+        <v>0.50665686737063276</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" si="8"/>
-        <v>4.112057096449985E-2</v>
+        <v>4.1510508334235141E-2</v>
       </c>
       <c r="M50" s="9">
         <f t="shared" si="9"/>
-        <v>0.51027869442707796</v>
+        <v>0.51037613718023089</v>
       </c>
       <c r="N50" s="8">
         <f t="shared" si="10"/>
-        <v>0.11670741693316568</v>
+        <v>0.22403546533701441</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="11"/>
-        <v>0.16462396569419263</v>
+        <v>0.27273858208512414</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="12"/>
-        <v>0.15292486011941542</v>
+        <v>0.28613154283591968</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="13"/>
-        <v>0.2003724508286242</v>
+        <v>0.33455533466001708</v>
       </c>
       <c r="R50" s="9">
         <f t="shared" si="14"/>
-        <v>0.14312542838151271</v>
+        <v>0.25270837103219268</v>
       </c>
       <c r="S50" s="9">
         <f t="shared" si="15"/>
-        <v>0.53572040053603842</v>
+        <v>0.56284301065983167</v>
       </c>
       <c r="T50" s="9">
         <f t="shared" si="16"/>
-        <v>0.17971405264524071</v>
+        <v>0.31571957052599198</v>
       </c>
       <c r="U50" s="9">
         <f t="shared" si="17"/>
-        <v>0.54480798055621293</v>
+        <v>0.57828072595737812</v>
       </c>
       <c r="V50" s="9">
         <f t="shared" si="18"/>
-        <v>6.3797350722750697E-4</v>
+        <v>1.9746219943958584E-3</v>
       </c>
       <c r="W50" s="9">
         <f t="shared" si="19"/>
-        <v>1.0038775607629782E-3</v>
+        <v>3.0639360282070662E-3</v>
       </c>
       <c r="X50" s="6">
         <f t="shared" si="20"/>
-        <v>1.6418510679904851E-3</v>
+        <v>5.038558022602925E-3</v>
       </c>
       <c r="Y50" s="9">
         <f t="shared" si="21"/>
-        <v>3.4196526489431488E-5</v>
+        <v>1.1156215510101856E-4</v>
       </c>
       <c r="Z50" s="9">
         <f t="shared" si="22"/>
-        <v>6.8393052978862976E-5</v>
+        <v>2.2312431020203713E-4</v>
       </c>
       <c r="AA50" s="9">
         <f t="shared" si="23"/>
-        <v>4.6106400232167749E-5</v>
+        <v>1.3252730255993163E-4</v>
       </c>
       <c r="AB50" s="9">
         <f t="shared" si="24"/>
-        <v>9.2212800464335499E-5</v>
+        <v>2.6505460511986326E-4</v>
       </c>
       <c r="AC50" s="9">
         <f t="shared" si="25"/>
-        <v>4.5006974124304298E-3</v>
+        <v>7.8342174210181675E-3</v>
       </c>
       <c r="AD50" s="9">
         <f t="shared" si="26"/>
-        <v>4.5335826927415382E-3</v>
+        <v>7.8917268918500417E-3</v>
       </c>
       <c r="AE50" s="9">
         <f t="shared" si="27"/>
-        <v>5.6291028127673018E-3</v>
+        <v>9.6723264495362175E-3</v>
       </c>
       <c r="AF50" s="9">
         <f t="shared" si="28"/>
-        <v>5.670233021473764E-3</v>
+        <v>9.7433291222899284E-3</v>
       </c>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.3">
@@ -13930,111 +13930,111 @@
       </c>
       <c r="F51" s="8">
         <f t="shared" si="2"/>
-        <v>0.14517419470392248</v>
+        <v>0.14640460959945925</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="3"/>
-        <v>0.19034838940784507</v>
+        <v>0.19280921919891844</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="4"/>
-        <v>0.24439007105753505</v>
+        <v>0.24590950603438061</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="5"/>
-        <v>0.28878014211507008</v>
+        <v>0.29181901206876121</v>
       </c>
       <c r="J51" s="9">
         <f t="shared" si="6"/>
-        <v>2.6293548675980633E-2</v>
+        <v>2.6601152399864811E-2</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="7"/>
-        <v>0.50657300848552267</v>
+        <v>0.50664989597058319</v>
       </c>
       <c r="L51" s="9">
         <f t="shared" si="8"/>
-        <v>4.1097517764383765E-2</v>
+        <v>4.1477376508595155E-2</v>
       </c>
       <c r="M51" s="9">
         <f t="shared" si="9"/>
-        <v>0.51027293356129066</v>
+        <v>0.51036785778808758</v>
       </c>
       <c r="N51" s="8">
         <f t="shared" si="10"/>
-        <v>0.10770602210830482</v>
+        <v>0.21620124791599624</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="11"/>
-        <v>0.15555680030870955</v>
+        <v>0.26484685519327411</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="12"/>
-        <v>0.14166665449388083</v>
+        <v>0.27645921638638349</v>
       </c>
       <c r="Q51" s="8">
         <f t="shared" si="13"/>
-        <v>0.18903198478567668</v>
+        <v>0.32481200553772716</v>
       </c>
       <c r="R51" s="9">
         <f t="shared" si="14"/>
-        <v>0.13393738848034531</v>
+        <v>0.2447076618922529</v>
       </c>
       <c r="S51" s="9">
         <f t="shared" si="15"/>
-        <v>0.53343437982191277</v>
+        <v>0.56087345036093317</v>
       </c>
       <c r="T51" s="9">
         <f t="shared" si="16"/>
-        <v>0.1682224087825448</v>
+        <v>0.30584164067241237</v>
       </c>
       <c r="U51" s="9">
         <f t="shared" si="17"/>
-        <v>0.54195670520390904</v>
+        <v>0.57586992963484163</v>
       </c>
       <c r="V51" s="9">
         <f t="shared" si="18"/>
-        <v>5.5892887703796405E-4</v>
+        <v>1.8527884794224971E-3</v>
       </c>
       <c r="W51" s="9">
         <f t="shared" si="19"/>
-        <v>8.8018255578386389E-4</v>
+        <v>2.8781231113979098E-3</v>
       </c>
       <c r="X51" s="6">
         <f t="shared" si="20"/>
-        <v>1.4391114328218279E-3</v>
+        <v>4.7309115908204073E-3</v>
       </c>
       <c r="Y51" s="9">
         <f t="shared" si="21"/>
-        <v>2.9641734669496489E-5</v>
+        <v>1.0453723813194818E-4</v>
       </c>
       <c r="Z51" s="9">
         <f t="shared" si="22"/>
-        <v>5.9283469338992978E-5</v>
+        <v>2.0907447626389636E-4</v>
       </c>
       <c r="AA51" s="9">
         <f t="shared" si="23"/>
-        <v>4.0783581259210501E-5</v>
+        <v>1.2485048436013186E-4</v>
       </c>
       <c r="AB51" s="9">
         <f t="shared" si="24"/>
-        <v>8.1567162518421003E-5</v>
+        <v>2.4970096872026373E-4</v>
       </c>
       <c r="AC51" s="9">
         <f t="shared" si="25"/>
-        <v>4.2153054875319522E-3</v>
+        <v>7.5960961702727561E-3</v>
       </c>
       <c r="AD51" s="9">
         <f t="shared" si="26"/>
-        <v>4.2460933783474725E-3</v>
+        <v>7.6518387959947295E-3</v>
       </c>
       <c r="AE51" s="9">
         <f t="shared" si="27"/>
-        <v>5.2761185586797116E-3</v>
+        <v>9.3886058088145444E-3</v>
       </c>
       <c r="AF51" s="9">
         <f t="shared" si="28"/>
-        <v>5.3146544518895486E-3</v>
+        <v>9.4575024536069068E-3</v>
       </c>
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.3">
@@ -14052,111 +14052,111 @@
       </c>
       <c r="F52" s="8">
         <f t="shared" si="2"/>
-        <v>0.14511491123458348</v>
+        <v>0.1463000723613273</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="3"/>
-        <v>0.19022982246916709</v>
+        <v>0.19260014472265455</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="4"/>
-        <v>0.24430850389501663</v>
+        <v>0.24578465555002046</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="5"/>
-        <v>0.28861700779003324</v>
+        <v>0.29156931110004092</v>
       </c>
       <c r="J52" s="9">
         <f t="shared" si="6"/>
-        <v>2.6278727808645885E-2</v>
+        <v>2.6575018090331821E-2</v>
       </c>
       <c r="K52" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065693039086554</v>
+        <v>0.50664336354775341</v>
       </c>
       <c r="L52" s="9">
         <f t="shared" si="8"/>
-        <v>4.1077125973754153E-2</v>
+        <v>4.1446163887505119E-2</v>
       </c>
       <c r="M52" s="9">
         <f t="shared" si="9"/>
-        <v>0.51026783776457618</v>
+        <v>0.51036005798541362</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="10"/>
-        <v>9.9275411133240912E-2</v>
+        <v>0.20860515174572347</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="11"/>
-        <v>0.14706461355201461</v>
+        <v>0.25719501639727937</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="12"/>
-        <v>0.13111441737652141</v>
+        <v>0.26707061057756892</v>
       </c>
       <c r="Q52" s="8">
         <f t="shared" si="13"/>
-        <v>0.17840267588189757</v>
+        <v>0.31535450308412027</v>
       </c>
       <c r="R52" s="9">
         <f t="shared" si="14"/>
-        <v>0.1253322182818809</v>
+        <v>0.23695047921591778</v>
       </c>
       <c r="S52" s="9">
         <f t="shared" si="15"/>
-        <v>0.53129210349678535</v>
+        <v>0.55896200651798889</v>
       </c>
       <c r="T52" s="9">
         <f t="shared" si="16"/>
-        <v>0.15745168681648375</v>
+        <v>0.29625389492774468</v>
       </c>
       <c r="U52" s="9">
         <f t="shared" si="17"/>
-        <v>0.53928180217540389</v>
+        <v>0.57352649591123117</v>
       </c>
       <c r="V52" s="9">
         <f t="shared" si="18"/>
-        <v>4.8959787062676299E-4</v>
+        <v>1.7382591063136818E-3</v>
       </c>
       <c r="W52" s="9">
         <f t="shared" si="19"/>
-        <v>7.715299910737829E-4</v>
+        <v>2.7030728004921469E-3</v>
       </c>
       <c r="X52" s="6">
         <f t="shared" si="20"/>
-        <v>1.2611278617005459E-3</v>
+        <v>4.441331906805829E-3</v>
       </c>
       <c r="Y52" s="9">
         <f t="shared" si="21"/>
-        <v>2.5661162798516835E-5</v>
+        <v>9.7922916144418631E-5</v>
       </c>
       <c r="Z52" s="9">
         <f t="shared" si="22"/>
-        <v>5.132232559703367E-5</v>
+        <v>1.9584583228883726E-4</v>
       </c>
       <c r="AA52" s="9">
         <f t="shared" si="23"/>
-        <v>3.6083332364689183E-5</v>
+        <v>1.1760222466286224E-4</v>
       </c>
       <c r="AB52" s="9">
         <f t="shared" si="24"/>
-        <v>7.2166664729378366E-5</v>
+        <v>2.3520444932572447E-4</v>
       </c>
       <c r="AC52" s="9">
         <f t="shared" si="25"/>
-        <v>3.9473829336498555E-3</v>
+        <v>7.364324307994434E-3</v>
       </c>
       <c r="AD52" s="9">
         <f t="shared" si="26"/>
-        <v>3.9762033325760017E-3</v>
+        <v>7.4183483911305177E-3</v>
       </c>
       <c r="AE52" s="9">
         <f t="shared" si="27"/>
-        <v>4.9440335146365665E-3</v>
+        <v>9.1115396249624968E-3</v>
       </c>
       <c r="AF52" s="9">
         <f t="shared" si="28"/>
-        <v>4.9801305998677468E-3</v>
+        <v>9.1783811373144612E-3</v>
       </c>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.3">
@@ -14174,111 +14174,111 @@
       </c>
       <c r="F53" s="8">
         <f t="shared" si="2"/>
-        <v>0.14506358890898643</v>
+        <v>0.14620214944518289</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="3"/>
-        <v>0.19012717781797303</v>
+        <v>0.1924042988903657</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="4"/>
-        <v>0.24423633723028726</v>
+        <v>0.2456670533253576</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="5"/>
-        <v>0.28847267446057451</v>
+        <v>0.29133410665071519</v>
       </c>
       <c r="J53" s="9">
         <f t="shared" si="6"/>
-        <v>2.6265897227246628E-2</v>
+        <v>2.6550537361295715E-2</v>
       </c>
       <c r="K53" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065660968167488</v>
+        <v>0.50663724444493885</v>
       </c>
       <c r="L53" s="9">
         <f t="shared" si="8"/>
-        <v>4.1059084307571811E-2</v>
+        <v>4.1416763331339403E-2</v>
       </c>
       <c r="M53" s="9">
         <f t="shared" si="9"/>
-        <v>0.51026332924930118</v>
+        <v>0.51035271099972013</v>
       </c>
       <c r="N53" s="8">
         <f t="shared" si="10"/>
-        <v>9.1380645265941196E-2</v>
+        <v>0.20124082743772903</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="11"/>
-        <v>0.1391122068868626</v>
+        <v>0.24977666800614887</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="12"/>
-        <v>0.12122635034724827</v>
+        <v>0.25795907095260645</v>
       </c>
       <c r="Q53" s="8">
         <f t="shared" si="13"/>
-        <v>0.16844241468216206</v>
+        <v>0.30617612194680582</v>
       </c>
       <c r="R53" s="9">
         <f t="shared" si="14"/>
-        <v>0.11727419462227182</v>
+        <v>0.2294302979442856</v>
       </c>
       <c r="S53" s="9">
         <f t="shared" si="15"/>
-        <v>0.52928499272673635</v>
+        <v>0.55710729159822625</v>
       </c>
       <c r="T53" s="9">
         <f t="shared" si="16"/>
-        <v>0.14735914642925665</v>
+        <v>0.28694948676593823</v>
       </c>
       <c r="U53" s="9">
         <f t="shared" si="17"/>
-        <v>0.53677326725026453</v>
+        <v>0.57124915330869508</v>
       </c>
       <c r="V53" s="9">
         <f t="shared" si="18"/>
-        <v>4.288053995025004E-4</v>
+        <v>1.6306213768424213E-3</v>
       </c>
       <c r="W53" s="9">
         <f t="shared" si="19"/>
-        <v>6.7613659212968896E-4</v>
+        <v>2.5382209236029674E-3</v>
       </c>
       <c r="X53" s="6">
         <f t="shared" si="20"/>
-        <v>1.1049419916321895E-3</v>
+        <v>4.1688423004453889E-3</v>
       </c>
       <c r="Y53" s="9">
         <f t="shared" si="21"/>
-        <v>2.2185789645870662E-5</v>
+        <v>9.1698088612224941E-5</v>
       </c>
       <c r="Z53" s="9">
         <f t="shared" si="22"/>
-        <v>4.4371579291741325E-5</v>
+        <v>1.8339617722444988E-4</v>
       </c>
       <c r="AA53" s="9">
         <f t="shared" si="23"/>
-        <v>3.193385982754893E-5</v>
+        <v>1.1076116054349264E-4</v>
       </c>
       <c r="AB53" s="9">
         <f t="shared" si="24"/>
-        <v>6.386771965509786E-5</v>
+        <v>2.2152232108698527E-4</v>
       </c>
       <c r="AC53" s="9">
         <f t="shared" si="25"/>
-        <v>3.6959736438678566E-3</v>
+        <v>7.1388137174830894E-3</v>
       </c>
       <c r="AD53" s="9">
         <f t="shared" si="26"/>
-        <v>3.722949143633508E-3</v>
+        <v>7.1911668042309489E-3</v>
       </c>
       <c r="AE53" s="9">
         <f t="shared" si="27"/>
-        <v>4.6318323473408841E-3</v>
+        <v>8.8411219441856658E-3</v>
       </c>
       <c r="AF53" s="9">
         <f t="shared" si="28"/>
-        <v>4.6656383222854108E-3</v>
+        <v>8.9059590505187261E-3</v>
       </c>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.3">
@@ -14296,111 +14296,111 @@
       </c>
       <c r="F54" s="8">
         <f t="shared" si="2"/>
-        <v>0.14501921732969469</v>
+        <v>0.14611045135657066</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="3"/>
-        <v>0.19003843465938955</v>
+        <v>0.19222090271314124</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="4"/>
-        <v>0.24417246951063215</v>
+        <v>0.24555629216481412</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="5"/>
-        <v>0.28834493902126429</v>
+        <v>0.29111258432962822</v>
       </c>
       <c r="J54" s="9">
         <f t="shared" si="6"/>
-        <v>2.6254804332423692E-2</v>
+        <v>2.6527612839142657E-2</v>
       </c>
       <c r="K54" s="9">
         <f t="shared" si="7"/>
-        <v>0.50656332407109594</v>
+        <v>0.50663151432342324</v>
       </c>
       <c r="L54" s="9">
         <f t="shared" si="8"/>
-        <v>4.1043117377658041E-2</v>
+        <v>4.1389073041203525E-2</v>
       </c>
       <c r="M54" s="9">
         <f t="shared" si="9"/>
-        <v>0.51025933919806032</v>
+        <v>0.51034579139301017</v>
       </c>
       <c r="N54" s="8">
         <f t="shared" si="10"/>
-        <v>8.398869797820549E-2</v>
+        <v>0.19410201372024594</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="11"/>
-        <v>0.13166630859959558</v>
+        <v>0.24258550120191791</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="12"/>
-        <v>0.11196268565256651</v>
+        <v>0.2491179490084208</v>
       </c>
       <c r="Q54" s="8">
         <f t="shared" si="13"/>
-        <v>0.15911113803759125</v>
+        <v>0.2972701628962871</v>
       </c>
       <c r="R54" s="9">
         <f t="shared" si="14"/>
-        <v>0.10972955765292064</v>
+        <v>0.22214068673567688</v>
       </c>
       <c r="S54" s="9">
         <f t="shared" si="15"/>
-        <v>0.52740489736770091</v>
+        <v>0.55530792089583136</v>
       </c>
       <c r="T54" s="9">
         <f t="shared" si="16"/>
-        <v>0.13790413437020396</v>
+        <v>0.27792158029211622</v>
       </c>
       <c r="U54" s="9">
         <f t="shared" si="17"/>
-        <v>0.53442149982488896</v>
+        <v>0.5690365981765737</v>
       </c>
       <c r="V54" s="9">
         <f t="shared" si="18"/>
-        <v>3.7551419986711008E-4</v>
+        <v>1.5294830569097697E-3</v>
       </c>
       <c r="W54" s="9">
         <f t="shared" si="19"/>
-        <v>5.9241982509741526E-4</v>
+        <v>2.38302594389685E-3</v>
       </c>
       <c r="X54" s="6">
         <f t="shared" si="20"/>
-        <v>9.6793402496452539E-4</v>
+        <v>3.9125090008066202E-3</v>
       </c>
       <c r="Y54" s="9">
         <f t="shared" si="21"/>
-        <v>1.9154341198245259E-5</v>
+        <v>8.5842418255241242E-5</v>
       </c>
       <c r="Z54" s="9">
         <f t="shared" si="22"/>
-        <v>3.8308682396490517E-5</v>
+        <v>1.7168483651048248E-4</v>
       </c>
       <c r="AA54" s="9">
         <f t="shared" si="23"/>
-        <v>2.8271219053565923E-5</v>
+        <v>1.0430667194711652E-4</v>
       </c>
       <c r="AB54" s="9">
         <f t="shared" si="24"/>
-        <v>5.6542438107131846E-5</v>
+        <v>2.0861334389423304E-4</v>
       </c>
       <c r="AC54" s="9">
         <f t="shared" si="25"/>
-        <v>3.4601529631026542E-3</v>
+        <v>6.919469448339554E-3</v>
       </c>
       <c r="AD54" s="9">
         <f t="shared" si="26"/>
-        <v>3.4853991210567251E-3</v>
+        <v>6.9701982837535861E-3</v>
       </c>
       <c r="AE54" s="9">
         <f t="shared" si="27"/>
-        <v>4.338507685464228E-3</v>
+        <v>8.5773310844696592E-3</v>
       </c>
       <c r="AF54" s="9">
         <f t="shared" si="28"/>
-        <v>4.3701625433506166E-3</v>
+        <v>8.6402142318156069E-3</v>
       </c>
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.3">
@@ -14418,111 +14418,111 @@
       </c>
       <c r="F55" s="8">
         <f t="shared" si="2"/>
-        <v>0.14498090864729821</v>
+        <v>0.14602460893831543</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="3"/>
-        <v>0.18996181729459657</v>
+        <v>0.19204921787663076</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="4"/>
-        <v>0.24411592707252502</v>
+        <v>0.24545198549286701</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="5"/>
-        <v>0.28823185414505004</v>
+        <v>0.29090397098573401</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="6"/>
-        <v>2.6245227161824571E-2</v>
+        <v>2.6506152234578848E-2</v>
       </c>
       <c r="K55" s="9">
         <f t="shared" si="7"/>
-        <v>0.50656093019085369</v>
+        <v>0.50662615011529177</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="8"/>
-        <v>4.1028981768131259E-2</v>
+        <v>4.1362996373216755E-2</v>
       </c>
       <c r="M55" s="9">
         <f t="shared" si="9"/>
-        <v>0.51025580678299642</v>
+        <v>0.51033927501538234</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="10"/>
-        <v>7.7068392052000181E-2</v>
+        <v>0.18718254427190639</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="11"/>
-        <v>0.12469551035748212</v>
+        <v>0.23561530291816432</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="12"/>
-        <v>0.10328567028163806</v>
+        <v>0.24054061792395115</v>
       </c>
       <c r="Q55" s="8">
         <f t="shared" si="13"/>
-        <v>0.15037081295089003</v>
+        <v>0.2886299486644715</v>
       </c>
       <c r="R55" s="9">
         <f t="shared" si="14"/>
-        <v>0.10266644460584914</v>
+        <v>0.21507531464704677</v>
       </c>
       <c r="S55" s="9">
         <f t="shared" si="15"/>
-        <v>0.52564409019593206</v>
+        <v>0.55356251581451843</v>
       </c>
       <c r="T55" s="9">
         <f t="shared" si="16"/>
-        <v>0.12904806569212382</v>
+        <v>0.26916336595431811</v>
       </c>
       <c r="U55" s="9">
         <f t="shared" si="17"/>
-        <v>0.53221731816191908</v>
+        <v>0.56688750100916885</v>
       </c>
       <c r="V55" s="9">
         <f t="shared" si="18"/>
-        <v>3.288096809885493E-4</v>
+        <v>1.4344715501902684E-3</v>
       </c>
       <c r="W55" s="9">
         <f t="shared" si="19"/>
-        <v>5.1897779477316059E-4</v>
+        <v>2.2369688956257816E-3</v>
       </c>
       <c r="X55" s="6">
         <f t="shared" si="20"/>
-        <v>8.4778747576170989E-4</v>
+        <v>3.6714404458160501E-3</v>
       </c>
       <c r="Y55" s="9">
         <f t="shared" si="21"/>
-        <v>1.6512536971622485E-5</v>
+        <v>8.033634315818199E-5</v>
       </c>
       <c r="Z55" s="9">
         <f t="shared" si="22"/>
-        <v>3.302507394324497E-5</v>
+        <v>1.6067268631636398E-4</v>
       </c>
       <c r="AA55" s="9">
         <f t="shared" si="23"/>
-        <v>2.503856948885631E-5</v>
+        <v>9.8218896719565302E-5</v>
       </c>
       <c r="AB55" s="9">
         <f t="shared" si="24"/>
-        <v>5.007713897771262E-5</v>
+        <v>1.964377934391306E-4</v>
       </c>
       <c r="AC55" s="9">
         <f t="shared" si="25"/>
-        <v>3.2390308769144928E-3</v>
+        <v>6.7061906633290079E-3</v>
       </c>
       <c r="AD55" s="9">
         <f t="shared" si="26"/>
-        <v>3.2626565034779742E-3</v>
+        <v>6.755341153352263E-3</v>
       </c>
       <c r="AE55" s="9">
         <f t="shared" si="27"/>
-        <v>4.06306919289595E-3</v>
+        <v>8.3201311436554865E-3</v>
       </c>
       <c r="AF55" s="9">
         <f t="shared" si="28"/>
-        <v>4.0927053893697503E-3</v>
+        <v>8.3811104004792719E-3</v>
       </c>
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.3">
@@ -14540,111 +14540,111 @@
       </c>
       <c r="F56" s="8">
         <f t="shared" si="2"/>
-        <v>0.14494788357335497</v>
+        <v>0.14594427259515724</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="3"/>
-        <v>0.18989576714671008</v>
+        <v>0.1918885451903144</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="4"/>
-        <v>0.24406584993354732</v>
+        <v>0.24535376659614744</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="5"/>
-        <v>0.28813169986709464</v>
+        <v>0.29070753319229486</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="6"/>
-        <v>2.6236970893338759E-2</v>
+        <v>2.6486068148789302E-2</v>
       </c>
       <c r="K56" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655886647901816</v>
+        <v>0.50662112997498554</v>
       </c>
       <c r="L56" s="9">
         <f t="shared" si="8"/>
-        <v>4.1016462483386834E-2</v>
+        <v>4.1338441649036863E-2</v>
       </c>
       <c r="M56" s="9">
         <f t="shared" si="9"/>
-        <v>0.51025267827820664</v>
+        <v>0.51033313895769483</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="10"/>
-        <v>7.0590330298171189E-2</v>
+        <v>0.18047635360857739</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="11"/>
-        <v>0.11817019735052617</v>
+        <v>0.22885996176481205</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="12"/>
-        <v>9.5159531895846153E-2</v>
+        <v>0.23222048678029567</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="13"/>
-        <v>0.14218540217215053</v>
+        <v>0.28024883826399222</v>
       </c>
       <c r="R56" s="9">
         <f t="shared" si="14"/>
-        <v>9.6054817390991309E-2</v>
+        <v>0.2082279568681171</v>
       </c>
       <c r="S56" s="9">
         <f t="shared" si="15"/>
-        <v>0.52399525777449285</v>
+        <v>0.55186970680624159</v>
       </c>
       <c r="T56" s="9">
         <f t="shared" si="16"/>
-        <v>0.12075438688223755</v>
+        <v>0.26066807473648507</v>
       </c>
       <c r="U56" s="9">
         <f t="shared" si="17"/>
-        <v>0.53015196690645749</v>
+        <v>0.56480051227351136</v>
       </c>
       <c r="V56" s="9">
         <f t="shared" si="18"/>
-        <v>2.8788619783217978E-4</v>
+        <v>1.3452332420827325E-3</v>
       </c>
       <c r="W56" s="9">
         <f t="shared" si="19"/>
-        <v>4.5457055416405395E-4</v>
+        <v>2.099553195454748E-3</v>
       </c>
       <c r="X56" s="6">
         <f t="shared" si="20"/>
-        <v>7.4245675199623379E-4</v>
+        <v>3.4447864375374802E-3</v>
       </c>
       <c r="Y56" s="9">
         <f t="shared" si="21"/>
-        <v>1.4212382038127479E-5</v>
+        <v>7.5161082484544755E-5</v>
       </c>
       <c r="Z56" s="9">
         <f t="shared" si="22"/>
-        <v>2.8424764076254958E-5</v>
+        <v>1.5032216496908951E-4</v>
       </c>
       <c r="AA56" s="9">
         <f t="shared" si="23"/>
-        <v>2.2185471944429234E-5</v>
+        <v>9.2478739009763599E-5</v>
       </c>
       <c r="AB56" s="9">
         <f t="shared" si="24"/>
-        <v>4.4370943888858469E-5</v>
+        <v>1.849574780195272E-4</v>
       </c>
       <c r="AC56" s="9">
         <f t="shared" si="25"/>
-        <v>3.0317541252192718E-3</v>
+        <v>6.498871511322276E-3</v>
       </c>
       <c r="AD56" s="9">
         <f t="shared" si="26"/>
-        <v>3.0538615838011604E-3</v>
+        <v>6.5464886911045187E-3</v>
       </c>
       <c r="AE56" s="9">
         <f t="shared" si="27"/>
-        <v>3.8045505540331799E-3</v>
+        <v>8.0694734275557449E-3</v>
       </c>
       <c r="AF56" s="9">
         <f t="shared" si="28"/>
-        <v>3.8322932205958607E-3</v>
+        <v>8.1285983950641072E-3</v>
       </c>
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.3">
@@ -14662,111 +14662,111 @@
       </c>
       <c r="F57" s="8">
         <f t="shared" si="2"/>
-        <v>0.14491945880927873</v>
+        <v>0.14586911151267271</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="3"/>
-        <v>0.18983891761855756</v>
+        <v>0.19173822302534529</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="4"/>
-        <v>0.24402147898965845</v>
+        <v>0.24526128785713766</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="5"/>
-        <v>0.28804295797931689</v>
+        <v>0.29052257571427531</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="6"/>
-        <v>2.6229864702319694E-2</v>
+        <v>2.6467277878168168E-2</v>
       </c>
       <c r="K57" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655709023688</v>
+        <v>0.50661643323049965</v>
       </c>
       <c r="L57" s="9">
         <f t="shared" si="8"/>
-        <v>4.1005369747414616E-2</v>
+        <v>4.1315321964284418E-2</v>
       </c>
       <c r="M57" s="9">
         <f t="shared" si="9"/>
-        <v>0.51024990625993816</v>
+        <v>0.5103273615037025</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="10"/>
-        <v>6.4526822047732649E-2</v>
+        <v>0.17397748209725511</v>
       </c>
       <c r="O57" s="8">
         <f t="shared" si="11"/>
-        <v>0.11206247418292385</v>
+        <v>0.22231347307370752</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="12"/>
-        <v>8.7550430787779798E-2</v>
+        <v>0.22415101335273993</v>
       </c>
       <c r="Q57" s="8">
         <f t="shared" si="13"/>
-        <v>0.13452081573095881</v>
+        <v>0.27212023986892808</v>
       </c>
       <c r="R57" s="9">
         <f t="shared" si="14"/>
-        <v>8.986638616582604E-2</v>
+        <v>0.20159249958296405</v>
       </c>
       <c r="S57" s="9">
         <f t="shared" si="15"/>
-        <v>0.52245148878394698</v>
+        <v>0.55022813598891207</v>
       </c>
       <c r="T57" s="9">
         <f t="shared" si="16"/>
-        <v>0.11298852508557523</v>
+        <v>0.25242899091383192</v>
       </c>
       <c r="U57" s="9">
         <f t="shared" si="17"/>
-        <v>0.52821711838908036</v>
+        <v>0.56277426776401662</v>
       </c>
       <c r="V57" s="9">
         <f t="shared" si="18"/>
-        <v>2.5203467430784859E-4</v>
+        <v>1.2614328224603219E-3</v>
       </c>
       <c r="W57" s="9">
         <f t="shared" si="19"/>
-        <v>3.9810288509168864E-4</v>
+        <v>1.9703043466542283E-3</v>
       </c>
       <c r="X57" s="6">
         <f t="shared" si="20"/>
-        <v>6.5013755939953718E-4</v>
+        <v>3.2317371691145502E-3</v>
       </c>
       <c r="Y57" s="9">
         <f t="shared" si="21"/>
-        <v>1.2211509515761251E-5</v>
+        <v>7.0298636600415378E-5</v>
       </c>
       <c r="Z57" s="9">
         <f t="shared" si="22"/>
-        <v>2.4423019031522502E-5</v>
+        <v>1.4059727320083076E-4</v>
       </c>
       <c r="AA57" s="9">
         <f t="shared" si="23"/>
-        <v>1.9667233745793649E-5</v>
+        <v>8.7067871865786082E-5</v>
       </c>
       <c r="AB57" s="9">
         <f t="shared" si="24"/>
-        <v>3.9334467491587298E-5</v>
+        <v>1.7413574373157216E-4</v>
       </c>
       <c r="AC57" s="9">
         <f t="shared" si="25"/>
-        <v>2.8375074465131819E-3</v>
+        <v>6.2974019295470975E-3</v>
       </c>
       <c r="AD57" s="9">
         <f t="shared" si="26"/>
-        <v>2.8581929588986283E-3</v>
+        <v>6.34352993751372E-3</v>
       </c>
       <c r="AE57" s="9">
         <f t="shared" si="27"/>
-        <v>3.5620147145343744E-3</v>
+        <v>7.8252977963664434E-3</v>
       </c>
       <c r="AF57" s="9">
         <f t="shared" si="28"/>
-        <v>3.587981906121902E-3</v>
+        <v>7.8826175296676255E-3</v>
       </c>
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.3">
@@ -14784,111 +14784,111 @@
       </c>
       <c r="F58" s="8">
         <f t="shared" si="2"/>
-        <v>0.14489503579024721</v>
+        <v>0.1457988128760723</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="3"/>
-        <v>0.18979007158049452</v>
+        <v>0.19159762575214445</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="4"/>
-        <v>0.24398214452216688</v>
+        <v>0.24517421998527186</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="5"/>
-        <v>0.28796428904433374</v>
+        <v>0.29034843997054371</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="6"/>
-        <v>2.6223758947561814E-2</v>
+        <v>2.6449703219018062E-2</v>
       </c>
       <c r="K58" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655556406064894</v>
+        <v>0.50661204033457052</v>
       </c>
       <c r="L58" s="9">
         <f t="shared" si="8"/>
-        <v>4.0995536130541715E-2</v>
+        <v>4.1293554996317969E-2</v>
       </c>
       <c r="M58" s="9">
         <f t="shared" si="9"/>
-        <v>0.51024744888859763</v>
+        <v>0.51032192208203109</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="10"/>
-        <v>5.8851807154706282E-2</v>
+        <v>0.16768008016770802</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="11"/>
-        <v>0.10634608826512659</v>
+        <v>0.2159699431361938</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="12"/>
-        <v>8.0426401358711055E-2</v>
+        <v>0.21632571555637348</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="13"/>
-        <v>0.127344851918715</v>
+        <v>0.26423762233926046</v>
       </c>
       <c r="R58" s="9">
         <f t="shared" si="14"/>
-        <v>8.4074530605803249E-2</v>
+        <v>0.1951629440304363</v>
       </c>
       <c r="S58" s="9">
         <f t="shared" si="15"/>
-        <v>0.52100626049949728</v>
+        <v>0.54863645946548611</v>
       </c>
       <c r="T58" s="9">
         <f t="shared" si="16"/>
-        <v>0.10571782692625059</v>
+        <v>0.24443946345340756</v>
       </c>
       <c r="U58" s="9">
         <f t="shared" si="17"/>
-        <v>0.52640486900675731</v>
+        <v>0.56080739350311803</v>
       </c>
       <c r="V58" s="9">
         <f t="shared" si="18"/>
-        <v>2.2063149008636976E-4</v>
+        <v>1.1827525946689369E-3</v>
       </c>
       <c r="W58" s="9">
         <f t="shared" si="19"/>
-        <v>3.4860855363200648E-4</v>
+        <v>1.8487695523215207E-3</v>
       </c>
       <c r="X58" s="6">
         <f t="shared" si="20"/>
-        <v>5.692400437183763E-4</v>
+        <v>3.0315221469904576E-3</v>
       </c>
       <c r="Y58" s="9">
         <f t="shared" si="21"/>
-        <v>1.0472575534915094E-5</v>
+        <v>6.5731782362333255E-5</v>
       </c>
       <c r="Z58" s="9">
         <f t="shared" si="22"/>
-        <v>2.0945151069830189E-5</v>
+        <v>1.3146356472466651E-4</v>
       </c>
       <c r="AA58" s="9">
         <f t="shared" si="23"/>
-        <v>1.7444304280925415E-5</v>
+        <v>8.1968734787635087E-5</v>
       </c>
       <c r="AB58" s="9">
         <f t="shared" si="24"/>
-        <v>3.488860856185083E-5</v>
+        <v>1.6393746957527017E-4</v>
       </c>
       <c r="AC58" s="9">
         <f t="shared" si="25"/>
-        <v>2.6555141260844596E-3</v>
+        <v>6.1016683785866301E-3</v>
       </c>
       <c r="AD58" s="9">
         <f t="shared" si="26"/>
-        <v>2.6748680785589028E-3</v>
+        <v>6.1463504357517672E-3</v>
       </c>
       <c r="AE58" s="9">
         <f t="shared" si="27"/>
-        <v>3.3345576777713075E-3</v>
+        <v>7.5875339288033463E-3</v>
       </c>
       <c r="AF58" s="9">
         <f t="shared" si="28"/>
-        <v>3.358860644260902E-3</v>
+        <v>7.6430968672840738E-3</v>
       </c>
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.3">
@@ -14906,111 +14906,111 @@
       </c>
       <c r="F59" s="8">
         <f t="shared" si="2"/>
-        <v>0.14487409063917739</v>
+        <v>0.14573308109370997</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="3"/>
-        <v>0.18974818127835485</v>
+        <v>0.1914661621874198</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="4"/>
-        <v>0.24394725591360503</v>
+        <v>0.24509225125048423</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" si="5"/>
-        <v>0.28789451182721004</v>
+        <v>0.29018450250096844</v>
       </c>
       <c r="J59" s="9">
         <f t="shared" si="6"/>
-        <v>2.6218522659794356E-2</v>
+        <v>2.643327027342748E-2</v>
       </c>
       <c r="K59" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655425521369379</v>
+        <v>0.5066079328161599</v>
       </c>
       <c r="L59" s="9">
         <f t="shared" si="8"/>
-        <v>4.098681397840126E-2</v>
+        <v>4.127306281262106E-2</v>
       </c>
       <c r="M59" s="9">
         <f t="shared" si="9"/>
-        <v>0.51024526926628277</v>
+        <v>0.5103168012183037</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" si="10"/>
-        <v>5.3540778902537361E-2</v>
+        <v>0.16157841178912138</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" si="11"/>
-        <v>0.10099635210800878</v>
+        <v>0.20982359270044204</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="12"/>
-        <v>7.3757286003168443E-2</v>
+        <v>0.20873818162757013</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" si="13"/>
-        <v>0.1206271306301932</v>
+        <v>0.25659452547197636</v>
       </c>
       <c r="R59" s="9">
         <f t="shared" si="14"/>
-        <v>7.8654220256799107E-2</v>
+        <v>0.18893340983122681</v>
       </c>
       <c r="S59" s="9">
         <f t="shared" si="15"/>
-        <v>0.51965342397213354</v>
+        <v>0.5470933493661212</v>
       </c>
       <c r="T59" s="9">
         <f t="shared" si="16"/>
-        <v>9.8911489827140389E-2</v>
+        <v>0.23669291614313498</v>
       </c>
       <c r="U59" s="9">
         <f t="shared" si="17"/>
-        <v>0.52470773176821772</v>
+        <v>0.55889851020857495</v>
       </c>
       <c r="V59" s="9">
         <f t="shared" si="18"/>
-        <v>1.9312853691421671E-4</v>
+        <v>1.1088917772597738E-3</v>
       </c>
       <c r="W59" s="9">
         <f t="shared" si="19"/>
-        <v>3.0523600456509761E-4</v>
+        <v>1.7345172523948037E-3</v>
       </c>
       <c r="X59" s="6">
         <f t="shared" si="20"/>
-        <v>4.9836454147931435E-4</v>
+        <v>2.8434090296545773E-3</v>
       </c>
       <c r="Y59" s="9">
         <f t="shared" si="21"/>
-        <v>8.9627067051768442E-6</v>
+        <v>6.1444064262416464E-5</v>
       </c>
       <c r="Z59" s="9">
         <f t="shared" si="22"/>
-        <v>1.7925413410353688E-5</v>
+        <v>1.2288812852483293E-4</v>
       </c>
       <c r="AA59" s="9">
         <f t="shared" si="23"/>
-        <v>1.5481721435541145E-5</v>
+        <v>7.7164526939592988E-5</v>
       </c>
       <c r="AB59" s="9">
         <f t="shared" si="24"/>
-        <v>3.096344287108229E-5</v>
+        <v>1.5432905387918598E-4</v>
       </c>
       <c r="AC59" s="9">
         <f t="shared" si="25"/>
-        <v>2.485035993486256E-3</v>
+        <v>5.9115545136903223E-3</v>
       </c>
       <c r="AD59" s="9">
         <f t="shared" si="26"/>
-        <v>2.503143240002777E-3</v>
+        <v>5.9548329077365771E-3</v>
       </c>
       <c r="AE59" s="9">
         <f t="shared" si="27"/>
-        <v>3.1213111163273352E-3</v>
+        <v>7.3561025043779584E-3</v>
       </c>
       <c r="AF59" s="9">
         <f t="shared" si="28"/>
-        <v>3.1440545896557872E-3</v>
+        <v>7.4099564106714444E-3</v>
       </c>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.3">
@@ -15028,111 +15028,111 @@
       </c>
       <c r="F60" s="8">
         <f t="shared" si="2"/>
-        <v>0.14485616522576703</v>
+        <v>0.14567163702944755</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="3"/>
-        <v>0.18971233045153416</v>
+        <v>0.19134327405889495</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="4"/>
-        <v>0.24391629247073393</v>
+        <v>0.24501508672354463</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" si="5"/>
-        <v>0.28783258494146785</v>
+        <v>0.29003017344708926</v>
       </c>
       <c r="J60" s="9">
         <f t="shared" si="6"/>
-        <v>2.6214041306441768E-2</v>
+        <v>2.6417909257361871E-2</v>
       </c>
       <c r="K60" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655313506783395</v>
+        <v>0.50660409323248912</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="8"/>
-        <v>4.0979073117683479E-2</v>
+        <v>4.1253771680886162E-2</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="9"/>
-        <v>0.51024333486347362</v>
+        <v>0.510311980487689</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" si="10"/>
-        <v>4.8570706915564851E-2</v>
+        <v>0.15566685727543106</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" si="11"/>
-        <v>9.5990065628003232E-2</v>
+        <v>0.20386875979270547</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="12"/>
-        <v>6.7514663770513766E-2</v>
+        <v>0.20138207912319217</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" si="13"/>
-        <v>0.11433902145088162</v>
+        <v>0.24918456906130493</v>
       </c>
       <c r="R60" s="9">
         <f t="shared" si="14"/>
-        <v>7.3581935060336362E-2</v>
+        <v>0.18289813764575552</v>
       </c>
       <c r="S60" s="9">
         <f t="shared" si="15"/>
-        <v>0.51838718836566577</v>
+        <v>0.54559749563431392</v>
       </c>
       <c r="T60" s="9">
         <f t="shared" si="16"/>
-        <v>9.2540488206128535E-2</v>
+        <v>0.229182856532124</v>
       </c>
       <c r="U60" s="9">
         <f t="shared" si="17"/>
-        <v>0.52311862591030756</v>
+        <v>0.55704623734926983</v>
       </c>
       <c r="V60" s="9">
         <f t="shared" si="18"/>
-        <v>1.6904434799723739E-4</v>
+        <v>1.0395658040606387E-3</v>
       </c>
       <c r="W60" s="9">
         <f t="shared" si="19"/>
-        <v>2.6723543199037191E-4</v>
+        <v>1.6271365978546143E-3</v>
       </c>
       <c r="X60" s="6">
         <f t="shared" si="20"/>
-        <v>4.3627977998760931E-4</v>
+        <v>2.6667024019152528E-3</v>
       </c>
       <c r="Y60" s="9">
         <f t="shared" si="21"/>
-        <v>7.6529987029993405E-6</v>
+        <v>5.7419782063610026E-5</v>
       </c>
       <c r="Z60" s="9">
         <f t="shared" si="22"/>
-        <v>1.5305997405998681E-5</v>
+        <v>1.1483956412722005E-4</v>
       </c>
       <c r="AA60" s="9">
         <f t="shared" si="23"/>
-        <v>1.3748607920098184E-5</v>
+        <v>7.2639196665238707E-5</v>
       </c>
       <c r="AB60" s="9">
         <f t="shared" si="24"/>
-        <v>2.7497215840196367E-5</v>
+        <v>1.4527839333047741E-4</v>
       </c>
       <c r="AC60" s="9">
         <f t="shared" si="25"/>
-        <v>2.3253729900912516E-3</v>
+        <v>5.7269417960265426E-3</v>
       </c>
       <c r="AD60" s="9">
         <f t="shared" si="26"/>
-        <v>2.3423131496495804E-3</v>
+        <v>5.7688578697030601E-3</v>
       </c>
       <c r="AE60" s="9">
         <f t="shared" si="27"/>
-        <v>2.9214440202925303E-3</v>
+        <v>7.1309163050465273E-3</v>
       </c>
       <c r="AF60" s="9">
         <f t="shared" si="28"/>
-        <v>2.9427265104802823E-3</v>
+        <v>7.1831082119785646E-3</v>
       </c>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.3">
@@ -15150,111 +15150,111 @@
       </c>
       <c r="F61" s="8">
         <f t="shared" si="2"/>
-        <v>0.14484085922836101</v>
+        <v>0.14561421724738394</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="3"/>
-        <v>0.18968171845672216</v>
+        <v>0.19122843449476773</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="4"/>
-        <v>0.24388879525489374</v>
+        <v>0.24494244752687941</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="5"/>
-        <v>0.28777759050978746</v>
+        <v>0.28988489505375881</v>
       </c>
       <c r="J61" s="9">
         <f t="shared" si="6"/>
-        <v>2.6210214807090269E-2</v>
+        <v>2.6403554311845972E-2</v>
       </c>
       <c r="K61" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655217860729562</v>
+        <v>0.50660050512184729</v>
       </c>
       <c r="L61" s="9">
         <f t="shared" si="8"/>
-        <v>4.0972198813723437E-2</v>
+        <v>4.1235611881719855E-2</v>
       </c>
       <c r="M61" s="9">
         <f t="shared" si="9"/>
-        <v>0.51024161700865522</v>
+        <v>0.51030744246810533</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="10"/>
-        <v>4.3919960935382349E-2</v>
+        <v>0.14993991547940452</v>
       </c>
       <c r="O61" s="8">
         <f t="shared" si="11"/>
-        <v>9.1305439328704066E-2</v>
+        <v>0.19809990192300242</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="12"/>
-        <v>6.1671775729928706E-2</v>
+        <v>0.19425116281814564</v>
       </c>
       <c r="Q61" s="8">
         <f t="shared" si="13"/>
-        <v>0.10845356842992106</v>
+        <v>0.24200146084932636</v>
       </c>
       <c r="R61" s="9">
         <f t="shared" si="14"/>
-        <v>6.8835586900928877E-2</v>
+        <v>0.17705149122330327</v>
       </c>
       <c r="S61" s="9">
         <f t="shared" si="15"/>
-        <v>0.51720210481264317</v>
+        <v>0.54414760757704972</v>
       </c>
       <c r="T61" s="9">
         <f t="shared" si="16"/>
-        <v>8.6577496480617688E-2</v>
+        <v>0.22190288376374384</v>
       </c>
       <c r="U61" s="9">
         <f t="shared" si="17"/>
-        <v>0.52163086433554173</v>
+        <v>0.5552491968119958</v>
       </c>
       <c r="V61" s="9">
         <f t="shared" si="18"/>
-        <v>1.4795620499258067E-4</v>
+        <v>9.7450562738858886E-4</v>
       </c>
       <c r="W61" s="9">
         <f t="shared" si="19"/>
-        <v>2.3394714595130565E-4</v>
+        <v>1.5262368741853238E-3</v>
       </c>
       <c r="X61" s="6">
         <f t="shared" si="20"/>
-        <v>3.8190335094388632E-4</v>
+        <v>2.5007425015739129E-3</v>
       </c>
       <c r="Y61" s="9">
         <f t="shared" si="21"/>
-        <v>6.5180636541222506E-6</v>
+        <v>5.3643975499133322E-5</v>
       </c>
       <c r="Z61" s="9">
         <f t="shared" si="22"/>
-        <v>1.3036127308244501E-5</v>
+        <v>1.0728795099826664E-4</v>
       </c>
       <c r="AA61" s="9">
         <f t="shared" si="23"/>
-        <v>1.2217715476329309E-5</v>
+        <v>6.8377427889776331E-5</v>
       </c>
       <c r="AB61" s="9">
         <f t="shared" si="24"/>
-        <v>2.4435430952658618E-5</v>
+        <v>1.3675485577955266E-4</v>
       </c>
       <c r="AC61" s="9">
         <f t="shared" si="25"/>
-        <v>2.175862406561385E-3</v>
+        <v>5.5477100475165861E-3</v>
       </c>
       <c r="AD61" s="9">
         <f t="shared" si="26"/>
-        <v>2.1917101526729771E-3</v>
+        <v>5.5883041909361711E-3</v>
       </c>
       <c r="AE61" s="9">
         <f t="shared" si="27"/>
-        <v>2.734163570281944E-3</v>
+        <v>6.9118812381315673E-3</v>
       </c>
       <c r="AF61" s="9">
         <f t="shared" si="28"/>
-        <v>2.7540776650145558E-3</v>
+        <v>6.9624574030494601E-3</v>
       </c>
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.3">
@@ -15272,111 +15272,111 @@
       </c>
       <c r="F62" s="8">
         <f t="shared" si="2"/>
-        <v>0.14482782310105277</v>
+        <v>0.14556057327188479</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="3"/>
-        <v>0.18965564620210568</v>
+        <v>0.19112114654376947</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="4"/>
-        <v>0.24386435982394108</v>
+        <v>0.24487407009898962</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="5"/>
-        <v>0.28772871964788216</v>
+        <v>0.28974814019797923</v>
       </c>
       <c r="J62" s="9">
         <f t="shared" si="6"/>
-        <v>2.6206955775263205E-2</v>
+        <v>2.6390143317971189E-2</v>
       </c>
       <c r="K62" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655136398923506</v>
+        <v>0.5065971529573543</v>
       </c>
       <c r="L62" s="9">
         <f t="shared" si="8"/>
-        <v>4.0966089955985274E-2</v>
+        <v>4.1218517524747408E-2</v>
       </c>
       <c r="M62" s="9">
         <f t="shared" si="9"/>
-        <v>0.51024009043488772</v>
+        <v>0.51030317069427167</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="10"/>
-        <v>3.9568236122259577E-2</v>
+        <v>0.14439220543188794</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="11"/>
-        <v>8.692201902335811E-2</v>
+        <v>0.19251159773206625</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="12"/>
-        <v>5.6203448589364817E-2</v>
+        <v>0.18733928158001406</v>
       </c>
       <c r="Q62" s="8">
         <f t="shared" si="13"/>
-        <v>0.10294541309989194</v>
+        <v>0.2350390034462769</v>
       </c>
       <c r="R62" s="9">
         <f t="shared" si="14"/>
-        <v>6.4394442825639983E-2</v>
+        <v>0.17138795889912142</v>
       </c>
       <c r="S62" s="9">
         <f t="shared" si="15"/>
-        <v>0.51609305007787765</v>
+        <v>0.54274241519805477</v>
       </c>
       <c r="T62" s="9">
         <f t="shared" si="16"/>
-        <v>8.0996810433787342E-2</v>
+        <v>0.21484669538096821</v>
       </c>
       <c r="U62" s="9">
         <f t="shared" si="17"/>
-        <v>0.52023813948670272</v>
+        <v>0.55350601620204931</v>
       </c>
       <c r="V62" s="9">
         <f t="shared" si="18"/>
-        <v>1.2949313040453887E-4</v>
+        <v>9.1345702848145179E-4</v>
       </c>
       <c r="W62" s="9">
         <f t="shared" si="19"/>
-        <v>2.0479114494161796E-4</v>
+        <v>1.4314468849069817E-3</v>
       </c>
       <c r="X62" s="6">
         <f t="shared" si="20"/>
-        <v>3.342842753461568E-4</v>
+        <v>2.3449039133884336E-3</v>
       </c>
       <c r="Y62" s="9">
         <f t="shared" si="21"/>
-        <v>5.5356233863438097E-6</v>
+        <v>5.0102406553654168E-5</v>
       </c>
       <c r="Z62" s="9">
         <f t="shared" si="22"/>
-        <v>1.1071246772687619E-5</v>
+        <v>1.0020481310730834E-4</v>
       </c>
       <c r="AA62" s="9">
         <f t="shared" si="23"/>
-        <v>1.0865014293516728E-5</v>
+        <v>6.4364623937931658E-5</v>
       </c>
       <c r="AB62" s="9">
         <f t="shared" si="24"/>
-        <v>2.1730028587033457E-5</v>
+        <v>1.2872924787586332E-4</v>
       </c>
       <c r="AC62" s="9">
         <f t="shared" si="25"/>
-        <v>2.03587787220015E-3</v>
+        <v>5.3737379528567926E-3</v>
       </c>
       <c r="AD62" s="9">
         <f t="shared" si="26"/>
-        <v>2.0507032128885294E-3</v>
+        <v>5.4130495993012602E-3</v>
       </c>
       <c r="AE62" s="9">
         <f t="shared" si="27"/>
-        <v>2.5587153931830721E-3</v>
+        <v>6.6988972829448053E-3</v>
       </c>
       <c r="AF62" s="9">
         <f t="shared" si="28"/>
-        <v>2.5773480567364833E-3</v>
+        <v>6.7479031488551318E-3</v>
       </c>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.3">
@@ -15394,111 +15394,111 @@
       </c>
       <c r="F63" s="8">
         <f t="shared" si="2"/>
-        <v>0.14481675185428008</v>
+        <v>0.14551047086533114</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="3"/>
-        <v>0.1896335037085603</v>
+        <v>0.19102094173066217</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="4"/>
-        <v>0.24384262979535404</v>
+        <v>0.24480970547505168</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" si="5"/>
-        <v>0.28768525959070806</v>
+        <v>0.28961941095010335</v>
       </c>
       <c r="J63" s="9">
         <f t="shared" si="6"/>
-        <v>2.6204187963570033E-2</v>
+        <v>2.6377617716332777E-2</v>
       </c>
       <c r="K63" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655067215509475</v>
+        <v>0.50659402210183058</v>
       </c>
       <c r="L63" s="9">
         <f t="shared" si="8"/>
-        <v>4.0960657448838513E-2</v>
+        <v>4.1202426368762923E-2</v>
       </c>
       <c r="M63" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023873287767518</v>
+        <v>0.5102991496127709</v>
       </c>
       <c r="N63" s="8">
         <f t="shared" si="10"/>
-        <v>3.5496480377859276E-2</v>
+        <v>0.13901846747903115</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="11"/>
-        <v>8.2820612597581056E-2</v>
+        <v>0.187098548132765</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="12"/>
-        <v>5.1086017802998672E-2</v>
+        <v>0.18064038429706925</v>
       </c>
       <c r="Q63" s="8">
         <f t="shared" si="13"/>
-        <v>9.7790716986418974E-2</v>
+        <v>0.22829110029742178</v>
       </c>
       <c r="R63" s="9">
         <f t="shared" si="14"/>
-        <v>6.0239050422487325E-2</v>
+        <v>0.16590215459256899</v>
       </c>
       <c r="S63" s="9">
         <f t="shared" si="15"/>
-        <v>0.51505521025662149</v>
+        <v>0.54138067033224646</v>
       </c>
       <c r="T63" s="9">
         <f t="shared" si="16"/>
-        <v>7.5774268178185875E-2</v>
+        <v>0.20800809318101077</v>
       </c>
       <c r="U63" s="9">
         <f t="shared" si="17"/>
-        <v>0.51893450815994502</v>
+        <v>0.55181533180045828</v>
       </c>
       <c r="V63" s="9">
         <f t="shared" si="18"/>
-        <v>1.1332967793554041E-4</v>
+        <v>8.5617993857303124E-4</v>
       </c>
       <c r="W63" s="9">
         <f t="shared" si="19"/>
-        <v>1.7925779962951223E-4</v>
+        <v>1.3424143047957914E-3</v>
       </c>
       <c r="X63" s="6">
         <f t="shared" si="20"/>
-        <v>2.9258747756505263E-4</v>
+        <v>2.1985942433688224E-3</v>
       </c>
       <c r="Y63" s="9">
         <f t="shared" si="21"/>
-        <v>4.6861452912322268E-6</v>
+        <v>4.6781539789920225E-5</v>
       </c>
       <c r="Z63" s="9">
         <f t="shared" si="22"/>
-        <v>9.3722905824644535E-6</v>
+        <v>9.3563079579840451E-5</v>
       </c>
       <c r="AA63" s="9">
         <f t="shared" si="23"/>
-        <v>9.6693245778708621E-6</v>
+        <v>6.0586889241874125E-5</v>
       </c>
       <c r="AB63" s="9">
         <f t="shared" si="24"/>
-        <v>1.9338649155741724E-5</v>
+        <v>1.2117377848374825E-4</v>
       </c>
       <c r="AC63" s="9">
         <f t="shared" si="25"/>
-        <v>1.9048281630607749E-3</v>
+        <v>5.2049035122658377E-3</v>
       </c>
       <c r="AD63" s="9">
         <f t="shared" si="26"/>
-        <v>1.9186967103110655E-3</v>
+        <v>5.2429711371364878E-3</v>
       </c>
       <c r="AE63" s="9">
         <f t="shared" si="27"/>
-        <v>2.3943833325306141E-3</v>
+        <v>6.4918593639515547E-3</v>
       </c>
       <c r="AF63" s="9">
         <f t="shared" si="28"/>
-        <v>2.4118162007685296E-3</v>
+        <v>6.5393395269166387E-3</v>
       </c>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.3">
@@ -15516,111 +15516,111 @@
       </c>
       <c r="F64" s="8">
         <f t="shared" si="2"/>
-        <v>0.14480737956369763</v>
+        <v>0.14546368932554121</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="3"/>
-        <v>0.18961475912739537</v>
+        <v>0.19092737865108234</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="4"/>
-        <v>0.2438232911461983</v>
+        <v>0.24474911858580981</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" si="5"/>
-        <v>0.28764658229239659</v>
+        <v>0.2894982371716196</v>
       </c>
       <c r="J64" s="9">
         <f t="shared" si="6"/>
-        <v>2.6201844890924419E-2</v>
+        <v>2.6365922331385294E-2</v>
       </c>
       <c r="K64" s="9">
         <f t="shared" si="7"/>
-        <v>0.50655008648746869</v>
+        <v>0.50659109876389685</v>
       </c>
       <c r="L64" s="9">
         <f t="shared" si="8"/>
-        <v>4.0955822786549578E-2</v>
+        <v>4.1187279646452454E-2</v>
       </c>
       <c r="M64" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023752471886874</v>
+        <v>0.5102953645382533</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" si="10"/>
-        <v>3.1686824051737728E-2</v>
+        <v>0.1338135639667653</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="11"/>
-        <v>7.8983219176958927E-2</v>
+        <v>0.18185557699562852</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="12"/>
-        <v>4.6297251137937444E-2</v>
+        <v>0.17414852493311769</v>
       </c>
       <c r="Q64" s="8">
         <f t="shared" si="13"/>
-        <v>9.2967084584881912E-2</v>
+        <v>0.22175176077050515</v>
       </c>
       <c r="R64" s="9">
         <f t="shared" si="14"/>
-        <v>5.6351165711100354E-2</v>
+        <v>0.16058881835573527</v>
       </c>
       <c r="S64" s="9">
         <f t="shared" si="15"/>
-        <v>0.51408406468352208</v>
+        <v>0.54006114759847734</v>
       </c>
       <c r="T64" s="9">
         <f t="shared" si="16"/>
-        <v>7.0887171686974115E-2</v>
+        <v>0.20138098819336445</v>
       </c>
       <c r="U64" s="9">
         <f t="shared" si="17"/>
-        <v>0.51771437566123124</v>
+        <v>0.55017579120042392</v>
       </c>
       <c r="V64" s="9">
         <f t="shared" si="18"/>
-        <v>9.9180439004816951E-5</v>
+        <v>8.024477734534935E-4</v>
       </c>
       <c r="W64" s="9">
         <f t="shared" si="19"/>
-        <v>1.5689955253361088E-4</v>
+        <v>1.2588050112942695E-3</v>
       </c>
       <c r="X64" s="6">
         <f t="shared" si="20"/>
-        <v>2.5607999153842785E-4</v>
+        <v>2.0612527847477628E-3</v>
       </c>
       <c r="Y64" s="9">
         <f t="shared" si="21"/>
-        <v>3.9525173883800991E-6</v>
+        <v>4.3668521133881629E-5</v>
       </c>
       <c r="Z64" s="9">
         <f t="shared" si="22"/>
-        <v>7.9050347767601982E-6</v>
+        <v>8.7337042267763258E-5</v>
       </c>
       <c r="AA64" s="9">
         <f t="shared" si="23"/>
-        <v>8.6119870318557057E-6</v>
+        <v>5.7031009362792724E-5</v>
       </c>
       <c r="AB64" s="9">
         <f t="shared" si="24"/>
-        <v>1.7223974063711411E-5</v>
+        <v>1.1406201872558545E-4</v>
       </c>
       <c r="AC64" s="9">
         <f t="shared" si="25"/>
-        <v>1.7821558830086871E-3</v>
+        <v>5.0410844483983865E-3</v>
       </c>
       <c r="AD64" s="9">
         <f t="shared" si="26"/>
-        <v>1.7951291109532122E-3</v>
+        <v>5.0779455709751686E-3</v>
       </c>
       <c r="AE64" s="9">
         <f t="shared" si="27"/>
-        <v>2.240488842874875E-3</v>
+        <v>6.290658153621626E-3</v>
       </c>
       <c r="AF64" s="9">
         <f t="shared" si="28"/>
-        <v>2.256798511822975E-3</v>
+        <v>6.3366563358903142E-3</v>
       </c>
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.3">
@@ -15638,111 +15638,111 @@
       </c>
       <c r="F65" s="8">
         <f t="shared" si="2"/>
-        <v>0.14479947452892086</v>
+        <v>0.14542002080440733</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="3"/>
-        <v>0.18959894905784186</v>
+        <v>0.19084004160881457</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="4"/>
-        <v>0.2438060671721346</v>
+        <v>0.244692087576447</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" si="5"/>
-        <v>0.28761213434426919</v>
+        <v>0.289384175152894</v>
       </c>
       <c r="J65" s="9">
         <f t="shared" si="6"/>
-        <v>2.6199868632230231E-2</v>
+        <v>2.6355005201101827E-2</v>
       </c>
       <c r="K65" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654959250757747</v>
+        <v>0.50658836995539791</v>
       </c>
       <c r="L65" s="9">
         <f t="shared" si="8"/>
-        <v>4.0951516793033646E-2</v>
+        <v>4.1173021894111754E-2</v>
       </c>
       <c r="M65" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023644867174023</v>
+        <v>0.51029180161088894</v>
       </c>
       <c r="N65" s="8">
         <f t="shared" si="10"/>
-        <v>2.8122512285720352E-2</v>
+        <v>0.12877247951836693</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="11"/>
-        <v>7.5392960955052504E-2</v>
+        <v>0.17677763142465336</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="12"/>
-        <v>4.1816273452187691E-2</v>
+        <v>0.16785786677949607</v>
       </c>
       <c r="Q65" s="8">
         <f t="shared" si="13"/>
-        <v>8.8453487561235958E-2</v>
+        <v>0.21541510443461484</v>
       </c>
       <c r="R65" s="9">
         <f t="shared" si="14"/>
-        <v>5.2713683791174144E-2</v>
+        <v>0.15544281651851644</v>
       </c>
       <c r="S65" s="9">
         <f t="shared" si="15"/>
-        <v>0.51317537018667869</v>
+        <v>0.53878264518664398</v>
       </c>
       <c r="T65" s="9">
         <f t="shared" si="16"/>
-        <v>6.6314209643266092E-2</v>
+        <v>0.19495940485215266</v>
       </c>
       <c r="U65" s="9">
         <f t="shared" si="17"/>
-        <v>0.51657247962987973</v>
+        <v>0.54858605564510288</v>
       </c>
       <c r="V65" s="9">
         <f t="shared" si="18"/>
-        <v>8.6795189778010864E-5</v>
+        <v>7.5204678383655982E-4</v>
       </c>
       <c r="W65" s="9">
         <f t="shared" si="19"/>
-        <v>1.3732354054138933E-4</v>
+        <v>1.1803024015745165E-3</v>
       </c>
       <c r="X65" s="6">
         <f t="shared" si="20"/>
-        <v>2.2411873031940021E-4</v>
+        <v>1.9323491854110763E-3</v>
       </c>
       <c r="Y65" s="9">
         <f t="shared" si="21"/>
-        <v>3.3197591785722914E-6</v>
+        <v>4.0751155483963815E-5</v>
       </c>
       <c r="Z65" s="9">
         <f t="shared" si="22"/>
-        <v>6.6395183571445827E-6</v>
+        <v>8.150231096792763E-5</v>
       </c>
       <c r="AA65" s="9">
         <f t="shared" si="23"/>
-        <v>7.6765689587017437E-6</v>
+        <v>5.3684429702144326E-5</v>
       </c>
       <c r="AB65" s="9">
         <f t="shared" si="24"/>
-        <v>1.5353137917403487E-5</v>
+        <v>1.0736885940428865E-4</v>
       </c>
       <c r="AC65" s="9">
         <f t="shared" si="25"/>
-        <v>1.6673360613561785E-3</v>
+        <v>4.8821585707467885E-3</v>
       </c>
       <c r="AD65" s="9">
         <f t="shared" si="26"/>
-        <v>1.6794715527798537E-3</v>
+        <v>4.9178497584454368E-3</v>
       </c>
       <c r="AE65" s="9">
         <f t="shared" si="27"/>
-        <v>2.0963900982456612E-3</v>
+        <v>6.0951808083276734E-3</v>
       </c>
       <c r="AF65" s="9">
         <f t="shared" si="28"/>
-        <v>2.1116484043829644E-3</v>
+        <v>6.1397398367030974E-3</v>
       </c>
     </row>
     <row r="66" spans="2:32" x14ac:dyDescent="0.3">
@@ -15760,111 +15760,111 @@
       </c>
       <c r="F66" s="8">
         <f t="shared" si="2"/>
-        <v>0.14479283501056373</v>
+        <v>0.14537926964892336</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="3"/>
-        <v>0.18958567002112758</v>
+        <v>0.19075853929784664</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="4"/>
-        <v>0.2437907140342172</v>
+        <v>0.24463840314674487</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="5"/>
-        <v>0.2875814280684344</v>
+        <v>0.28927680629348973</v>
       </c>
       <c r="J66" s="9">
         <f t="shared" si="6"/>
-        <v>2.6198208752640947E-2</v>
+        <v>2.6344817412230836E-2</v>
       </c>
       <c r="K66" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654917760887974</v>
+        <v>0.50658582345022685</v>
       </c>
       <c r="L66" s="9">
         <f t="shared" si="8"/>
-        <v>4.0947678508554297E-2</v>
+        <v>4.1159600786686221E-2</v>
       </c>
       <c r="M66" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023548950277686</v>
+        <v>0.51028844775514892</v>
       </c>
       <c r="N66" s="8">
         <f t="shared" si="10"/>
-        <v>2.4787840163007994E-2</v>
+        <v>0.12389032094762013</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="11"/>
-        <v>7.2034017849492801E-2</v>
+        <v>0.17185978166620791</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="12"/>
-        <v>3.7623493255696368E-2</v>
+        <v>0.16176268597116841</v>
       </c>
       <c r="Q66" s="8">
         <f t="shared" si="13"/>
-        <v>8.4230190752470027E-2</v>
+        <v>0.20927536459791174</v>
       </c>
       <c r="R66" s="9">
         <f t="shared" si="14"/>
-        <v>4.9310572407559781E-2</v>
+        <v>0.15045914147275108</v>
       </c>
       <c r="S66" s="9">
         <f t="shared" si="15"/>
-        <v>0.51232514578699495</v>
+        <v>0.53754398549422844</v>
       </c>
       <c r="T66" s="9">
         <f t="shared" si="16"/>
-        <v>6.2035382176945042E-2</v>
+        <v>0.18873748443028604</v>
       </c>
       <c r="U66" s="9">
         <f t="shared" si="17"/>
-        <v>0.5155038737854668</v>
+        <v>0.54704480208823825</v>
       </c>
       <c r="V66" s="9">
         <f t="shared" si="18"/>
-        <v>7.5954609335339697E-5</v>
+        <v>7.0477542339541773E-4</v>
       </c>
       <c r="W66" s="9">
         <f t="shared" si="19"/>
-        <v>1.2018505117784239E-4</v>
+        <v>1.1066067017607528E-3</v>
       </c>
       <c r="X66" s="6">
         <f t="shared" si="20"/>
-        <v>1.9613966051318209E-4</v>
+        <v>1.8113821251561704E-3</v>
       </c>
       <c r="Y66" s="9">
         <f t="shared" si="21"/>
-        <v>2.7747649608034887E-6</v>
+        <v>3.8017883466220901E-5</v>
       </c>
       <c r="Z66" s="9">
         <f t="shared" si="22"/>
-        <v>5.5495299216069774E-6</v>
+        <v>7.6035766932441802E-5</v>
       </c>
       <c r="AA66" s="9">
         <f t="shared" si="23"/>
-        <v>6.848602767664014E-6</v>
+        <v>5.05352332343474E-5</v>
       </c>
       <c r="AB66" s="9">
         <f t="shared" si="24"/>
-        <v>1.3697205535328028E-5</v>
+        <v>1.010704664686948E-4</v>
       </c>
       <c r="AC66" s="9">
         <f t="shared" si="25"/>
-        <v>1.559874701898078E-3</v>
+        <v>4.7280041007186583E-3</v>
       </c>
       <c r="AD66" s="9">
         <f t="shared" si="26"/>
-        <v>1.5712263828814314E-3</v>
+        <v>4.7625609755594569E-3</v>
       </c>
       <c r="AE66" s="9">
         <f t="shared" si="27"/>
-        <v>1.9614808884718142E-3</v>
+        <v>5.9053116407907207E-3</v>
       </c>
       <c r="AF66" s="9">
         <f t="shared" si="28"/>
-        <v>1.9757551793964526E-3</v>
+        <v>5.9484734297654161E-3</v>
       </c>
     </row>
     <row r="67" spans="2:32" x14ac:dyDescent="0.3">
@@ -15882,111 +15882,111 @@
       </c>
       <c r="F67" s="8">
         <f t="shared" si="2"/>
-        <v>0.14478728548064213</v>
+        <v>0.14534125176545715</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="3"/>
-        <v>0.18957457096128438</v>
+        <v>0.1906825035309142</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" si="4"/>
-        <v>0.24377701682868189</v>
+        <v>0.24458786791351053</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" si="5"/>
-        <v>0.28755403365736376</v>
+        <v>0.28917573582702105</v>
       </c>
       <c r="J67" s="9">
         <f t="shared" si="6"/>
-        <v>2.6196821370160547E-2</v>
+        <v>2.6335312941364281E-2</v>
       </c>
       <c r="K67" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065488308227637</v>
+        <v>0.50658344774459951</v>
       </c>
       <c r="L67" s="9">
         <f t="shared" si="8"/>
-        <v>4.0944254207170475E-2</v>
+        <v>4.1146966978377636E-2</v>
       </c>
       <c r="M67" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023463378614875</v>
+        <v>0.5102852906399773</v>
       </c>
       <c r="N67" s="8">
         <f t="shared" si="10"/>
-        <v>2.166809075921184E-2</v>
+        <v>0.11916231684690147</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="11"/>
-        <v>6.8891565083729941E-2</v>
+        <v>0.16709722069064845</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" si="12"/>
-        <v>3.3700531478752738E-2</v>
+        <v>0.15585737433037769</v>
       </c>
       <c r="Q67" s="8">
         <f t="shared" si="13"/>
-        <v>8.0278680393677124E-2</v>
+        <v>0.20332689116814631</v>
       </c>
       <c r="R67" s="9">
         <f t="shared" si="14"/>
-        <v>4.6126808521691862E-2</v>
+        <v>0.1456329111347977</v>
       </c>
       <c r="S67" s="9">
         <f t="shared" si="15"/>
-        <v>0.51152965791533189</v>
+        <v>0.53634401562634393</v>
       </c>
       <c r="T67" s="9">
         <f t="shared" si="16"/>
-        <v>5.8031927910171074E-2</v>
+        <v>0.18270948779936397</v>
       </c>
       <c r="U67" s="9">
         <f t="shared" si="17"/>
-        <v>0.51450391179838106</v>
+        <v>0.54555072499839408</v>
       </c>
       <c r="V67" s="9">
         <f t="shared" si="18"/>
-        <v>6.6466505822287684E-5</v>
+        <v>6.6044373592396579E-4</v>
       </c>
       <c r="W67" s="9">
         <f t="shared" si="19"/>
-        <v>1.0518172872760871E-4</v>
+        <v>1.0374342739396616E-3</v>
       </c>
       <c r="X67" s="6">
         <f t="shared" si="20"/>
-        <v>1.716482345498964E-4</v>
+        <v>1.6978780098636274E-3</v>
       </c>
       <c r="Y67" s="9">
         <f t="shared" si="21"/>
-        <v>2.3060764404711264E-6</v>
+        <v>3.5457757616631231E-5</v>
       </c>
       <c r="Z67" s="9">
         <f t="shared" si="22"/>
-        <v>4.6121528809422528E-6</v>
+        <v>7.0915515233262462E-5</v>
       </c>
       <c r="AA67" s="9">
         <f t="shared" si="23"/>
-        <v>6.1153537849019046E-6</v>
+        <v>4.7572117551844125E-5</v>
       </c>
       <c r="AB67" s="9">
         <f t="shared" si="24"/>
-        <v>1.2230707569803809E-5</v>
+        <v>9.5144235103688249E-5</v>
       </c>
       <c r="AC67" s="9">
         <f t="shared" si="25"/>
-        <v>1.4593073109138734E-3</v>
+        <v>4.578499960431478E-3</v>
       </c>
       <c r="AD67" s="9">
         <f t="shared" si="26"/>
-        <v>1.4699256736141078E-3</v>
+        <v>4.6119572074565639E-3</v>
       </c>
       <c r="AE67" s="9">
         <f t="shared" si="27"/>
-        <v>1.8351893633482431E-3</v>
+        <v>5.7209327326451396E-3</v>
       </c>
       <c r="AF67" s="9">
         <f t="shared" si="28"/>
-        <v>1.8485427578922894E-3</v>
+        <v>5.7627382718619556E-3</v>
       </c>
     </row>
     <row r="68" spans="2:32" x14ac:dyDescent="0.3">
@@ -16004,111 +16004,111 @@
       </c>
       <c r="F68" s="8">
         <f t="shared" si="2"/>
-        <v>0.14478267332776118</v>
+        <v>0.14530579400784052</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="3"/>
-        <v>0.18956534665552249</v>
+        <v>0.19061158801568095</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="4"/>
-        <v>0.24376478612111208</v>
+        <v>0.24454029579595868</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="5"/>
-        <v>0.28752957224222414</v>
+        <v>0.28908059159191735</v>
       </c>
       <c r="J68" s="9">
         <f t="shared" si="6"/>
-        <v>2.6195668331940307E-2</v>
+        <v>2.6326448501960125E-2</v>
       </c>
       <c r="K68" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654854261265703</v>
+        <v>0.50658123201881988</v>
       </c>
       <c r="L68" s="9">
         <f t="shared" si="8"/>
-        <v>4.0941196530278015E-2</v>
+        <v>4.1135073948989673E-2</v>
       </c>
       <c r="M68" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023386968718643</v>
+        <v>0.51028231864039719</v>
       </c>
       <c r="N68" s="8">
         <f t="shared" si="10"/>
-        <v>1.8749476137384095E-2</v>
+        <v>0.11458381688646999</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="11"/>
-        <v>6.595171373650173E-2</v>
+        <v>0.16248526348319189</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="12"/>
-        <v>3.0030152752056252E-2</v>
+        <v>0.15013644159773254</v>
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="13"/>
-        <v>7.6581594877892539E-2</v>
+        <v>0.19756415289628435</v>
       </c>
       <c r="R68" s="9">
         <f t="shared" si="14"/>
-        <v>4.3148317924419546E-2</v>
+        <v>0.14095936812286586</v>
       </c>
       <c r="S68" s="9">
         <f t="shared" si="15"/>
-        <v>0.51078540619762069</v>
+        <v>0.53518160777239199</v>
       </c>
       <c r="T68" s="9">
         <f t="shared" si="16"/>
-        <v>5.4286253612353091E-2</v>
+        <v>0.17686979757564286</v>
       </c>
       <c r="U68" s="9">
         <f t="shared" si="17"/>
-        <v>0.51356823143825314</v>
+        <v>0.54410253792670393</v>
       </c>
       <c r="V68" s="9">
         <f t="shared" si="18"/>
-        <v>5.816249342383745E-5</v>
+        <v>6.1887276272521612E-4</v>
       </c>
       <c r="W68" s="9">
         <f t="shared" si="19"/>
-        <v>9.2048452181000472E-5</v>
+        <v>9.7251692578817939E-4</v>
       </c>
       <c r="X68" s="6">
         <f t="shared" si="20"/>
-        <v>1.5021094560483794E-4</v>
+        <v>1.5913896885133955E-3</v>
       </c>
       <c r="Y68" s="9">
         <f t="shared" si="21"/>
-        <v>1.9036816482582254E-6</v>
+        <v>3.3060418234766649E-5</v>
       </c>
       <c r="Z68" s="9">
         <f t="shared" si="22"/>
-        <v>3.8073632965164508E-6</v>
+        <v>6.6120836469533298E-5</v>
       </c>
       <c r="AA68" s="9">
         <f t="shared" si="23"/>
-        <v>5.4656144483171509E-6</v>
+        <v>4.4784371475998789E-5</v>
       </c>
       <c r="AB68" s="9">
         <f t="shared" si="24"/>
-        <v>1.0931228896634302E-5</v>
+        <v>8.9568742951997578E-5</v>
       </c>
       <c r="AC68" s="9">
         <f t="shared" si="25"/>
-        <v>1.3651974257238506E-3</v>
+        <v>4.4335260281121516E-3</v>
       </c>
       <c r="AD68" s="9">
         <f t="shared" si="26"/>
-        <v>1.3751297394348884E-3</v>
+        <v>4.4659174055101426E-3</v>
       </c>
       <c r="AE68" s="9">
         <f t="shared" si="27"/>
-        <v>1.7169766731126238E-3</v>
+        <v>5.5419244907147606E-3</v>
       </c>
       <c r="AF68" s="9">
         <f t="shared" si="28"/>
-        <v>1.729468310315094E-3</v>
+        <v>5.5824138363398156E-3</v>
       </c>
     </row>
     <row r="69" spans="2:32" x14ac:dyDescent="0.3">
@@ -16126,111 +16126,111 @@
       </c>
       <c r="F69" s="8">
         <f t="shared" si="2"/>
-        <v>0.14477886596446465</v>
+        <v>0.14527273358960577</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="3"/>
-        <v>0.18955773192892947</v>
+        <v>0.19054546717921142</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="4"/>
-        <v>0.24375385489221543</v>
+        <v>0.24449551142448267</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="5"/>
-        <v>0.28750770978443085</v>
+        <v>0.28899102284896533</v>
       </c>
       <c r="J69" s="9">
         <f t="shared" si="6"/>
-        <v>2.6194716491116179E-2</v>
+        <v>2.6318183397401433E-2</v>
       </c>
       <c r="K69" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654830469326761</v>
+        <v>0.50657916610055109</v>
       </c>
       <c r="L69" s="9">
         <f t="shared" si="8"/>
-        <v>4.0938463723053861E-2</v>
+        <v>4.1123877856120664E-2</v>
       </c>
       <c r="M69" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023318677157392</v>
+        <v>0.51027952080057681</v>
       </c>
       <c r="N69" s="8">
         <f t="shared" si="10"/>
-        <v>1.6019081285936394E-2</v>
+        <v>0.11015029085835784</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="11"/>
-        <v>6.3201454257631948E-2</v>
+        <v>0.15801934607768175</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="12"/>
-        <v>2.6596199405831005E-2</v>
+        <v>0.14459451710701779</v>
       </c>
       <c r="Q69" s="8">
         <f t="shared" si="13"/>
-        <v>7.3122658257262357E-2</v>
+        <v>0.19198173905994453</v>
       </c>
       <c r="R69" s="9">
         <f t="shared" si="14"/>
-        <v>4.0361917882604133E-2</v>
+        <v>0.13643387868250001</v>
       </c>
       <c r="S69" s="9">
         <f t="shared" si="15"/>
-        <v>0.51008910984020439</v>
+        <v>0.53405565947150213</v>
       </c>
       <c r="T69" s="9">
         <f t="shared" si="16"/>
-        <v>5.0781866668119499E-2</v>
+        <v>0.1712129197087548</v>
       </c>
       <c r="U69" s="9">
         <f t="shared" si="17"/>
-        <v>0.51269273911675572</v>
+        <v>0.54269897485712826</v>
       </c>
       <c r="V69" s="9">
         <f t="shared" si="18"/>
-        <v>5.0895068683854536E-5</v>
+        <v>5.7989397101945641E-4</v>
       </c>
       <c r="W69" s="9">
         <f t="shared" si="19"/>
-        <v>8.0552813143010442E-5</v>
+        <v>9.1160122692483553E-4</v>
       </c>
       <c r="X69" s="6">
         <f t="shared" si="20"/>
-        <v>1.3144788182686498E-4</v>
+        <v>1.4914951979442918E-3</v>
       </c>
       <c r="Y69" s="9">
         <f t="shared" si="21"/>
-        <v>1.5588374034556178E-6</v>
+        <v>3.0816069119371106E-5</v>
       </c>
       <c r="Z69" s="9">
         <f t="shared" si="22"/>
-        <v>3.1176748069112356E-6</v>
+        <v>6.1632138238742212E-5</v>
       </c>
       <c r="AA69" s="9">
         <f t="shared" si="23"/>
-        <v>4.8895221638143167E-6</v>
+        <v>4.2161851453145713E-5</v>
       </c>
       <c r="AB69" s="9">
         <f t="shared" si="24"/>
-        <v>9.7790443276286334E-6</v>
+        <v>8.4323702906291426E-5</v>
       </c>
       <c r="AC69" s="9">
         <f t="shared" si="25"/>
-        <v>1.2771351604918895E-3</v>
+        <v>4.2929633628313252E-3</v>
       </c>
       <c r="AD69" s="9">
         <f t="shared" si="26"/>
-        <v>1.2864256712306849E-3</v>
+        <v>4.3243217135486896E-3</v>
       </c>
       <c r="AE69" s="9">
         <f t="shared" si="27"/>
-        <v>1.606335544091439E-3</v>
+        <v>5.3681661505657063E-3</v>
       </c>
       <c r="AF69" s="9">
         <f t="shared" si="28"/>
-        <v>1.6180208207044033E-3</v>
+        <v>5.4073784201871967E-3</v>
       </c>
     </row>
     <row r="70" spans="2:32" x14ac:dyDescent="0.3">
@@ -16248,111 +16248,111 @@
       </c>
       <c r="F70" s="8">
         <f t="shared" si="2"/>
-        <v>0.14477574828965775</v>
+        <v>0.1452419175204864</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="3"/>
-        <v>0.18955149657931564</v>
+        <v>0.19048383504097269</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="4"/>
-        <v>0.24374407584788779</v>
+        <v>0.24445334957302953</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="5"/>
-        <v>0.28748815169577557</v>
+        <v>0.28890669914605904</v>
       </c>
       <c r="J70" s="9">
         <f t="shared" si="6"/>
-        <v>2.6193937072414453E-2</v>
+        <v>2.6310479380121592E-2</v>
       </c>
       <c r="K70" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654810987201293</v>
+        <v>0.50657724042960528</v>
       </c>
       <c r="L70" s="9">
         <f t="shared" si="8"/>
-        <v>4.0936018961971951E-2</v>
+        <v>4.1113337393257385E-2</v>
       </c>
       <c r="M70" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023257583729886</v>
+        <v>0.51027688679837113</v>
       </c>
       <c r="N70" s="8">
         <f t="shared" si="10"/>
-        <v>1.3464810964952615E-2</v>
+        <v>0.10585732749552651</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="11"/>
-        <v>6.0628602915170575E-2</v>
+        <v>0.15369502436413307</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="12"/>
-        <v>2.3383528317648127E-2</v>
+        <v>0.13922635095645208</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" si="13"/>
-        <v>6.9886616615853547E-2</v>
+        <v>0.18657436063975733</v>
       </c>
       <c r="R70" s="9">
         <f t="shared" si="14"/>
-        <v>3.7755262778904952E-2</v>
+        <v>0.13205193139086643</v>
       </c>
       <c r="S70" s="9">
         <f t="shared" si="15"/>
-        <v>0.5094376946334479</v>
+        <v>0.53296509377803003</v>
       </c>
       <c r="T70" s="9">
         <f t="shared" si="16"/>
-        <v>4.7503310483904077E-2</v>
+        <v>0.16573348456625514</v>
       </c>
       <c r="U70" s="9">
         <f t="shared" si="17"/>
-        <v>0.51187359491054185</v>
+        <v>0.54133879135725105</v>
       </c>
       <c r="V70" s="9">
         <f t="shared" si="18"/>
-        <v>4.4535039997105664E-5</v>
+        <v>5.4334870389715706E-4</v>
       </c>
       <c r="W70" s="9">
         <f t="shared" si="19"/>
-        <v>7.0491128049822685E-5</v>
+        <v>8.54447835439167E-4</v>
       </c>
       <c r="X70" s="6">
         <f t="shared" si="20"/>
-        <v>1.1502616804692835E-4</v>
+        <v>1.3977965393363241E-3</v>
       </c>
       <c r="Y70" s="9">
         <f t="shared" si="21"/>
-        <v>1.2639127788727453E-6</v>
+        <v>2.8715453365896184E-5</v>
       </c>
       <c r="Z70" s="9">
         <f t="shared" si="22"/>
-        <v>2.5278255577454907E-6</v>
+        <v>5.7430906731792369E-5</v>
       </c>
       <c r="AA70" s="9">
         <f t="shared" si="23"/>
-        <v>4.3783983117348339E-6</v>
+        <v>3.9694957924135173E-5</v>
       </c>
       <c r="AB70" s="9">
         <f t="shared" si="24"/>
-        <v>8.7567966234696678E-6</v>
+        <v>7.9389915848270345E-5</v>
       </c>
       <c r="AC70" s="9">
         <f t="shared" si="25"/>
-        <v>1.1947357819752453E-3</v>
+        <v>4.1566944011433033E-3</v>
       </c>
       <c r="AD70" s="9">
         <f t="shared" si="26"/>
-        <v>1.2034259009203328E-3</v>
+        <v>4.1870516657812043E-3</v>
       </c>
       <c r="AE70" s="9">
         <f t="shared" si="27"/>
-        <v>1.5027888204163912E-3</v>
+        <v>5.199536230839341E-3</v>
       </c>
       <c r="AF70" s="9">
         <f t="shared" si="28"/>
-        <v>1.5137196168282768E-3</v>
+        <v>5.2375096015327763E-3</v>
       </c>
     </row>
     <row r="71" spans="2:32" x14ac:dyDescent="0.3">
@@ -16370,111 +16370,111 @@
       </c>
       <c r="F71" s="8">
         <f t="shared" si="2"/>
-        <v>0.14477322046410002</v>
+        <v>0.14521320206712052</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="3"/>
-        <v>0.18954644092820014</v>
+        <v>0.19042640413424089</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="4"/>
-        <v>0.24373531905126433</v>
+        <v>0.24441365461510539</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="5"/>
-        <v>0.28747063810252865</v>
+        <v>0.28882730923021077</v>
       </c>
       <c r="J71" s="9">
         <f t="shared" si="6"/>
-        <v>2.6193305116025016E-2</v>
+        <v>2.6303300516780117E-2</v>
       </c>
       <c r="K71" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654795191001178</v>
+        <v>0.50657544602424343</v>
       </c>
       <c r="L71" s="9">
         <f t="shared" si="8"/>
-        <v>4.0933829762816086E-2</v>
+        <v>4.1103413653776351E-2</v>
       </c>
       <c r="M71" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023202876671903</v>
+        <v>0.51027440691133774</v>
       </c>
       <c r="N71" s="8">
         <f t="shared" si="10"/>
-        <v>1.1075339401002124E-2</v>
+        <v>0.10170063309438321</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="11"/>
-        <v>5.822175111332991E-2</v>
+        <v>0.14950797269835187</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="12"/>
-        <v>2.0377950676815346E-2</v>
+        <v>0.13402681472561273</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="13"/>
-        <v>6.6859177382196988E-2</v>
+        <v>0.18133685103822456</v>
       </c>
       <c r="R71" s="9">
         <f t="shared" si="14"/>
-        <v>3.5316792679191189E-2</v>
+        <v>0.12780913566790308</v>
       </c>
       <c r="S71" s="9">
         <f t="shared" si="15"/>
-        <v>0.5088282805804456</v>
+        <v>0.53190885933752841</v>
       </c>
       <c r="T71" s="9">
         <f t="shared" si="16"/>
-        <v>4.4436102896856358E-2</v>
+        <v>0.16042624756353555</v>
       </c>
       <c r="U71" s="9">
         <f t="shared" si="17"/>
-        <v>0.51110719812522909</v>
+        <v>0.54002076554665768</v>
       </c>
       <c r="V71" s="9">
         <f t="shared" si="18"/>
-        <v>3.8969269003536466E-5</v>
+        <v>5.0908765211108689E-4</v>
       </c>
       <c r="W71" s="9">
         <f t="shared" si="19"/>
-        <v>6.1684925096546297E-5</v>
+        <v>8.0083083747027107E-4</v>
       </c>
       <c r="X71" s="6">
         <f t="shared" si="20"/>
-        <v>1.0065419410008276E-4</v>
+        <v>1.3099184895813579E-3</v>
       </c>
       <c r="Y71" s="9">
         <f t="shared" si="21"/>
-        <v>1.01225124793066E-6</v>
+        <v>2.6749829378598938E-5</v>
       </c>
       <c r="Z71" s="9">
         <f t="shared" si="22"/>
-        <v>2.02450249586132E-6</v>
+        <v>5.3499658757197877E-5</v>
       </c>
       <c r="AA71" s="9">
         <f t="shared" si="23"/>
-        <v>3.9246061060171867E-6</v>
+        <v>3.737461182779444E-5</v>
       </c>
       <c r="AB71" s="9">
         <f t="shared" si="24"/>
-        <v>7.8492122120343734E-6</v>
+        <v>7.474922365558888E-5</v>
       </c>
       <c r="AC71" s="9">
         <f t="shared" si="25"/>
-        <v>1.1176383246818556E-3</v>
+        <v>4.0246031280432373E-3</v>
       </c>
       <c r="AD71" s="9">
         <f t="shared" si="26"/>
-        <v>1.1257668058465785E-3</v>
+        <v>4.0539903588566253E-3</v>
       </c>
       <c r="AE71" s="9">
         <f t="shared" si="27"/>
-        <v>1.405887996148911E-3</v>
+        <v>5.0359129417775492E-3</v>
       </c>
       <c r="AF71" s="9">
         <f t="shared" si="28"/>
-        <v>1.4161128907718289E-3</v>
+        <v>5.0726846510039687E-3</v>
       </c>
     </row>
     <row r="72" spans="2:32" x14ac:dyDescent="0.3">
@@ -16492,111 +16492,111 @@
       </c>
       <c r="F72" s="8">
         <f t="shared" si="2"/>
-        <v>0.14477119596160415</v>
+        <v>0.14518645223774193</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="3"/>
-        <v>0.1895423919232084</v>
+        <v>0.19037290447548369</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="4"/>
-        <v>0.2437274698390523</v>
+        <v>0.2443762800032776</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="5"/>
-        <v>0.28745493967810459</v>
+        <v>0.28875256000655519</v>
       </c>
       <c r="J72" s="9">
         <f t="shared" si="6"/>
-        <v>2.6192798990401049E-2</v>
+        <v>2.6296613059435467E-2</v>
       </c>
       <c r="K72" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654782540030585</v>
+        <v>0.50657377444897589</v>
       </c>
       <c r="L72" s="9">
         <f t="shared" si="8"/>
-        <v>4.0931867459763079E-2</v>
+        <v>4.1094070000819397E-2</v>
       </c>
       <c r="M72" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023153839638813</v>
+        <v>0.51027207198422242</v>
       </c>
       <c r="N72" s="8">
         <f t="shared" si="10"/>
-        <v>8.8400627516384122E-3</v>
+        <v>9.7676029966339978E-2</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="11"/>
-        <v>5.5970217501636756E-2</v>
+        <v>0.14545398233949525</v>
       </c>
       <c r="P72" s="8">
         <f t="shared" si="12"/>
-        <v>1.7566174684517523E-2</v>
+        <v>0.12899090178383518</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="13"/>
-        <v>6.4026951600653331E-2</v>
+        <v>0.17626416638722059</v>
       </c>
       <c r="R72" s="9">
         <f t="shared" si="14"/>
-        <v>3.3035684743485248E-2</v>
+        <v>0.12370122011997084</v>
       </c>
       <c r="S72" s="9">
         <f t="shared" si="15"/>
-        <v>0.50825817014891583</v>
+        <v>0.53088593038279741</v>
       </c>
       <c r="T72" s="9">
         <f t="shared" si="16"/>
-        <v>4.1566677601076692E-2</v>
+        <v>0.15528608938519328</v>
       </c>
       <c r="U72" s="9">
         <f t="shared" si="17"/>
-        <v>0.51039017344133653</v>
+        <v>0.53874369889893914</v>
       </c>
       <c r="V72" s="9">
         <f t="shared" si="18"/>
-        <v>3.4098687104222278E-5</v>
+        <v>4.7697034780550413E-4</v>
       </c>
       <c r="W72" s="9">
         <f t="shared" si="19"/>
-        <v>5.3977852070527445E-5</v>
+        <v>7.5053710218582893E-4</v>
       </c>
       <c r="X72" s="6">
         <f t="shared" si="20"/>
-        <v>8.8076539174749717E-5</v>
+        <v>1.2275074499913331E-3</v>
       </c>
       <c r="Y72" s="9">
         <f t="shared" si="21"/>
-        <v>7.9804941175113284E-7</v>
+        <v>2.4910947225237012E-5</v>
       </c>
       <c r="Z72" s="9">
         <f t="shared" si="22"/>
-        <v>1.5960988235022657E-6</v>
+        <v>4.9821894450474024E-5</v>
       </c>
       <c r="AA72" s="9">
         <f t="shared" si="23"/>
-        <v>3.5214252182331328E-6</v>
+        <v>3.5192231373662327E-5</v>
       </c>
       <c r="AB72" s="9">
         <f t="shared" si="24"/>
-        <v>7.0428504364662655E-6</v>
+        <v>7.0384462747324653E-5</v>
       </c>
       <c r="AC72" s="9">
         <f t="shared" si="25"/>
-        <v>1.045504252279345E-3</v>
+        <v>3.8965752244979664E-3</v>
       </c>
       <c r="AD72" s="9">
         <f t="shared" si="26"/>
-        <v>1.053107359840881E-3</v>
+        <v>3.9250226003305164E-3</v>
       </c>
       <c r="AE72" s="9">
         <f t="shared" si="27"/>
-        <v>1.315211756760346E-3</v>
+        <v>4.8771745512395442E-3</v>
       </c>
       <c r="AF72" s="9">
         <f t="shared" si="28"/>
-        <v>1.3247762290530649E-3</v>
+        <v>4.9127809002682439E-3</v>
       </c>
     </row>
     <row r="73" spans="2:32" x14ac:dyDescent="0.3">
@@ -16614,111 +16614,111 @@
       </c>
       <c r="F73" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476959986278065</v>
+        <v>0.1451615412905167</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953919972556141</v>
+        <v>0.19032308258103323</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="4"/>
-        <v>0.24372042698861585</v>
+        <v>0.24434108777190394</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="5"/>
-        <v>0.28744085397723168</v>
+        <v>0.28868217554380787</v>
       </c>
       <c r="J73" s="9">
         <f t="shared" si="6"/>
-        <v>2.6192399965695175E-2</v>
+        <v>2.6290385322629159E-2</v>
       </c>
       <c r="K73" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654772566123696</v>
+        <v>0.50657221778383921</v>
       </c>
       <c r="L73" s="9">
         <f t="shared" si="8"/>
-        <v>4.0930106747153965E-2</v>
+        <v>4.1085271942975989E-2</v>
       </c>
       <c r="M73" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023109840254699</v>
+        <v>0.51026987339789409</v>
       </c>
       <c r="N73" s="8">
         <f t="shared" si="10"/>
-        <v>6.7490542470797221E-3</v>
+        <v>9.3779454741842017E-2</v>
       </c>
       <c r="O73" s="8">
         <f t="shared" si="11"/>
-        <v>5.3864002781954995E-2</v>
+        <v>0.14152895973916474</v>
       </c>
       <c r="P73" s="8">
         <f t="shared" si="12"/>
-        <v>1.4935751170996832E-2</v>
+        <v>0.12411372723259564</v>
       </c>
       <c r="Q73" s="8">
         <f t="shared" si="13"/>
-        <v>6.1377399142547202E-2</v>
+        <v>0.17135138548695233</v>
       </c>
       <c r="R73" s="9">
         <f t="shared" si="14"/>
-        <v>3.0901807383017291E-2</v>
+        <v>0.11972403073937332</v>
       </c>
       <c r="S73" s="9">
         <f t="shared" si="15"/>
-        <v>0.5077248371376536</v>
+        <v>0.5298953066588421</v>
       </c>
       <c r="T73" s="9">
         <f t="shared" si="16"/>
-        <v>3.8882328568304009E-2</v>
+        <v>0.15030801584061537</v>
       </c>
       <c r="U73" s="9">
         <f t="shared" si="17"/>
-        <v>0.50971935766711951</v>
+        <v>0.53750641689236978</v>
       </c>
       <c r="V73" s="9">
         <f t="shared" si="18"/>
-        <v>2.9836554401636094E-5</v>
+        <v>4.4686468011310445E-4</v>
       </c>
       <c r="W73" s="9">
         <f t="shared" si="19"/>
-        <v>4.7232956730697403E-5</v>
+        <v>7.0336565405212047E-4</v>
       </c>
       <c r="X73" s="6">
         <f t="shared" si="20"/>
-        <v>7.7069511132333497E-5</v>
+        <v>1.1502303341652249E-3</v>
       </c>
       <c r="Y73" s="9">
         <f t="shared" si="21"/>
-        <v>6.1625041093580034E-7</v>
+        <v>2.3191025440495483E-5</v>
       </c>
       <c r="Z73" s="9">
         <f t="shared" si="22"/>
-        <v>1.2325008218716007E-6</v>
+        <v>4.6382050880990967E-5</v>
       </c>
       <c r="AA73" s="9">
         <f t="shared" si="23"/>
-        <v>3.1629412795573919E-6</v>
+        <v>3.3139709196969308E-5</v>
       </c>
       <c r="AB73" s="9">
         <f t="shared" si="24"/>
-        <v>6.3258825591147838E-6</v>
+        <v>6.6279418393938615E-5</v>
       </c>
       <c r="AC73" s="9">
         <f t="shared" si="25"/>
-        <v>9.7801616999930343E-4</v>
+        <v>3.7724981936536335E-3</v>
       </c>
       <c r="AD73" s="9">
         <f t="shared" si="26"/>
-        <v>9.8512783572918781E-4</v>
+        <v>3.800035035657724E-3</v>
       </c>
       <c r="AE73" s="9">
         <f t="shared" si="27"/>
-        <v>1.2303645445105101E-3</v>
+        <v>4.7231997113787103E-3</v>
       </c>
       <c r="AF73" s="9">
         <f t="shared" si="28"/>
-        <v>1.2393111669027211E-3</v>
+        <v>4.7576760709498829E-3</v>
       </c>
     </row>
     <row r="74" spans="2:32" x14ac:dyDescent="0.3">
@@ -16736,111 +16736,111 @@
       </c>
       <c r="F74" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476836736195878</v>
+        <v>0.14513835026507621</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953673472391766</v>
+        <v>0.19027670053015225</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="4"/>
-        <v>0.24371410110605674</v>
+        <v>0.24430794806270698</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="5"/>
-        <v>0.28742820221211346</v>
+        <v>0.28861589612541394</v>
       </c>
       <c r="J74" s="9">
         <f t="shared" si="6"/>
-        <v>2.6192091840489706E-2</v>
+        <v>2.6284587566269037E-2</v>
       </c>
       <c r="K74" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654764864314561</v>
+        <v>0.50657076859512251</v>
       </c>
       <c r="L74" s="9">
         <f t="shared" si="8"/>
-        <v>4.092852527651418E-2</v>
+        <v>4.1076987015676747E-2</v>
       </c>
       <c r="M74" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023070320042174</v>
+        <v>0.51026780303970687</v>
       </c>
       <c r="N74" s="8">
         <f t="shared" si="10"/>
-        <v>4.7930219070811148E-3</v>
+        <v>9.0006956548188383E-2</v>
       </c>
       <c r="O74" s="8">
         <f t="shared" si="11"/>
-        <v>5.1893747110496616E-2</v>
+        <v>0.13772892470350701</v>
       </c>
       <c r="P74" s="8">
         <f t="shared" si="12"/>
-        <v>1.2475022081975812E-2</v>
+        <v>0.11939052752121693</v>
       </c>
       <c r="Q74" s="8">
         <f t="shared" si="13"/>
-        <v>5.8898776808741761E-2</v>
+        <v>0.16659370941600246</v>
       </c>
       <c r="R74" s="9">
         <f t="shared" si="14"/>
-        <v>2.8905677056820567E-2</v>
+        <v>0.11587352898100331</v>
       </c>
       <c r="S74" s="9">
         <f t="shared" si="15"/>
-        <v>0.50722591614381773</v>
+        <v>0.52893601328484574</v>
       </c>
       <c r="T74" s="9">
         <f t="shared" si="16"/>
-        <v>3.6371157411165166E-2</v>
+        <v>0.1454871573933389</v>
       </c>
       <c r="U74" s="9">
         <f t="shared" si="17"/>
-        <v>0.50909178711060321</v>
+        <v>0.53630776952332893</v>
       </c>
       <c r="V74" s="9">
         <f t="shared" si="18"/>
-        <v>2.610693205874288E-5</v>
+        <v>4.1864643241038457E-4</v>
       </c>
       <c r="W74" s="9">
         <f t="shared" si="19"/>
-        <v>4.1330296432265344E-5</v>
+        <v>6.5912706387958643E-4</v>
       </c>
       <c r="X74" s="6">
         <f t="shared" si="20"/>
-        <v>6.743722849100823E-5</v>
+        <v>1.0777734962899711E-3</v>
       </c>
       <c r="Y74" s="9">
         <f t="shared" si="21"/>
-        <v>4.6245032074277204E-7</v>
+        <v>2.1582728364868572E-5</v>
       </c>
       <c r="Z74" s="9">
         <f t="shared" si="22"/>
-        <v>9.2490064148554409E-7</v>
+        <v>4.3165456729737144E-5</v>
       </c>
       <c r="AA74" s="9">
         <f t="shared" si="23"/>
-        <v>2.8439485631041199E-6</v>
+        <v>3.1209389988949587E-5</v>
       </c>
       <c r="AB74" s="9">
         <f t="shared" si="24"/>
-        <v>5.6878971262082398E-6</v>
+        <v>6.2418779977899174E-5</v>
       </c>
       <c r="AC74" s="9">
         <f t="shared" si="25"/>
-        <v>9.1487659110200254E-4</v>
+        <v>3.6522614676766955E-3</v>
       </c>
       <c r="AD74" s="9">
         <f t="shared" si="26"/>
-        <v>9.2152856235728174E-4</v>
+        <v>3.6789162556820822E-3</v>
       </c>
       <c r="AE74" s="9">
         <f t="shared" si="27"/>
-        <v>1.1509751586828113E-3</v>
+        <v>4.5738677490062517E-3</v>
       </c>
       <c r="AF74" s="9">
         <f t="shared" si="28"/>
-        <v>1.1593437777354381E-3</v>
+        <v>4.6072485669716176E-3</v>
       </c>
     </row>
     <row r="75" spans="2:32" x14ac:dyDescent="0.3">
@@ -16858,111 +16858,111 @@
       </c>
       <c r="F75" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476744246131729</v>
+        <v>0.14511676753671135</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953488492263468</v>
+        <v>0.1902335350734225</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="4"/>
-        <v>0.24370841320893052</v>
+        <v>0.24427673867271801</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="5"/>
-        <v>0.28741682641786104</v>
+        <v>0.28855347734543602</v>
       </c>
       <c r="J75" s="9">
         <f t="shared" si="6"/>
-        <v>2.6191860615329333E-2</v>
+        <v>2.6279191884177818E-2</v>
       </c>
       <c r="K75" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654759084676848</v>
+        <v>0.50656941990751059</v>
       </c>
       <c r="L75" s="9">
         <f t="shared" si="8"/>
-        <v>4.0927103302232634E-2</v>
+        <v>4.1069184668179506E-2</v>
       </c>
       <c r="M75" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023034785568033</v>
+        <v>0.51026585327526053</v>
       </c>
       <c r="N75" s="8">
         <f t="shared" si="10"/>
-        <v>2.9632687248771095E-3</v>
+        <v>8.635469508051169E-2</v>
       </c>
       <c r="O75" s="8">
         <f t="shared" si="11"/>
-        <v>5.0050689985782056E-2</v>
+        <v>0.13405000844782491</v>
       </c>
       <c r="P75" s="8">
         <f t="shared" si="12"/>
-        <v>1.017307176461019E-2</v>
+        <v>0.11481665977221067</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="13"/>
-        <v>5.6580089253270884E-2</v>
+        <v>0.16198646084903084</v>
       </c>
       <c r="R75" s="9">
         <f t="shared" si="14"/>
-        <v>2.7038417595480469E-2</v>
+        <v>0.11214578973541003</v>
       </c>
       <c r="S75" s="9">
         <f t="shared" si="15"/>
-        <v>0.50675919261358127</v>
+        <v>0.52800710056058497</v>
       </c>
       <c r="T75" s="9">
         <f t="shared" si="16"/>
-        <v>3.4022023615276419E-2</v>
+        <v>0.14081876840069707</v>
       </c>
       <c r="U75" s="9">
         <f t="shared" si="17"/>
-        <v>0.50850468557320161</v>
+        <v>0.53514663169557442</v>
       </c>
       <c r="V75" s="9">
         <f t="shared" si="18"/>
-        <v>2.2843342393745776E-5</v>
+        <v>3.9219884090535957E-4</v>
       </c>
       <c r="W75" s="9">
         <f t="shared" si="19"/>
-        <v>3.6164838349511788E-5</v>
+        <v>6.1764285977217799E-4</v>
       </c>
       <c r="X75" s="6">
         <f t="shared" si="20"/>
-        <v>5.9008180743257561E-5</v>
+        <v>1.0098417006775375E-3</v>
       </c>
       <c r="Y75" s="9">
         <f t="shared" si="21"/>
-        <v>3.3281600815762178E-7</v>
+        <v>2.0079144088585012E-5</v>
       </c>
       <c r="Z75" s="9">
         <f t="shared" si="22"/>
-        <v>6.6563201631524355E-7</v>
+        <v>4.0158288177170024E-5</v>
       </c>
       <c r="AA75" s="9">
         <f t="shared" si="23"/>
-        <v>2.5598643252994951E-6</v>
+        <v>2.9394048677976157E-5</v>
       </c>
       <c r="AB75" s="9">
         <f t="shared" si="24"/>
-        <v>5.1197286505989902E-6</v>
+        <v>5.8788097355952314E-5</v>
       </c>
       <c r="AC75" s="9">
         <f t="shared" si="25"/>
-        <v>8.5580675913907677E-4</v>
+        <v>3.5357564970433771E-3</v>
       </c>
       <c r="AD75" s="9">
         <f t="shared" si="26"/>
-        <v>8.6202873787798466E-4</v>
+        <v>3.561556886451597E-3</v>
       </c>
       <c r="AE75" s="9">
         <f t="shared" si="27"/>
-        <v>1.0766953987320523E-3</v>
+        <v>4.4290589225173633E-3</v>
       </c>
       <c r="AF75" s="9">
         <f t="shared" si="28"/>
-        <v>1.0845233059174663E-3</v>
+        <v>4.4613777332183982E-3</v>
       </c>
     </row>
     <row r="76" spans="2:32" x14ac:dyDescent="0.3">
@@ -16980,111 +16980,111 @@
       </c>
       <c r="F76" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476677682930097</v>
+        <v>0.14509668839262277</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953355365860206</v>
+        <v>0.19019337678524534</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="4"/>
-        <v>0.24370329348027991</v>
+        <v>0.24424734462404005</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="5"/>
-        <v>0.28740658696055982</v>
+        <v>0.28849468924808008</v>
       </c>
       <c r="J76" s="9">
         <f t="shared" si="6"/>
-        <v>2.6191694207325256E-2</v>
+        <v>2.6274172098155676E-2</v>
       </c>
       <c r="K76" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654754925190149</v>
+        <v>0.50656816517760395</v>
       </c>
       <c r="L76" s="9">
         <f t="shared" si="8"/>
-        <v>4.0925823370069975E-2</v>
+        <v>4.1061836156010015E-2</v>
       </c>
       <c r="M76" s="9">
         <f t="shared" si="9"/>
-        <v>0.51023002800659323</v>
+        <v>0.51026401692152268</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" si="10"/>
-        <v>1.251655206598956E-3</v>
+        <v>8.281893858346831E-2</v>
       </c>
       <c r="O76" s="8">
         <f t="shared" si="11"/>
-        <v>4.8326632510026085E-2</v>
+        <v>0.13048845156137331</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" si="12"/>
-        <v>8.019680967146085E-3</v>
+        <v>0.1103876008496933</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="13"/>
-        <v>5.4411042641435953E-2</v>
+        <v>0.15752508311581245</v>
       </c>
       <c r="R76" s="9">
         <f t="shared" si="14"/>
-        <v>2.5291721936466029E-2</v>
+        <v>0.1085369992157601</v>
       </c>
       <c r="S76" s="9">
         <f t="shared" si="15"/>
-        <v>0.50632259345596509</v>
+        <v>0.52710764372406871</v>
       </c>
       <c r="T76" s="9">
         <f t="shared" si="16"/>
-        <v>3.1824497550497773E-2</v>
+        <v>0.13629822609735803</v>
       </c>
       <c r="U76" s="9">
         <f t="shared" si="17"/>
-        <v>0.50795545295962696</v>
+        <v>0.53402190349755729</v>
       </c>
       <c r="V76" s="9">
         <f t="shared" si="18"/>
-        <v>1.9987594004706269E-5</v>
+        <v>3.6741217413552079E-4</v>
       </c>
       <c r="W76" s="9">
         <f t="shared" si="19"/>
-        <v>3.1644615896418701E-5</v>
+        <v>5.7874495879855061E-4</v>
       </c>
       <c r="X76" s="6">
         <f t="shared" si="20"/>
-        <v>5.1632209901124974E-5</v>
+        <v>9.461571329340714E-4</v>
       </c>
       <c r="Y76" s="9">
         <f t="shared" si="21"/>
-        <v>2.2401309439528339E-7</v>
+        <v>1.867376305512697E-5</v>
       </c>
       <c r="Z76" s="9">
         <f t="shared" si="22"/>
-        <v>4.4802618879056678E-7</v>
+        <v>3.7347526110253941E-5</v>
       </c>
       <c r="AA76" s="9">
         <f t="shared" si="23"/>
-        <v>2.3066534473110179E-6</v>
+        <v>2.7686869221527274E-5</v>
       </c>
       <c r="AB76" s="9">
         <f t="shared" si="24"/>
-        <v>4.6133068946220358E-6</v>
+        <v>5.5373738443054548E-5</v>
       </c>
       <c r="AC76" s="9">
         <f t="shared" si="25"/>
-        <v>8.0054552670522354E-4</v>
+        <v>3.422876823956473E-3</v>
       </c>
       <c r="AD76" s="9">
         <f t="shared" si="26"/>
-        <v>8.0636529998930962E-4</v>
+        <v>3.4478496630503059E-3</v>
       </c>
       <c r="AE76" s="9">
         <f t="shared" si="27"/>
-        <v>1.0071987560636882E-3</v>
+        <v>4.2886546481016464E-3</v>
       </c>
       <c r="AF76" s="9">
         <f t="shared" si="28"/>
-        <v>1.0145208485828094E-3</v>
+        <v>4.3199440832652125E-3</v>
       </c>
     </row>
     <row r="77" spans="2:32" x14ac:dyDescent="0.3">
@@ -17102,111 +17102,111 @@
       </c>
       <c r="F77" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476632880311219</v>
+        <v>0.14507801462956765</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953265760622448</v>
+        <v>0.19015602925913508</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="4"/>
-        <v>0.24369868017338528</v>
+        <v>0.24421965775481852</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="5"/>
-        <v>0.28739736034677055</v>
+        <v>0.28843931550963703</v>
       </c>
       <c r="J77" s="9">
         <f t="shared" si="6"/>
-        <v>2.6191582200778059E-2</v>
+        <v>2.6269503657391891E-2</v>
       </c>
       <c r="K77" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065475212550663</v>
+        <v>0.50656699826877738</v>
       </c>
       <c r="L77" s="9">
         <f t="shared" si="8"/>
-        <v>4.0924670043346323E-2</v>
+        <v>4.1054914438704633E-2</v>
       </c>
       <c r="M77" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022973979560848</v>
+        <v>0.51026228722127676</v>
       </c>
       <c r="N77" s="8">
         <f t="shared" si="10"/>
-        <v>-3.4943584681149109E-4</v>
+        <v>7.9396061759511832E-2</v>
       </c>
       <c r="O77" s="8">
         <f t="shared" si="11"/>
-        <v>4.6713901910047463E-2</v>
+        <v>0.127040601898323</v>
       </c>
       <c r="P77" s="8">
         <f t="shared" si="12"/>
-        <v>6.0052834550187086E-3</v>
+        <v>0.10609894620159166</v>
       </c>
       <c r="Q77" s="8">
         <f t="shared" si="13"/>
-        <v>5.2382000944270334E-2</v>
+        <v>0.15320513903254723</v>
       </c>
       <c r="R77" s="9">
         <f t="shared" si="14"/>
-        <v>2.3657816154361067E-2</v>
+        <v>0.10504345277448435</v>
       </c>
       <c r="S77" s="9">
         <f t="shared" si="15"/>
-        <v>0.50591417819784734</v>
+        <v>0.52623674266659726</v>
       </c>
       <c r="T77" s="9">
         <f t="shared" si="16"/>
-        <v>2.976881616034216E-2</v>
+        <v>0.13192102935362204</v>
       </c>
       <c r="U77" s="9">
         <f t="shared" si="17"/>
-        <v>0.50744165449292256</v>
+        <v>0.53293251037906608</v>
       </c>
       <c r="V77" s="9">
         <f t="shared" si="18"/>
-        <v>1.7488751877946414E-5</v>
+        <v>3.4418333287662245E-4</v>
       </c>
       <c r="W77" s="9">
         <f t="shared" si="19"/>
-        <v>2.768911079601723E-5</v>
+        <v>5.4227511993364759E-4</v>
       </c>
       <c r="X77" s="6">
         <f t="shared" si="20"/>
-        <v>4.5177862673963641E-5</v>
+        <v>8.8645845281027009E-4</v>
       </c>
       <c r="Y77" s="9">
         <f t="shared" si="21"/>
-        <v>1.3314281672197733E-7</v>
+        <v>1.7360457365754027E-5</v>
       </c>
       <c r="Z77" s="9">
         <f t="shared" si="22"/>
-        <v>2.6628563344395466E-7</v>
+        <v>3.4720914731508055E-5</v>
       </c>
       <c r="AA77" s="9">
         <f t="shared" si="23"/>
-        <v>2.0807621659164603E-6</v>
+        <v>2.6081424055430147E-5</v>
       </c>
       <c r="AB77" s="9">
         <f t="shared" si="24"/>
-        <v>4.1615243318329207E-6</v>
+        <v>5.2162848110860295E-5</v>
       </c>
       <c r="AC77" s="9">
         <f t="shared" si="25"/>
-        <v>7.4884829055888314E-4</v>
+        <v>3.3135181414411935E-3</v>
       </c>
       <c r="AD77" s="9">
         <f t="shared" si="26"/>
-        <v>7.5429185299645497E-4</v>
+        <v>3.337689489009866E-3</v>
       </c>
       <c r="AE77" s="9">
         <f t="shared" si="27"/>
-        <v>9.4217915829075704E-4</v>
+        <v>4.1525376978013675E-3</v>
       </c>
       <c r="AF77" s="9">
         <f t="shared" si="28"/>
-        <v>9.4902809036444442E-4</v>
+        <v>4.1828294987516154E-3</v>
       </c>
     </row>
     <row r="78" spans="2:32" x14ac:dyDescent="0.3">
@@ -17224,111 +17224,111 @@
       </c>
       <c r="F78" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476606251747876</v>
+        <v>0.1450606541722019</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953212503495759</v>
+        <v>0.19012130834440358</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="4"/>
-        <v>0.24369451864905345</v>
+        <v>0.24419357633076308</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="5"/>
-        <v>0.28738903729810689</v>
+        <v>0.28838715266152615</v>
       </c>
       <c r="J78" s="9">
         <f t="shared" si="6"/>
-        <v>2.6191515629369697E-2</v>
+        <v>2.6265163543050453E-2</v>
       </c>
       <c r="K78" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654750461506826</v>
+        <v>0.50656591342733059</v>
       </c>
       <c r="L78" s="9">
         <f t="shared" si="8"/>
-        <v>4.0923629662263365E-2</v>
+        <v>4.1048394082690773E-2</v>
       </c>
       <c r="M78" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022947980920841</v>
+        <v>0.51026065781885255</v>
       </c>
       <c r="N78" s="8">
         <f t="shared" si="10"/>
-        <v>-1.8471324279292574E-3</v>
+        <v>7.6082543618070639E-2</v>
       </c>
       <c r="O78" s="8">
         <f t="shared" si="11"/>
-        <v>4.5205318204054552E-2</v>
+        <v>0.12370291240931314</v>
       </c>
       <c r="P78" s="8">
         <f t="shared" si="12"/>
-        <v>4.120925138437195E-3</v>
+        <v>0.10194640850379029</v>
       </c>
       <c r="Q78" s="8">
         <f t="shared" si="13"/>
-        <v>5.0483944763541441E-2</v>
+        <v>0.14902230953379561</v>
       </c>
       <c r="R78" s="9">
         <f t="shared" si="14"/>
-        <v>2.2129425669803356E-2</v>
+        <v>0.10166155266384669</v>
       </c>
       <c r="S78" s="9">
         <f t="shared" si="15"/>
-        <v>0.50553213065696889</v>
+        <v>0.5253935216108776</v>
       </c>
       <c r="T78" s="9">
         <f t="shared" si="16"/>
-        <v>2.7845841220999427E-2</v>
+        <v>0.12768279723675752</v>
       </c>
       <c r="U78" s="9">
         <f t="shared" si="17"/>
-        <v>0.5069610105190604</v>
+        <v>0.53187740323764499</v>
       </c>
       <c r="V78" s="9">
         <f t="shared" si="18"/>
-        <v>1.5302234802887532E-5</v>
+        <v>3.2241546990105388E-4</v>
       </c>
       <c r="W78" s="9">
         <f t="shared" si="19"/>
-        <v>2.4227833723234737E-5</v>
+        <v>5.0808441858770953E-4</v>
       </c>
       <c r="X78" s="6">
         <f t="shared" si="20"/>
-        <v>3.9530068526122273E-5</v>
+        <v>8.3049988848876342E-4</v>
       </c>
       <c r="Y78" s="9">
         <f t="shared" si="21"/>
-        <v>5.7686719610029839E-8</v>
+        <v>1.6133460815031234E-5</v>
       </c>
       <c r="Z78" s="9">
         <f t="shared" si="22"/>
-        <v>1.1537343922005968E-7</v>
+        <v>3.2266921630062468E-5</v>
       </c>
       <c r="AA78" s="9">
         <f t="shared" si="23"/>
-        <v>1.8790598178796418E-6</v>
+        <v>2.4571654235012295E-5</v>
       </c>
       <c r="AB78" s="9">
         <f t="shared" si="24"/>
-        <v>3.7581196357592835E-6</v>
+        <v>4.9143308470024589E-5</v>
       </c>
       <c r="AC78" s="9">
         <f t="shared" si="25"/>
-        <v>7.0048598236633708E-4</v>
+        <v>3.2075783395491822E-3</v>
       </c>
       <c r="AD78" s="9">
         <f t="shared" si="26"/>
-        <v>7.0557765094118408E-4</v>
+        <v>3.2309734827403887E-3</v>
       </c>
       <c r="AE78" s="9">
         <f t="shared" si="27"/>
-        <v>8.813497683259232E-4</v>
+        <v>4.0205923718255529E-3</v>
       </c>
       <c r="AF78" s="9">
         <f t="shared" si="28"/>
-        <v>8.8775609340850995E-4</v>
+        <v>4.0499174028287089E-3</v>
       </c>
     </row>
     <row r="79" spans="2:32" x14ac:dyDescent="0.3">
@@ -17346,111 +17346,111 @@
       </c>
       <c r="F79" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476594714403954</v>
+        <v>0.14504452071138688</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953189428807915</v>
+        <v>0.19008904142277352</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="4"/>
-        <v>0.24369076052941768</v>
+        <v>0.24416900467652808</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="5"/>
-        <v>0.28738152105883535</v>
+        <v>0.28833800935305615</v>
       </c>
       <c r="J79" s="9">
         <f t="shared" si="6"/>
-        <v>2.6191486786009893E-2</v>
+        <v>2.6261130177846696E-2</v>
       </c>
       <c r="K79" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654749740546479</v>
+        <v>0.50656490525988629</v>
       </c>
       <c r="L79" s="9">
         <f t="shared" si="8"/>
-        <v>4.0922690132354424E-2</v>
+        <v>4.1042251169132023E-2</v>
       </c>
       <c r="M79" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022924502504352</v>
+        <v>0.51025912273709884</v>
       </c>
       <c r="N79" s="8">
         <f t="shared" si="10"/>
-        <v>-3.2481043926619315E-3</v>
+        <v>7.2874965278521456E-2</v>
       </c>
       <c r="O79" s="8">
         <f t="shared" si="11"/>
-        <v>4.3794162902172182E-2</v>
+        <v>0.12047193892657275</v>
       </c>
       <c r="P79" s="8">
         <f t="shared" si="12"/>
-        <v>2.3582256017853484E-3</v>
+        <v>9.7925816131964744E-2</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="13"/>
-        <v>4.8708432576724421E-2</v>
+        <v>0.14497239213096691</v>
       </c>
       <c r="R79" s="9">
         <f t="shared" si="14"/>
-        <v>2.0699743522664481E-2</v>
+        <v>9.8387805753242075E-2</v>
       </c>
       <c r="S79" s="9">
         <f t="shared" si="15"/>
-        <v>0.50517475110913923</v>
+        <v>0.52457712875731832</v>
       </c>
       <c r="T79" s="9">
         <f t="shared" si="16"/>
-        <v>2.6047020056877201E-2</v>
+        <v>0.12357926740123162</v>
       </c>
       <c r="U79" s="9">
         <f t="shared" si="17"/>
-        <v>0.50651138688233621</v>
+        <v>0.5308555584244119</v>
       </c>
       <c r="V79" s="9">
         <f t="shared" si="18"/>
-        <v>1.3389024520768848E-5</v>
+        <v>3.0201762897690167E-4</v>
       </c>
       <c r="W79" s="9">
         <f t="shared" si="19"/>
-        <v>2.1199079565730047E-5</v>
+        <v>4.7603274284114806E-4</v>
       </c>
       <c r="X79" s="6">
         <f t="shared" si="20"/>
-        <v>3.4588104086498895E-5</v>
+        <v>7.7805037181804973E-4</v>
       </c>
       <c r="Y79" s="9">
         <f t="shared" si="21"/>
-        <v>-4.5417721503754982E-9</v>
+        <v>1.4987349677498836E-5</v>
       </c>
       <c r="Z79" s="9">
         <f t="shared" si="22"/>
-        <v>-9.0835443007509964E-9</v>
+        <v>2.9974699354997671E-5</v>
       </c>
       <c r="AA79" s="9">
         <f t="shared" si="23"/>
-        <v>1.6987876435114166E-6</v>
+        <v>2.3151850292547031E-5</v>
       </c>
       <c r="AB79" s="9">
         <f t="shared" si="24"/>
-        <v>3.3975752870228332E-6</v>
+        <v>4.6303700585094061E-5</v>
       </c>
       <c r="AC79" s="9">
         <f t="shared" si="25"/>
-        <v>6.5524411385316206E-4</v>
+        <v>3.1049575399854537E-3</v>
       </c>
       <c r="AD79" s="9">
         <f t="shared" si="26"/>
-        <v>6.6000663556885187E-4</v>
+        <v>3.1276010123048249E-3</v>
       </c>
       <c r="AE79" s="9">
         <f t="shared" si="27"/>
-        <v>8.2444183948998358E-4</v>
+        <v>3.8927046473725339E-3</v>
       </c>
       <c r="AF79" s="9">
         <f t="shared" si="28"/>
-        <v>8.3043414385545892E-4</v>
+        <v>3.9210929099478351E-3</v>
       </c>
     </row>
     <row r="80" spans="2:32" x14ac:dyDescent="0.3">
@@ -17468,111 +17468,111 @@
       </c>
       <c r="F80" s="8">
         <f t="shared" si="2"/>
-        <v>0.14476595622758384</v>
+        <v>0.14502953336170937</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="3"/>
-        <v>0.18953191245516776</v>
+        <v>0.19005906672341852</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="4"/>
-        <v>0.24368736295413065</v>
+        <v>0.24414585282623552</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="5"/>
-        <v>0.2873747259082613</v>
+        <v>0.28829170565247103</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="6"/>
-        <v>2.6191489056895972E-2</v>
+        <v>2.625738334042732E-2</v>
       </c>
       <c r="K80" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654749797308896</v>
+        <v>0.5065639687119895</v>
       </c>
       <c r="L80" s="9">
         <f t="shared" si="8"/>
-        <v>4.0921840738532667E-2</v>
+        <v>4.1036463206558876E-2</v>
       </c>
       <c r="M80" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022903276546461</v>
+        <v>0.51025767635555042</v>
       </c>
       <c r="N80" s="8">
         <f t="shared" si="10"/>
-        <v>-4.5585926203682552E-3</v>
+        <v>6.9770007738536005E-2</v>
       </c>
       <c r="O80" s="8">
         <f t="shared" si="11"/>
-        <v>4.2474149631034477E-2</v>
+        <v>0.11734433791426792</v>
       </c>
       <c r="P80" s="8">
         <f t="shared" si="12"/>
-        <v>7.0934192280538121E-4</v>
+        <v>9.4033111484592216E-2</v>
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="13"/>
-        <v>4.7047564289013501E-2</v>
+        <v>0.14105129922101908</v>
       </c>
       <c r="R80" s="9">
         <f t="shared" si="14"/>
-        <v>1.9362400597652211E-2</v>
+        <v>9.5218821214713881E-2</v>
       </c>
       <c r="S80" s="9">
         <f t="shared" si="15"/>
-        <v>0.50484044892563473</v>
+        <v>0.52378673590315217</v>
       </c>
       <c r="T80" s="9">
         <f t="shared" si="16"/>
-        <v>2.4364348597358858E-2</v>
+        <v>0.11960629433142064</v>
       </c>
       <c r="U80" s="9">
         <f t="shared" si="17"/>
-        <v>0.50609078585054346</v>
+        <v>0.52986597767814114</v>
       </c>
       <c r="V80" s="9">
         <f t="shared" si="18"/>
-        <v>1.171497290083922E-5</v>
+        <v>2.8290440246315417E-4</v>
       </c>
       <c r="W80" s="9">
         <f t="shared" si="19"/>
-        <v>1.8548836138590189E-5</v>
+        <v>4.4598831133561248E-4</v>
       </c>
       <c r="X80" s="6">
         <f t="shared" si="20"/>
-        <v>3.0263809039429409E-5</v>
+        <v>7.288927137987667E-4</v>
       </c>
       <c r="Y80" s="9">
         <f t="shared" si="21"/>
-        <v>-5.5439735789365346E-8</v>
+        <v>1.3917024257159165E-5</v>
       </c>
       <c r="Z80" s="9">
         <f t="shared" si="22"/>
-        <v>-1.1087947157873069E-7</v>
+        <v>2.783404851431833E-5</v>
       </c>
       <c r="AA80" s="9">
         <f t="shared" si="23"/>
-        <v>1.5375138044052885E-6</v>
+        <v>2.1816633826559606E-5</v>
       </c>
       <c r="AB80" s="9">
         <f t="shared" si="24"/>
-        <v>3.0750276088105771E-6</v>
+        <v>4.3633267653119212E-5</v>
       </c>
       <c r="AC80" s="9">
         <f t="shared" si="25"/>
-        <v>6.1292187479743024E-4</v>
+        <v>3.0055581203654006E-3</v>
       </c>
       <c r="AD80" s="9">
         <f t="shared" si="26"/>
-        <v>6.173765275518196E-4</v>
+        <v>3.0274737197527549E-3</v>
       </c>
       <c r="AE80" s="9">
         <f t="shared" si="27"/>
-        <v>7.7120362689876406E-4</v>
+        <v>3.7687623060635466E-3</v>
       </c>
       <c r="AF80" s="9">
         <f t="shared" si="28"/>
-        <v>7.7680865504675613E-4</v>
+        <v>3.7962429541089785E-3</v>
       </c>
     </row>
     <row r="81" spans="2:32" x14ac:dyDescent="0.3">
@@ -17590,111 +17590,111 @@
       </c>
       <c r="F81" s="8">
         <f>F80-($J$31*Y80)</f>
-        <v>0.14476606710705542</v>
+        <v>0.14501561633745222</v>
       </c>
       <c r="G81" s="8">
         <f>G80-($J$31*Z80)</f>
-        <v>0.18953213421411091</v>
+        <v>0.19003123267490421</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="4"/>
-        <v>0.24368428792652183</v>
+        <v>0.24412403619240897</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="5"/>
-        <v>0.28736857585304365</v>
+        <v>0.28824807238481792</v>
       </c>
       <c r="J81" s="9">
         <f>(D81*F81)+(E81*G81)</f>
-        <v>2.6191516776763867E-2</v>
+        <v>2.6253904084363032E-2</v>
       </c>
       <c r="K81" s="9">
         <f>1/(1+EXP(-J81))</f>
-        <v>0.50654750490186751</v>
+        <v>0.50656309904785968</v>
       </c>
       <c r="L81" s="9">
         <f>(D81*H81)+(E81*I81)</f>
-        <v>4.0921071981630461E-2</v>
+        <v>4.1031009048102245E-2</v>
       </c>
       <c r="M81" s="9">
         <f>1/(1+EXP(-L81))</f>
-        <v>0.51022884065667495</v>
+        <v>0.51025631338974609</v>
       </c>
       <c r="N81" s="8">
         <f>N80-($J$31*AC80)</f>
-        <v>-5.7844363699631161E-3</v>
+        <v>6.6764449618170602E-2</v>
       </c>
       <c r="O81" s="8">
         <f t="shared" si="11"/>
-        <v>4.1239396575930835E-2</v>
+        <v>0.11431686419451516</v>
       </c>
       <c r="P81" s="8">
         <f t="shared" si="12"/>
-        <v>-8.3306533099214691E-4</v>
+        <v>9.0264349178528672E-2</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="13"/>
-        <v>4.5493946978919987E-2</v>
+        <v>0.13725505626691009</v>
       </c>
       <c r="R81" s="9">
         <f>(K81*N81)+(M81*O81)</f>
-        <v>1.8111437693849611E-2</v>
+        <v>9.2151308186974756E-2</v>
       </c>
       <c r="S81" s="9">
         <f>1/(1+EXP(-R81))</f>
-        <v>0.50452773565690945</v>
+        <v>0.52302153803859619</v>
       </c>
       <c r="T81" s="9">
         <f>(K81*P81)+(M81*Q81)</f>
-        <v>2.2790336659116263E-2</v>
+        <v>0.11575984745826931</v>
       </c>
       <c r="U81" s="9">
         <f>1/(1+EXP(-T81))</f>
-        <v>0.50569733756741619</v>
+        <v>0.52890768799574484</v>
       </c>
       <c r="V81" s="9">
         <f>0.5*(B81-S81)^2</f>
-        <v>1.0250195089424618E-5</v>
+        <v>2.6499560683126565E-4</v>
       </c>
       <c r="W81" s="9">
         <f>0.5*(C81-U81)^2</f>
-        <v>1.622982767854594E-5</v>
+        <v>4.1782721262966502E-4</v>
       </c>
       <c r="X81" s="6">
         <f>V81+W81</f>
-        <v>2.6480022767970557E-5</v>
+        <v>6.8282281946093067E-4</v>
       </c>
       <c r="Y81" s="9">
         <f>((S81-B81)*S81*(1-S81)*N81 + (U81-C81)*U81*(1-U81)*P81)*K81*(1-K81)*D81</f>
-        <v>-9.6651827474846675E-8</v>
+        <v>1.2917691204236097E-5</v>
       </c>
       <c r="Z81" s="9">
         <f>((S81-B81)*S81*(1-S81)*N81 + (U81-C81)*U81*(1-U81)*P81)*K81*(1-K81)*E81</f>
-        <v>-1.9330365494969335E-7</v>
+        <v>2.5835382408472193E-5</v>
       </c>
       <c r="AA81" s="9">
         <f>((S81-B81)*S81*(1-S81)*O81 + (U81-C81)*U81*(1-U81)*Q81)*K81*(1-K81)*D81</f>
-        <v>1.3930938682263819E-6</v>
+        <v>2.0560939831003101E-5</v>
       </c>
       <c r="AB81" s="9">
         <f>((S81-B81)*S81*(1-S81)*O81 + (U81-C81)*U81*(1-U81)*Q81)*K81*(1-K81)*E81</f>
-        <v>2.7861877364527638E-6</v>
+        <v>4.1121879662006202E-5</v>
       </c>
       <c r="AC81" s="9">
         <f>(S81-B81)*S81*(1-S81)*K81</f>
-        <v>5.7333128205019738E-4</v>
+        <v>2.9092847292084695E-3</v>
       </c>
       <c r="AD81" s="9">
         <f>(S81-B81)*S81*(1-S81)*M81</f>
-        <v>5.7749796913785726E-4</v>
+        <v>2.9304955361281592E-3</v>
       </c>
       <c r="AE81" s="9">
         <f xml:space="preserve"> (U81-C81)*U81*(1-U81)*K81</f>
-        <v>7.2139935467889797E-4</v>
+        <v>3.6486550419429246E-3</v>
       </c>
       <c r="AF81" s="9">
         <f xml:space="preserve"> (U81-C81)*U81*(1-U81)*M81</f>
-        <v>7.2664212699970708E-4</v>
+        <v>3.6752563975387584E-3</v>
       </c>
     </row>
     <row r="82" spans="2:32" x14ac:dyDescent="0.3">
@@ -17712,111 +17712,111 @@
       </c>
       <c r="F82" s="8">
         <f t="shared" ref="F82:F91" si="29">F81-($J$31*Y81)</f>
-        <v>0.14476626041071036</v>
+        <v>0.14500269864624798</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" ref="G82:G91" si="30">G81-($J$31*Z81)</f>
-        <v>0.1895325208214208</v>
+        <v>0.19000539729249574</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" ref="H82:H91" si="31">H81-($J$31*AA81)</f>
-        <v>0.24368150173878539</v>
+        <v>0.24410347525257797</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" ref="I82:I91" si="32">I81-($J$31*AB81)</f>
-        <v>0.28736300347757077</v>
+        <v>0.28820695050515593</v>
       </c>
       <c r="J82" s="9">
         <f t="shared" ref="J82:J91" si="33">(D82*F82)+(E82*G82)</f>
-        <v>2.6191565102677599E-2</v>
+        <v>2.6250674661561973E-2</v>
       </c>
       <c r="K82" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065475169812742</v>
+        <v>0.50656229183124735</v>
       </c>
       <c r="L82" s="9">
         <f t="shared" ref="L82:L91" si="34">(D82*H82)+(E82*I82)</f>
-        <v>4.092037543469635E-2</v>
+        <v>4.1025868813144496E-2</v>
       </c>
       <c r="M82" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022866659281929</v>
+        <v>0.51025502887165042</v>
       </c>
       <c r="N82" s="8">
         <f t="shared" ref="N82:N91" si="35">N81-($J$31*AC81)</f>
-        <v>-6.9310989340635107E-3</v>
+        <v>6.3855164888962132E-2</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" ref="O82:O91" si="36">O81-($J$31*AD81)</f>
-        <v>4.0084400637655122E-2</v>
+        <v>0.111386368658387</v>
       </c>
       <c r="P82" s="8">
         <f t="shared" ref="P82:P91" si="37">P81-($J$31*AE81)</f>
-        <v>-2.2758640403499428E-3</v>
+        <v>8.661569413658575E-2</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" ref="Q82:Q91" si="38">Q81-($J$31*AF81)</f>
-        <v>4.4040662724920576E-2</v>
+        <v>0.13357979986937132</v>
       </c>
       <c r="R82" s="9">
         <f t="shared" ref="R82:R91" si="39">(K82*N82)+(M82*O82)</f>
-        <v>1.69412793335217E-2</v>
+        <v>8.9182073427108405E-2</v>
       </c>
       <c r="S82" s="9">
         <f t="shared" si="15"/>
-        <v>0.50423521853910358</v>
+        <v>0.52228075292384835</v>
       </c>
       <c r="T82" s="9">
         <f t="shared" ref="T82:T91" si="40">(K82*P82)+(M82*Q82)</f>
-        <v>2.131797533937407E-2</v>
+        <v>0.11203600916939857</v>
       </c>
       <c r="U82" s="9">
         <f t="shared" si="17"/>
-        <v>0.50532929200894583</v>
+        <v>0.52797974144661175</v>
       </c>
       <c r="V82" s="9">
         <f t="shared" ref="V82:V91" si="41">0.5*(B82-S82)^2</f>
-        <v>8.9685380369833317E-6</v>
+        <v>2.4821597542678831E-4</v>
       </c>
       <c r="W82" s="9">
         <f t="shared" ref="W82:W91" si="42">0.5*(C82-U82)^2</f>
-        <v>1.4200676658306938E-5</v>
+        <v>3.9143296570962169E-4</v>
       </c>
       <c r="X82" s="6">
         <f t="shared" ref="X82:X91" si="43">V82+W82</f>
-        <v>2.3169214695290268E-5</v>
+        <v>6.3964894113640995E-4</v>
       </c>
       <c r="Y82" s="9">
         <f t="shared" ref="Y82:Y91" si="44">((S82-B82)*S82*(1-S82)*N82 + (U82-C82)*U82*(1-U82)*P82)*K82*(1-K82)*D82</f>
-        <v>-1.2960270537537765E-7</v>
+        <v>1.198484659755468E-5</v>
       </c>
       <c r="Z82" s="9">
         <f t="shared" ref="Z82:Z91" si="45">((S82-B82)*S82*(1-S82)*N82 + (U82-C82)*U82*(1-U82)*P82)*K82*(1-K82)*E82</f>
-        <v>-2.5920541075075529E-7</v>
+        <v>2.396969319510936E-5</v>
       </c>
       <c r="AA82" s="9">
         <f t="shared" ref="AA82:AA91" si="46">((S82-B82)*S82*(1-S82)*O82 + (U82-C82)*U82*(1-U82)*Q82)*K82*(1-K82)*D82</f>
-        <v>1.2636361008132204E-6</v>
+        <v>1.9379999765890814E-5</v>
       </c>
       <c r="AB82" s="9">
         <f t="shared" ref="AB82:AB91" si="47">((S82-B82)*S82*(1-S82)*O82 + (U82-C82)*U82*(1-U82)*Q82)*K82*(1-K82)*E82</f>
-        <v>2.5272722016264408E-6</v>
+        <v>3.8759999531781628E-5</v>
       </c>
       <c r="AC82" s="9">
         <f t="shared" ref="AC82:AC91" si="48">(S82-B82)*S82*(1-S82)*K82</f>
-        <v>5.3629637759734696E-4</v>
+        <v>2.8160442926803732E-3</v>
       </c>
       <c r="AD82" s="9">
         <f t="shared" ref="AD82:AD91" si="49">(S82-B82)*S82*(1-S82)*M82</f>
-        <v>5.4019371621985275E-4</v>
+        <v>2.8365726881703014E-3</v>
       </c>
       <c r="AE82" s="9">
         <f t="shared" ref="AE82:AE91" si="50" xml:space="preserve"> (U82-C82)*U82*(1-U82)*K82</f>
-        <v>6.7480823802096529E-4</v>
+        <v>3.532274551860508E-3</v>
       </c>
       <c r="AF82" s="9">
         <f t="shared" ref="AF82:AF91" si="51" xml:space="preserve"> (U82-C82)*U82*(1-U82)*M82</f>
-        <v>6.7971216114758905E-4</v>
+        <v>3.5580241216268929E-3</v>
       </c>
     </row>
     <row r="83" spans="2:32" x14ac:dyDescent="0.3">
@@ -17834,111 +17834,111 @@
       </c>
       <c r="F83" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476651961612111</v>
+        <v>0.14499071379965042</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="30"/>
-        <v>0.1895330392322423</v>
+        <v>0.18998142759930065</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="31"/>
-        <v>0.24367897446658376</v>
+        <v>0.24408409525281208</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="32"/>
-        <v>0.28735794893316752</v>
+        <v>0.28816819050562414</v>
       </c>
       <c r="J83" s="9">
         <f t="shared" si="33"/>
-        <v>2.6191629904030286E-2</v>
+        <v>2.6247678449912586E-2</v>
       </c>
       <c r="K83" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654753317883439</v>
+        <v>0.50656154290734812</v>
       </c>
       <c r="L83" s="9">
         <f t="shared" si="34"/>
-        <v>4.0919743616645937E-2</v>
+        <v>4.1021023813203022E-2</v>
       </c>
       <c r="M83" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022850870441006</v>
+        <v>0.51025381813113224</v>
       </c>
       <c r="N83" s="8">
         <f t="shared" si="35"/>
-        <v>-8.0036916892582046E-3</v>
+        <v>6.1039120596281762E-2</v>
       </c>
       <c r="O83" s="8">
         <f t="shared" si="36"/>
-        <v>3.9004013205215418E-2</v>
+        <v>0.10854979597021669</v>
       </c>
       <c r="P83" s="8">
         <f t="shared" si="37"/>
-        <v>-3.6254805163918732E-3</v>
+        <v>8.3083419584725246E-2</v>
       </c>
       <c r="Q83" s="8">
         <f t="shared" si="38"/>
-        <v>4.2681238402625402E-2</v>
+        <v>0.13002177574774443</v>
       </c>
       <c r="R83" s="9">
         <f t="shared" si="39"/>
-        <v>1.58467092096665E-2</v>
+        <v>8.630801895811864E-2</v>
       </c>
       <c r="S83" s="9">
         <f t="shared" si="15"/>
-        <v>0.50396159440039479</v>
+        <v>0.52156362065035289</v>
       </c>
       <c r="T83" s="9">
         <f t="shared" si="40"/>
-        <v>1.9940706407662726E-2</v>
+        <v>0.10843097273033345</v>
       </c>
       <c r="U83" s="9">
         <f t="shared" si="17"/>
-        <v>0.50498501141976659</v>
+        <v>0.52708121493762006</v>
       </c>
       <c r="V83" s="9">
         <f t="shared" si="41"/>
-        <v>7.84711509661966E-6</v>
+        <v>2.3249486777616275E-4</v>
       </c>
       <c r="W83" s="9">
         <f t="shared" si="42"/>
-        <v>1.2425169427601677E-5</v>
+        <v>3.6669610124878785E-4</v>
       </c>
       <c r="X83" s="6">
         <f t="shared" si="43"/>
-        <v>2.0272284524221337E-5</v>
+        <v>5.9919096902495065E-4</v>
       </c>
       <c r="Y83" s="9">
         <f t="shared" si="44"/>
-        <v>-1.5552537261782886E-7</v>
+        <v>1.1114259785763386E-5</v>
       </c>
       <c r="Z83" s="9">
         <f t="shared" si="45"/>
-        <v>-3.1105074523565772E-7</v>
+        <v>2.2228519571526771E-5</v>
       </c>
       <c r="AA83" s="9">
         <f t="shared" si="46"/>
-        <v>1.1474709836451739E-6</v>
+        <v>1.8269325365554287E-5</v>
       </c>
       <c r="AB83" s="9">
         <f t="shared" si="47"/>
-        <v>2.2949419672903478E-6</v>
+        <v>3.6538650731108573E-5</v>
       </c>
       <c r="AC83" s="9">
         <f t="shared" si="48"/>
-        <v>5.0165247356906938E-4</v>
+        <v>2.7257460140090294E-3</v>
       </c>
       <c r="AD83" s="9">
         <f t="shared" si="49"/>
-        <v>5.0529787771498265E-4</v>
+        <v>2.7456136976395152E-3</v>
       </c>
       <c r="AE83" s="9">
         <f t="shared" si="50"/>
-        <v>6.3122355867295998E-4</v>
+        <v>3.4195146099166985E-3</v>
       </c>
       <c r="AF83" s="9">
         <f t="shared" si="51"/>
-        <v>6.3581052893429111E-4</v>
+        <v>3.4444391018137719E-3</v>
       </c>
     </row>
     <row r="84" spans="2:32" x14ac:dyDescent="0.3">
@@ -17956,111 +17956,111 @@
       </c>
       <c r="F84" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476683066686635</v>
+        <v>0.14497959953986467</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="30"/>
-        <v>0.18953366133373276</v>
+        <v>0.18995919907972911</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="31"/>
-        <v>0.24367667952461647</v>
+        <v>0.24406582592744652</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="32"/>
-        <v>0.28735335904923293</v>
+        <v>0.28813165185489303</v>
       </c>
       <c r="J84" s="9">
         <f t="shared" si="33"/>
-        <v>2.6191707666716593E-2</v>
+        <v>2.6244899884966144E-2</v>
       </c>
       <c r="K84" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654755261617224</v>
+        <v>0.50656084838572679</v>
       </c>
       <c r="L84" s="9">
         <f t="shared" si="34"/>
-        <v>4.0919169881154113E-2</v>
+        <v>4.1016456481861634E-2</v>
       </c>
       <c r="M84" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022836533056182</v>
+        <v>0.51025267677845632</v>
       </c>
       <c r="N84" s="8">
         <f t="shared" si="35"/>
-        <v>-9.0069966363963434E-3</v>
+        <v>5.8313374582272731E-2</v>
       </c>
       <c r="O84" s="8">
         <f t="shared" si="36"/>
-        <v>3.7993417449785453E-2</v>
+        <v>0.10580418227257718</v>
       </c>
       <c r="P84" s="8">
         <f t="shared" si="37"/>
-        <v>-4.8879276337377934E-3</v>
+        <v>7.9663904974808547E-2</v>
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="38"/>
-        <v>4.1409617344756816E-2</v>
+        <v>0.12657733664593065</v>
       </c>
       <c r="R84" s="9">
         <f t="shared" si="39"/>
-        <v>1.4822847176137013E-2</v>
+        <v>8.3526139719568959E-2</v>
       </c>
       <c r="S84" s="9">
         <f t="shared" si="15"/>
-        <v>0.50370564394493078</v>
+        <v>0.5208694031894181</v>
       </c>
       <c r="T84" s="9">
         <f t="shared" si="40"/>
-        <v>1.8652393586544511E-2</v>
+        <v>0.10494104013283284</v>
       </c>
       <c r="U84" s="9">
         <f t="shared" si="17"/>
-        <v>0.50466296320576509</v>
+        <v>0.52621120993504955</v>
       </c>
       <c r="V84" s="9">
         <f t="shared" si="41"/>
-        <v>6.8658985233010809E-6</v>
+        <v>2.1776599474124719E-4</v>
       </c>
       <c r="W84" s="9">
         <f t="shared" si="42"/>
-        <v>1.0871612929159529E-5</v>
+        <v>3.4351376312962014E-4</v>
       </c>
       <c r="X84" s="6">
         <f t="shared" si="43"/>
-        <v>1.773751145246061E-5</v>
+        <v>5.6127975787086733E-4</v>
       </c>
       <c r="Y84" s="9">
         <f t="shared" si="44"/>
-        <v>-1.7548594488571874E-7</v>
+        <v>1.0301957976364663E-5</v>
       </c>
       <c r="Z84" s="9">
         <f t="shared" si="45"/>
-        <v>-3.5097188977143748E-7</v>
+        <v>2.0603915952729325E-5</v>
       </c>
       <c r="AA84" s="9">
         <f t="shared" si="46"/>
-        <v>1.0431244438270958E-6</v>
+        <v>1.7224693176167429E-5</v>
       </c>
       <c r="AB84" s="9">
         <f t="shared" si="47"/>
-        <v>2.0862488876541915E-6</v>
+        <v>3.4449386352334858E-5</v>
       </c>
       <c r="AC84" s="9">
         <f t="shared" si="48"/>
-        <v>4.6924544204441607E-4</v>
+        <v>2.6383013664173813E-3</v>
       </c>
       <c r="AD84" s="9">
         <f t="shared" si="49"/>
-        <v>4.7265520008258233E-4</v>
+        <v>2.6575293741170603E-3</v>
       </c>
       <c r="AE84" s="9">
         <f t="shared" si="50"/>
-        <v>5.9045179218145387E-4</v>
+        <v>3.3102711275231679E-3</v>
       </c>
       <c r="AF84" s="9">
         <f t="shared" si="51"/>
-        <v>5.9474229255534951E-4</v>
+        <v>3.3343964679934542E-3</v>
       </c>
     </row>
     <row r="85" spans="2:32" x14ac:dyDescent="0.3">
@@ -18078,111 +18078,111 @@
       </c>
       <c r="F85" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476718163875613</v>
+        <v>0.14496929758188831</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="30"/>
-        <v>0.1895343632775123</v>
+        <v>0.18993859516377637</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="31"/>
-        <v>0.24367459327572882</v>
+        <v>0.24404860123427036</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="32"/>
-        <v>0.28734918655145764</v>
+        <v>0.2880972024685407</v>
       </c>
       <c r="J85" s="9">
         <f t="shared" si="33"/>
-        <v>2.619179540968904E-2</v>
+        <v>2.6242324395472052E-2</v>
       </c>
       <c r="K85" s="9">
         <f t="shared" si="7"/>
-        <v>0.5065475745481538</v>
+        <v>0.50656020462420359</v>
       </c>
       <c r="L85" s="9">
         <f t="shared" si="34"/>
-        <v>4.0918648318932209E-2</v>
+        <v>4.1012150308567592E-2</v>
       </c>
       <c r="M85" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022823499457115</v>
+        <v>0.51025160068773889</v>
       </c>
       <c r="N85" s="8">
         <f t="shared" si="35"/>
-        <v>-9.9454875204851752E-3</v>
+        <v>5.5675073215855353E-2</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="36"/>
-        <v>3.7048107049620291E-2</v>
+        <v>0.10314665289846012</v>
       </c>
       <c r="P85" s="8">
         <f t="shared" si="37"/>
-        <v>-6.0688312181007009E-3</v>
+        <v>7.6353633847285385E-2</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="38"/>
-        <v>4.0220132759646116E-2</v>
+        <v>0.1232429401779372</v>
       </c>
       <c r="R85" s="9">
         <f t="shared" si="39"/>
-        <v>1.3865127688616993E-2</v>
+        <v>8.0833521227713076E-2</v>
       </c>
       <c r="S85" s="9">
         <f t="shared" si="15"/>
-        <v>0.5034662263928753</v>
+        <v>0.52019738393095805</v>
       </c>
       <c r="T85" s="9">
         <f t="shared" si="40"/>
-        <v>1.7447295615330542E-2</v>
+        <v>0.10156261988473811</v>
       </c>
       <c r="U85" s="9">
         <f t="shared" si="17"/>
-        <v>0.50436171325931467</v>
+        <v>0.5253688521490617</v>
       </c>
       <c r="V85" s="9">
         <f t="shared" si="41"/>
-        <v>6.0073627033326724E-6</v>
+        <v>2.0396715882726115E-4</v>
       </c>
       <c r="W85" s="9">
         <f t="shared" si="42"/>
-        <v>9.5122712782407019E-6</v>
+        <v>3.2178932968047634E-4</v>
       </c>
       <c r="X85" s="6">
         <f t="shared" si="43"/>
-        <v>1.5519633981573373E-5</v>
+        <v>5.2575648850773746E-4</v>
       </c>
       <c r="Y85" s="9">
         <f t="shared" si="44"/>
-        <v>-1.9040528633053443E-7</v>
+        <v>9.5442115580260588E-6</v>
       </c>
       <c r="Z85" s="9">
         <f t="shared" si="45"/>
-        <v>-3.8081057266106887E-7</v>
+        <v>1.9088423116052118E-5</v>
       </c>
       <c r="AA85" s="9">
         <f t="shared" si="46"/>
-        <v>9.4929434499970066E-7</v>
+        <v>1.6242129810432268E-5</v>
       </c>
       <c r="AB85" s="9">
         <f t="shared" si="47"/>
-        <v>1.8985886899994013E-6</v>
+        <v>3.2484259620864537E-5</v>
       </c>
       <c r="AC85" s="9">
         <f t="shared" si="48"/>
-        <v>4.3893104747858442E-4</v>
+        <v>2.5536240803412736E-3</v>
       </c>
       <c r="AD85" s="9">
         <f t="shared" si="49"/>
-        <v>4.4212039479033503E-4</v>
+        <v>2.5722328020526719E-3</v>
       </c>
       <c r="AE85" s="9">
         <f t="shared" si="50"/>
-        <v>5.5231178498021786E-4</v>
+        <v>3.2044422005106142E-3</v>
       </c>
       <c r="AF85" s="9">
         <f t="shared" si="51"/>
-        <v>5.5632497592853142E-4</v>
+        <v>3.2277935518738084E-3</v>
       </c>
     </row>
     <row r="86" spans="2:32" x14ac:dyDescent="0.3">
@@ -18200,111 +18200,111 @@
       </c>
       <c r="F86" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476756244932878</v>
+        <v>0.14495975337033029</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="30"/>
-        <v>0.18953512489865762</v>
+        <v>0.18991950674066033</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="31"/>
-        <v>0.24367269468703884</v>
+        <v>0.24403235910445992</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="32"/>
-        <v>0.28734538937407766</v>
+        <v>0.28806471820891982</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="33"/>
-        <v>2.6191890612332205E-2</v>
+        <v>2.6239938342582547E-2</v>
       </c>
       <c r="K86" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654759834473306</v>
+        <v>0.50655960821365875</v>
       </c>
       <c r="L86" s="9">
         <f t="shared" si="34"/>
-        <v>4.0918173671759706E-2</v>
+        <v>4.1008089776114975E-2</v>
       </c>
       <c r="M86" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022811638243359</v>
+        <v>0.51025058598132644</v>
       </c>
       <c r="N86" s="8">
         <f t="shared" si="35"/>
-        <v>-1.0823349615442344E-2</v>
+        <v>5.312144913551408E-2</v>
       </c>
       <c r="O86" s="8">
         <f t="shared" si="36"/>
-        <v>3.6163866260039618E-2</v>
+        <v>0.10057442009640745</v>
       </c>
       <c r="P86" s="8">
         <f t="shared" si="37"/>
-        <v>-7.1734547880611364E-3</v>
+        <v>7.3149191646774775E-2</v>
       </c>
       <c r="Q86" s="8">
         <f t="shared" si="38"/>
-        <v>3.910748280778905E-2</v>
+        <v>0.1200151466260634</v>
       </c>
       <c r="R86" s="9">
         <f t="shared" si="39"/>
-        <v>1.2969279609218547E-2</v>
+        <v>7.8227337250751802E-2</v>
       </c>
       <c r="S86" s="9">
         <f t="shared" si="15"/>
-        <v>0.50324227445595371</v>
+        <v>0.51954686721484</v>
       </c>
       <c r="T86" s="9">
         <f t="shared" si="40"/>
-        <v>1.6320040994749718E-2</v>
+        <v>9.8292224754319729E-2</v>
       </c>
       <c r="U86" s="9">
         <f t="shared" si="17"/>
-        <v>0.5040799196940009</v>
+        <v>0.52455329118590222</v>
       </c>
       <c r="V86" s="9">
         <f t="shared" si="41"/>
-        <v>5.2561718238649584E-6</v>
+        <v>1.9104000895729347E-4</v>
       </c>
       <c r="W86" s="9">
         <f t="shared" si="42"/>
-        <v>8.3228723547481976E-6</v>
+        <v>3.0143205402985169E-4</v>
       </c>
       <c r="X86" s="6">
         <f t="shared" si="43"/>
-        <v>1.3579044178613157E-5</v>
+        <v>4.9247206298714511E-4</v>
       </c>
       <c r="Y86" s="9">
         <f t="shared" si="44"/>
-        <v>-2.0107790350050935E-7</v>
+        <v>8.8375201388196819E-6</v>
       </c>
       <c r="Z86" s="9">
         <f t="shared" si="45"/>
-        <v>-4.021558070010187E-7</v>
+        <v>1.7675040277639364E-5</v>
       </c>
       <c r="AA86" s="9">
         <f t="shared" si="46"/>
-        <v>8.6482984179866345E-7</v>
+        <v>1.5317897904265127E-5</v>
       </c>
       <c r="AB86" s="9">
         <f t="shared" si="47"/>
-        <v>1.7296596835973269E-6</v>
+        <v>3.0635795808530253E-5</v>
       </c>
       <c r="AC86" s="9">
         <f t="shared" si="48"/>
-        <v>4.1057431959010745E-4</v>
+        <v>2.4716301256306901E-3</v>
       </c>
       <c r="AD86" s="9">
         <f t="shared" si="49"/>
-        <v>4.1355750654826497E-4</v>
+        <v>2.4896393227630299E-3</v>
       </c>
       <c r="AE86" s="9">
         <f t="shared" si="50"/>
-        <v>5.1663397928903112E-4</v>
+        <v>3.1019281446007861E-3</v>
       </c>
       <c r="AF86" s="9">
         <f t="shared" si="51"/>
-        <v>5.2038778383943442E-4</v>
+        <v>3.1245299226205512E-3</v>
       </c>
     </row>
     <row r="87" spans="2:32" x14ac:dyDescent="0.3">
@@ -18322,111 +18322,111 @@
       </c>
       <c r="F87" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476796460513577</v>
+        <v>0.14495091585019146</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="30"/>
-        <v>0.18953592921027163</v>
+        <v>0.18990183170038269</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="31"/>
-        <v>0.24367096502735525</v>
+        <v>0.24401704120655565</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="32"/>
-        <v>0.28734193005471048</v>
+        <v>0.28803408241311129</v>
       </c>
       <c r="J87" s="9">
         <f t="shared" si="33"/>
-        <v>2.6191991151283952E-2</v>
+        <v>2.6237728962547842E-2</v>
       </c>
       <c r="K87" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654762347516091</v>
+        <v>0.50655905596370832</v>
       </c>
       <c r="L87" s="9">
         <f t="shared" si="34"/>
-        <v>4.0917741256838808E-2</v>
+        <v>4.1004260301638909E-2</v>
       </c>
       <c r="M87" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022800832393966</v>
+        <v>0.51024962901505</v>
       </c>
       <c r="N87" s="8">
         <f t="shared" si="35"/>
-        <v>-1.1644498254622559E-2</v>
+        <v>5.0649819009883391E-2</v>
       </c>
       <c r="O87" s="8">
         <f t="shared" si="36"/>
-        <v>3.5336751246943091E-2</v>
+        <v>9.8084780773644423E-2</v>
       </c>
       <c r="P87" s="8">
         <f t="shared" si="37"/>
-        <v>-8.206722746639198E-3</v>
+        <v>7.0047263502173995E-2</v>
       </c>
       <c r="Q87" s="8">
         <f t="shared" si="38"/>
-        <v>3.806670724011018E-2</v>
+        <v>0.11689061670344285</v>
       </c>
       <c r="R87" s="9">
         <f t="shared" si="39"/>
-        <v>1.213130729192655E-2</v>
+        <v>7.5704847504153794E-2</v>
       </c>
       <c r="S87" s="9">
         <f t="shared" si="15"/>
-        <v>0.50303278962878495</v>
+        <v>0.51891717785705882</v>
       </c>
       <c r="T87" s="9">
         <f t="shared" si="40"/>
-        <v>1.5265604314742281E-2</v>
+        <v>9.5126469480774495E-2</v>
       </c>
       <c r="U87" s="9">
         <f t="shared" si="17"/>
-        <v>0.50381632696632506</v>
+        <v>0.52376370017250429</v>
       </c>
       <c r="V87" s="9">
         <f t="shared" si="41"/>
-        <v>4.5989064662327736E-6</v>
+        <v>1.7892980903779827E-4</v>
       </c>
       <c r="W87" s="9">
         <f t="shared" si="42"/>
-        <v>7.2821757569499043E-6</v>
+        <v>2.8235672294434013E-4</v>
       </c>
       <c r="X87" s="6">
         <f t="shared" si="43"/>
-        <v>1.1881082223182678E-5</v>
+        <v>4.612865319821384E-4</v>
       </c>
       <c r="Y87" s="9">
         <f t="shared" si="44"/>
-        <v>-2.081884393689182E-7</v>
+        <v>8.1785992807973094E-6</v>
       </c>
       <c r="Z87" s="9">
         <f t="shared" si="45"/>
-        <v>-4.163768787378364E-7</v>
+        <v>1.6357198561594619E-5</v>
       </c>
       <c r="AA87" s="9">
         <f t="shared" si="46"/>
-        <v>7.8871324839834747E-7</v>
+        <v>1.4448482757868165E-5</v>
       </c>
       <c r="AB87" s="9">
         <f t="shared" si="47"/>
-        <v>1.5774264967966949E-6</v>
+        <v>2.8896965515736331E-5</v>
       </c>
       <c r="AC87" s="9">
         <f t="shared" si="48"/>
-        <v>3.8404896457828406E-4</v>
+        <v>2.3922376893687381E-3</v>
       </c>
       <c r="AD87" s="9">
         <f t="shared" si="49"/>
-        <v>3.8683932016366049E-4</v>
+        <v>2.4096665120200119E-3</v>
       </c>
       <c r="AE87" s="9">
         <f t="shared" si="50"/>
-        <v>4.8325968370316536E-4</v>
+        <v>3.0026315204525864E-3</v>
       </c>
       <c r="AF87" s="9">
         <f t="shared" si="51"/>
-        <v>4.8677086712502177E-4</v>
+        <v>3.0245074120036899E-3</v>
       </c>
     </row>
     <row r="88" spans="2:32" x14ac:dyDescent="0.3">
@@ -18444,111 +18444,111 @@
       </c>
       <c r="F88" s="8">
         <f t="shared" si="29"/>
-        <v>0.1447683809820145</v>
+        <v>0.14494273725091067</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="30"/>
-        <v>0.1895367619640291</v>
+        <v>0.18988547450182108</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="31"/>
-        <v>0.24366938760085846</v>
+        <v>0.24400259272379779</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="32"/>
-        <v>0.28733877520171691</v>
+        <v>0.28800518544759557</v>
       </c>
       <c r="J88" s="9">
         <f t="shared" si="33"/>
-        <v>2.6192095245503637E-2</v>
+        <v>2.6235684312727641E-2</v>
       </c>
       <c r="K88" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654764949425313</v>
+        <v>0.50655854488920971</v>
       </c>
       <c r="L88" s="9">
         <f t="shared" si="34"/>
-        <v>4.0917346900214618E-2</v>
+        <v>4.1000648180949451E-2</v>
       </c>
       <c r="M88" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022790977603771</v>
+        <v>0.51024872636431529</v>
       </c>
       <c r="N88" s="8">
         <f t="shared" si="35"/>
-        <v>-1.2412596183779127E-2</v>
+        <v>4.825758132051465E-2</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="36"/>
-        <v>3.4563072606615772E-2</v>
+        <v>9.5675114261624408E-2</v>
       </c>
       <c r="P88" s="8">
         <f t="shared" si="37"/>
-        <v>-9.1732421140455281E-3</v>
+        <v>6.7044631981721406E-2</v>
       </c>
       <c r="Q88" s="8">
         <f t="shared" si="38"/>
-        <v>3.7093165505860136E-2</v>
+        <v>0.11386610929143916</v>
       </c>
       <c r="R88" s="9">
         <f t="shared" si="39"/>
-        <v>1.1347472870496339E-2</v>
+        <v>7.326339537034679E-2</v>
       </c>
       <c r="S88" s="9">
         <f t="shared" si="15"/>
-        <v>0.50283683777720489</v>
+        <v>0.51830766067271172</v>
       </c>
       <c r="T88" s="9">
         <f t="shared" si="40"/>
-        <v>1.4279284071920185E-2</v>
+        <v>9.2062068461310126E-2</v>
       </c>
       <c r="U88" s="9">
         <f t="shared" si="17"/>
-        <v>0.5035697603626168</v>
+        <v>0.52299927535772806</v>
       </c>
       <c r="V88" s="9">
         <f t="shared" si="41"/>
-        <v>4.0238242870883972E-6</v>
+        <v>1.6758521965357773E-4</v>
       </c>
       <c r="W88" s="9">
         <f t="shared" si="42"/>
-        <v>6.3715945232550237E-6</v>
+        <v>2.6448333349029845E-4</v>
       </c>
       <c r="X88" s="6">
         <f t="shared" si="43"/>
-        <v>1.0395418810343422E-5</v>
+        <v>4.3206855314387616E-4</v>
       </c>
       <c r="Y88" s="9">
         <f t="shared" si="44"/>
-        <v>-2.1232606757143142E-7</v>
+        <v>7.5643679095720042E-6</v>
       </c>
       <c r="Z88" s="9">
         <f t="shared" si="45"/>
-        <v>-4.2465213514286285E-7</v>
+        <v>1.5128735819144008E-5</v>
       </c>
       <c r="AA88" s="9">
         <f t="shared" si="46"/>
-        <v>7.2004411396853858E-7</v>
+        <v>1.3630579641637207E-5</v>
       </c>
       <c r="AB88" s="9">
         <f t="shared" si="47"/>
-        <v>1.4400882279370772E-6</v>
+        <v>2.7261159283274415E-5</v>
       </c>
       <c r="AC88" s="9">
         <f t="shared" si="48"/>
-        <v>3.592368125911539E-4</v>
+        <v>2.3153671498826593E-3</v>
       </c>
       <c r="AD88" s="9">
         <f t="shared" si="49"/>
-        <v>3.6184680392060557E-4</v>
+        <v>2.3322341538070208E-3</v>
       </c>
       <c r="AE88" s="9">
         <f t="shared" si="50"/>
-        <v>4.5204038731631348E-4</v>
+        <v>2.9064571493912414E-3</v>
       </c>
       <c r="AF88" s="9">
         <f t="shared" si="51"/>
-        <v>4.553246317202975E-4</v>
+        <v>2.9276301301633207E-3</v>
       </c>
     </row>
     <row r="89" spans="2:32" x14ac:dyDescent="0.3">
@@ -18566,111 +18566,111 @@
       </c>
       <c r="F89" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476880563414965</v>
+        <v>0.14493517288300109</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="30"/>
-        <v>0.18953761126829938</v>
+        <v>0.18987034576600195</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="31"/>
-        <v>0.24366794751263052</v>
+        <v>0.24398896214415616</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="32"/>
-        <v>0.28733589502526102</v>
+        <v>0.28797792428831231</v>
       </c>
       <c r="J89" s="9">
         <f t="shared" si="33"/>
-        <v>2.6192201408537421E-2</v>
+        <v>2.6233793220750253E-2</v>
       </c>
       <c r="K89" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654767603046014</v>
+        <v>0.50655807219755389</v>
       </c>
       <c r="L89" s="9">
         <f t="shared" si="34"/>
-        <v>4.0916986878157632E-2</v>
+        <v>4.0997240536039044E-2</v>
       </c>
       <c r="M89" s="9">
         <f t="shared" si="9"/>
-        <v>0.5102278198081851</v>
+        <v>0.51024787481098455</v>
       </c>
       <c r="N89" s="8">
         <f t="shared" si="35"/>
-        <v>-1.3131069808961435E-2</v>
+        <v>4.594221417063199E-2</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="36"/>
-        <v>3.3839378998774559E-2</v>
+        <v>9.3342880107817383E-2</v>
       </c>
       <c r="P89" s="8">
         <f t="shared" si="37"/>
-        <v>-1.0077322888678155E-2</v>
+        <v>6.4138174832330169E-2</v>
       </c>
       <c r="Q89" s="8">
         <f t="shared" si="38"/>
-        <v>3.6182516242419541E-2</v>
+        <v>0.11093847916127583</v>
       </c>
       <c r="R89" s="9">
         <f t="shared" si="39"/>
-        <v>1.0614279674684476E-2</v>
+        <v>7.0900405646512829E-2</v>
       </c>
       <c r="S89" s="9">
         <f t="shared" si="15"/>
-        <v>0.50265354500570425</v>
+        <v>0.5177176799975366</v>
       </c>
       <c r="T89" s="9">
         <f t="shared" si="40"/>
-        <v>1.3356681887675486E-2</v>
+        <v>8.9095833424138529E-2</v>
       </c>
       <c r="U89" s="9">
         <f t="shared" si="17"/>
-        <v>0.50333912083020549</v>
+        <v>0.52225923569406685</v>
       </c>
       <c r="V89" s="9">
         <f t="shared" si="41"/>
-        <v>3.5206505486489833E-6</v>
+        <v>1.5695809224755417E-4</v>
       </c>
       <c r="W89" s="9">
         <f t="shared" si="42"/>
-        <v>5.574863959356096E-6</v>
+        <v>2.4773678684200982E-4</v>
       </c>
       <c r="X89" s="6">
         <f t="shared" si="43"/>
-        <v>9.0955145080050789E-6</v>
+        <v>4.0469487908956399E-4</v>
       </c>
       <c r="Y89" s="9">
         <f t="shared" si="44"/>
-        <v>-2.1399705000734492E-7</v>
+        <v>6.9919363762823641E-6</v>
       </c>
       <c r="Z89" s="9">
         <f t="shared" si="45"/>
-        <v>-4.2799410001468983E-7</v>
+        <v>1.3983872752564728E-5</v>
       </c>
       <c r="AA89" s="9">
         <f t="shared" si="46"/>
-        <v>6.5802523516249083E-7</v>
+        <v>1.2861081745883289E-5</v>
       </c>
       <c r="AB89" s="9">
         <f t="shared" si="47"/>
-        <v>1.3160504703249817E-6</v>
+        <v>2.5722163491766578E-5</v>
       </c>
       <c r="AC89" s="9">
         <f t="shared" si="48"/>
-        <v>3.3602729942629092E-4</v>
+        <v>2.240941047467779E-3</v>
       </c>
       <c r="AD89" s="9">
         <f t="shared" si="49"/>
-        <v>3.3846858745039201E-4</v>
+        <v>2.257264210767931E-3</v>
       </c>
       <c r="AE89" s="9">
         <f t="shared" si="50"/>
-        <v>4.2283711521513129E-4</v>
+        <v>2.8133121208357803E-3</v>
       </c>
       <c r="AF89" s="9">
         <f t="shared" si="51"/>
-        <v>4.2590908938890397E-4</v>
+        <v>2.8338044730172843E-3</v>
       </c>
     </row>
     <row r="90" spans="2:32" x14ac:dyDescent="0.3">
@@ -18688,111 +18688,111 @@
       </c>
       <c r="F90" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476923362824967</v>
+        <v>0.1449281809466248</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="30"/>
-        <v>0.18953846725649939</v>
+        <v>0.18985636189324939</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="31"/>
-        <v>0.24366663146216019</v>
+        <v>0.24397610106241027</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="32"/>
-        <v>0.28733326292432038</v>
+        <v>0.28795220212482053</v>
       </c>
       <c r="J90" s="9">
         <f t="shared" si="33"/>
-        <v>2.6192308407062423E-2</v>
+        <v>2.6232045236656183E-2</v>
       </c>
       <c r="K90" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654770277550409</v>
+        <v>0.50655763527670317</v>
       </c>
       <c r="L90" s="9">
         <f t="shared" si="34"/>
-        <v>4.0916657865540051E-2</v>
+        <v>4.0994025265602571E-2</v>
       </c>
       <c r="M90" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022773758944795</v>
+        <v>0.51024707133101332</v>
       </c>
       <c r="N90" s="8">
         <f t="shared" si="35"/>
-        <v>-1.3803124407814017E-2</v>
+        <v>4.3701273123164214E-2</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="36"/>
-        <v>3.3162441823873776E-2</v>
+        <v>9.1085615897049457E-2</v>
       </c>
       <c r="P90" s="8">
         <f t="shared" si="37"/>
-        <v>-1.0922997119108418E-2</v>
+        <v>6.1324862711494392E-2</v>
       </c>
       <c r="Q90" s="8">
         <f t="shared" si="38"/>
-        <v>3.5330698063641731E-2</v>
+        <v>0.10810467468825855</v>
       </c>
       <c r="R90" s="9">
         <f t="shared" si="39"/>
-        <v>9.9284567048341238E-3</v>
+        <v>6.8613382323702482E-2</v>
       </c>
       <c r="S90" s="9">
         <f t="shared" si="15"/>
-        <v>0.50248209378703035</v>
+        <v>0.51714661920956939</v>
       </c>
       <c r="T90" s="9">
         <f t="shared" si="40"/>
-        <v>1.2493683042359992E-2</v>
+        <v>8.6224671095678912E-2</v>
       </c>
       <c r="U90" s="9">
         <f t="shared" si="17"/>
-        <v>0.50312338013277791</v>
+        <v>0.52154282240327521</v>
       </c>
       <c r="V90" s="9">
         <f t="shared" si="41"/>
-        <v>3.0803947838073283E-6</v>
+        <v>1.4700327515898703E-4</v>
       </c>
       <c r="W90" s="9">
         <f t="shared" si="42"/>
-        <v>4.8777517269158736E-6</v>
+        <v>2.320465985495281E-4</v>
       </c>
       <c r="X90" s="6">
         <f t="shared" si="43"/>
-        <v>7.9581465107232014E-6</v>
+        <v>3.7904987370851516E-4</v>
       </c>
       <c r="Y90" s="9">
         <f t="shared" si="44"/>
-        <v>-2.1363568845309148E-7</v>
+        <v>6.4585951483934392E-6</v>
       </c>
       <c r="Z90" s="9">
         <f t="shared" si="45"/>
-        <v>-4.2727137690618295E-7</v>
+        <v>1.2917190296786878E-5</v>
       </c>
       <c r="AA90" s="9">
         <f t="shared" si="46"/>
-        <v>6.0195036860740169E-7</v>
+        <v>1.2137068752257242E-5</v>
       </c>
       <c r="AB90" s="9">
         <f t="shared" si="47"/>
-        <v>1.2039007372148034E-6</v>
+        <v>2.4274137504514483E-5</v>
       </c>
       <c r="AC90" s="9">
         <f t="shared" si="48"/>
-        <v>3.1431698051941076E-4</v>
+        <v>2.1688840522943028E-3</v>
       </c>
       <c r="AD90" s="9">
         <f t="shared" si="49"/>
-        <v>3.1660047213251516E-4</v>
+        <v>2.1846807918218434E-3</v>
       </c>
       <c r="AE90" s="9">
         <f t="shared" si="50"/>
-        <v>3.9551982320603079E-4</v>
+        <v>2.7231057923524015E-3</v>
       </c>
       <c r="AF90" s="9">
         <f t="shared" si="51"/>
-        <v>3.9839324798128474E-4</v>
+        <v>2.742939122244898E-3</v>
       </c>
     </row>
     <row r="91" spans="2:32" x14ac:dyDescent="0.3">
@@ -18810,111 +18810,111 @@
       </c>
       <c r="F91" s="8">
         <f t="shared" si="29"/>
-        <v>0.14476966089962659</v>
+        <v>0.14492172235147641</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="30"/>
-        <v>0.1895393217992532</v>
+        <v>0.18984344470295261</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="31"/>
-        <v>0.24366542756142298</v>
+        <v>0.24396396399365802</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="32"/>
-        <v>0.28733085512284595</v>
+        <v>0.28792792798731603</v>
       </c>
       <c r="J91" s="9">
         <f t="shared" si="33"/>
-        <v>2.6192415224906652E-2</v>
+        <v>2.6230430587869082E-2</v>
       </c>
       <c r="K91" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654772947538562</v>
+        <v>0.50655723168393629</v>
       </c>
       <c r="L91" s="9">
         <f t="shared" si="34"/>
-        <v>4.0916356890355748E-2</v>
+        <v>4.0990990998414509E-2</v>
       </c>
       <c r="M91" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022766237713557</v>
+        <v>0.51024631308279833</v>
       </c>
       <c r="N91" s="8">
         <f t="shared" si="35"/>
-        <v>-1.4431758368852838E-2</v>
+        <v>4.153238907086991E-2</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="36"/>
-        <v>3.2529240879608748E-2</v>
+        <v>8.8900935105227619E-2</v>
       </c>
       <c r="P91" s="8">
         <f t="shared" si="37"/>
-        <v>-1.1714036765520479E-2</v>
+        <v>5.860175691914199E-2</v>
       </c>
       <c r="Q91" s="8">
         <f t="shared" si="38"/>
-        <v>3.4533911567679161E-2</v>
+        <v>0.10536173556601365</v>
       </c>
       <c r="R91" s="9">
         <f t="shared" si="39"/>
-        <v>9.286944098825729E-3</v>
+        <v>6.6399906400015543E-2</v>
       </c>
       <c r="S91" s="9">
         <f t="shared" si="15"/>
-        <v>0.50232171933788916</v>
+        <v>0.51659388025229658</v>
       </c>
       <c r="T91" s="9">
         <f t="shared" si="40"/>
-        <v>1.1686438245350071E-2</v>
+        <v>8.3445580869338731E-2</v>
       </c>
       <c r="U91" s="9">
         <f t="shared" si="17"/>
-        <v>0.50292157631074896</v>
+        <v>0.5208492985290275</v>
       </c>
       <c r="V91" s="9">
         <f t="shared" si="41"/>
-        <v>2.695190341964242E-6</v>
+        <v>1.3767843091377918E-4</v>
       </c>
       <c r="W91" s="9">
         <f t="shared" si="42"/>
-        <v>4.2678040697647618E-6</v>
+        <v>2.1734662457625423E-4</v>
       </c>
       <c r="X91" s="6">
         <f t="shared" si="43"/>
-        <v>6.9629944117290034E-6</v>
+        <v>3.5502505549003338E-4</v>
       </c>
       <c r="Y91" s="9">
         <f t="shared" si="44"/>
-        <v>-2.1161387226387439E-7</v>
+        <v>5.9618041051903158E-6</v>
       </c>
       <c r="Z91" s="9">
         <f t="shared" si="45"/>
-        <v>-4.2322774452774878E-7</v>
+        <v>1.1923608210380632E-5</v>
       </c>
       <c r="AA91" s="9">
         <f t="shared" si="46"/>
-        <v>5.511934352836541E-7</v>
+        <v>1.1455796004017974E-5</v>
       </c>
       <c r="AB91" s="9">
         <f t="shared" si="47"/>
-        <v>1.1023868705673082E-6</v>
+        <v>2.2911592008035948E-5</v>
       </c>
       <c r="AC91" s="9">
         <f t="shared" si="48"/>
-        <v>2.9400907535166233E-4</v>
+        <v>2.0991229299212387E-3</v>
       </c>
       <c r="AD91" s="9">
         <f t="shared" si="49"/>
-        <v>2.9614497214251392E-4</v>
+        <v>2.1144101173708276E-3</v>
       </c>
       <c r="AE91" s="9">
         <f t="shared" si="50"/>
-        <v>3.6996682967592215E-4</v>
+        <v>2.6357497831798128E-3</v>
       </c>
       <c r="AF91" s="9">
         <f t="shared" si="51"/>
-        <v>3.726545391055756E-4</v>
+        <v>2.6549450386988381E-3</v>
       </c>
     </row>
     <row r="92" spans="2:32" x14ac:dyDescent="0.3">
@@ -18932,111 +18932,111 @@
       </c>
       <c r="F92" s="8">
         <f t="shared" ref="F92:F100" si="52">F91-($J$31*Y91)</f>
-        <v>0.14477008412737111</v>
+        <v>0.14491576054737121</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" ref="G92:G100" si="53">G91-($J$31*Z91)</f>
-        <v>0.18954016825474226</v>
+        <v>0.18983152109474224</v>
       </c>
       <c r="H92" s="8">
         <f t="shared" ref="H92:H100" si="54">H91-($J$31*AA91)</f>
-        <v>0.24366432517455242</v>
+        <v>0.24395250819765402</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" ref="I92:I100" si="55">I91-($J$31*AB91)</f>
-        <v>0.28732865034910482</v>
+        <v>0.28790501639530802</v>
       </c>
       <c r="J92" s="9">
         <f t="shared" ref="J92:J100" si="56">(D92*F92)+(E92*G92)</f>
-        <v>2.6192521031842782E-2</v>
+        <v>2.6228940136842786E-2</v>
       </c>
       <c r="K92" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654775592258339</v>
+        <v>0.50655685913526138</v>
       </c>
       <c r="L92" s="9">
         <f t="shared" ref="L92:L100" si="57">(D92*H92)+(E92*I92)</f>
-        <v>4.0916081293638107E-2</v>
+        <v>4.09881270494135E-2</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022759350678482</v>
+        <v>0.51024559739620423</v>
       </c>
       <c r="N92" s="8">
         <f t="shared" ref="N92:N100" si="58">N91-($J$31*AC91)</f>
-        <v>-1.5019776519556162E-2</v>
+        <v>3.9433266140948671E-2</v>
       </c>
       <c r="O92" s="8">
         <f t="shared" ref="O92:O100" si="59">O91-($J$31*AD91)</f>
-        <v>3.193695093532372E-2</v>
+        <v>8.6786524987856786E-2</v>
       </c>
       <c r="P92" s="8">
         <f t="shared" ref="P92:P100" si="60">P91-($J$31*AE91)</f>
-        <v>-1.2453970424872323E-2</v>
+        <v>5.5966007135962177E-2</v>
       </c>
       <c r="Q92" s="8">
         <f t="shared" ref="Q92:Q100" si="61">Q91-($J$31*AF91)</f>
-        <v>3.3788602489468009E-2</v>
+        <v>0.10270679052731481</v>
       </c>
       <c r="R92" s="9">
         <f t="shared" ref="R92:R100" si="62">(K92*N92)+(M92*O92)</f>
-        <v>8.6868795292345986E-3</v>
+        <v>6.4257633730173402E-2</v>
       </c>
       <c r="S92" s="9">
         <f t="shared" si="15"/>
-        <v>0.50217170622557372</v>
+        <v>0.51605888316051596</v>
       </c>
       <c r="T92" s="9">
         <f t="shared" ref="T92:T100" si="63">(K92*P92)+(M92*Q92)</f>
-        <v>1.0931346565113322E-2</v>
+        <v>8.075565248239118E-2</v>
       </c>
       <c r="U92" s="9">
         <f t="shared" si="17"/>
-        <v>0.50273280942839482</v>
+        <v>0.5201779484794038</v>
       </c>
       <c r="V92" s="9">
         <f t="shared" ref="V92:V100" si="64">0.5*(B92-S92)^2</f>
-        <v>2.3581539650978305E-6</v>
+        <v>1.289438641815515E-4</v>
       </c>
       <c r="W92" s="9">
         <f t="shared" ref="W92:W100" si="65">0.5*(C92-U92)^2</f>
-        <v>3.7341236859618176E-6</v>
+        <v>2.0357480241873696E-4</v>
       </c>
       <c r="X92" s="6">
         <f t="shared" ref="X92:X100" si="66">V92+W92</f>
-        <v>6.0922776510596485E-6</v>
+        <v>3.3251866660028849E-4</v>
       </c>
       <c r="Y92" s="9">
         <f t="shared" ref="Y92:Y100" si="67">((S92-B92)*S92*(1-S92)*N92 + (U92-C92)*U92*(1-U92)*P92)*K92*(1-K92)*D92</f>
-        <v>-2.082493991438453E-7</v>
+        <v>5.4991824134971002E-6</v>
       </c>
       <c r="Z92" s="9">
         <f t="shared" ref="Z92:Z100" si="68">((S92-B92)*S92*(1-S92)*N92 + (U92-C92)*U92*(1-U92)*P92)*K92*(1-K92)*E92</f>
-        <v>-4.164987982876906E-7</v>
+        <v>1.09983648269942E-5</v>
       </c>
       <c r="AA92" s="9">
         <f t="shared" ref="AA92:AA100" si="69">((S92-B92)*S92*(1-S92)*O92 + (U92-C92)*U92*(1-U92)*Q92)*K92*(1-K92)*D92</f>
-        <v>5.0519903411855522E-7</v>
+        <v>1.0814684251825343E-5</v>
       </c>
       <c r="AB92" s="9">
         <f t="shared" ref="AB92:AB100" si="70">((S92-B92)*S92*(1-S92)*O92 + (U92-C92)*U92*(1-U92)*Q92)*K92*(1-K92)*E92</f>
-        <v>1.0103980682371104E-6</v>
+        <v>2.1629368503650685E-5</v>
       </c>
       <c r="AC92" s="9">
         <f t="shared" ref="AC92:AC100" si="71">(S92-B92)*S92*(1-S92)*K92</f>
-        <v>2.7501304048925491E-4</v>
+        <v>2.0315865047999884E-3</v>
       </c>
       <c r="AD92" s="9">
         <f t="shared" ref="AD92:AD100" si="72">(S92-B92)*S92*(1-S92)*M92</f>
-        <v>2.770108843464342E-4</v>
+        <v>2.0463804824858572E-3</v>
       </c>
       <c r="AE92" s="9">
         <f t="shared" ref="AE92:AE100" si="73" xml:space="preserve"> (U92-C92)*U92*(1-U92)*K92</f>
-        <v>3.4606428254585871E-4</v>
+        <v>2.5511579619976665E-3</v>
       </c>
       <c r="AF92" s="9">
         <f t="shared" ref="AF92:AF100" si="74" xml:space="preserve"> (U92-C92)*U92*(1-U92)*M92</f>
-        <v>3.4857828115422799E-4</v>
+        <v>2.5697354500218033E-3</v>
       </c>
     </row>
     <row r="93" spans="2:32" x14ac:dyDescent="0.3">
@@ -19054,111 +19054,111 @@
       </c>
       <c r="F93" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477050062616939</v>
+        <v>0.14491026136495772</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954100125233883</v>
+        <v>0.18982052272991526</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="54"/>
-        <v>0.24366331477648417</v>
+        <v>0.2439416935134022</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="55"/>
-        <v>0.28732662955296834</v>
+        <v>0.28788338702680438</v>
       </c>
       <c r="J93" s="9">
         <f t="shared" si="56"/>
-        <v>2.6192625156542353E-2</v>
+        <v>2.6227565341239413E-2</v>
       </c>
       <c r="K93" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654778194929406</v>
+        <v>0.50655651549546321</v>
       </c>
       <c r="L93" s="9">
         <f t="shared" si="57"/>
-        <v>4.091582869412104E-2</v>
+        <v>4.0985423378350552E-2</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022753038332824</v>
+        <v>0.51024492176223024</v>
       </c>
       <c r="N93" s="8">
         <f t="shared" si="58"/>
-        <v>-1.5569802600534671E-2</v>
+        <v>3.7401679636148683E-2</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="59"/>
-        <v>3.1382929166630852E-2</v>
+        <v>8.4740144505370929E-2</v>
       </c>
       <c r="P93" s="8">
         <f t="shared" si="60"/>
-        <v>-1.314609898996404E-2</v>
+        <v>5.341484917396451E-2</v>
       </c>
       <c r="Q93" s="8">
         <f t="shared" si="61"/>
-        <v>3.3091445927159555E-2</v>
+        <v>0.10013705507729301</v>
       </c>
       <c r="R93" s="9">
         <f t="shared" si="62"/>
-        <v>8.125585472195794E-3</v>
+        <v>6.2184292913428169E-2</v>
       </c>
       <c r="S93" s="9">
         <f t="shared" si="15"/>
-        <v>0.50203138519118706</v>
+        <v>0.51554106558996537</v>
       </c>
       <c r="T93" s="9">
         <f t="shared" si="63"/>
-        <v>1.0225039447575926E-2</v>
+        <v>7.8152063706692698E-2</v>
       </c>
       <c r="U93" s="9">
         <f t="shared" si="17"/>
-        <v>0.50255623759040779</v>
+        <v>0.51952807756170483</v>
       </c>
       <c r="V93" s="9">
         <f t="shared" si="64"/>
-        <v>2.0632628974870501E-6</v>
+        <v>1.2076235983580291E-4</v>
       </c>
       <c r="W93" s="9">
         <f t="shared" si="65"/>
-        <v>3.2671753093069249E-6</v>
+        <v>1.9067290662797977E-4</v>
       </c>
       <c r="X93" s="6">
         <f t="shared" si="66"/>
-        <v>5.3304382067939745E-6</v>
+        <v>3.1143526646378267E-4</v>
       </c>
       <c r="Y93" s="9">
         <f t="shared" si="67"/>
-        <v>-2.0381322393510792E-7</v>
+        <v>5.0684989590595879E-6</v>
       </c>
       <c r="Z93" s="9">
         <f t="shared" si="68"/>
-        <v>-4.0762644787021585E-7</v>
+        <v>1.0136997918119176E-5</v>
       </c>
       <c r="AA93" s="9">
         <f t="shared" si="69"/>
-        <v>4.6347410448174784E-7</v>
+        <v>1.0211309951517774E-5</v>
       </c>
       <c r="AB93" s="9">
         <f t="shared" si="70"/>
-        <v>9.2694820896349567E-7</v>
+        <v>2.0422619903035549E-5</v>
       </c>
       <c r="AC93" s="9">
         <f t="shared" si="71"/>
-        <v>2.5724416955121959E-4</v>
+        <v>1.9662056221111807E-3</v>
       </c>
       <c r="AD93" s="9">
         <f t="shared" si="72"/>
-        <v>2.5911288532454282E-4</v>
+        <v>1.9805222184168347E-3</v>
       </c>
       <c r="AE93" s="9">
         <f t="shared" si="73"/>
-        <v>3.2370565934286788E-4</v>
+        <v>2.4692464296389095E-3</v>
       </c>
       <c r="AF93" s="9">
         <f t="shared" si="74"/>
-        <v>3.2605717569631263E-4</v>
+        <v>2.4872258331737037E-3</v>
       </c>
     </row>
     <row r="94" spans="2:32" x14ac:dyDescent="0.3">
@@ -19176,111 +19176,111 @@
       </c>
       <c r="F94" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477090825261726</v>
+        <v>0.14490519286599865</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954181650523458</v>
+        <v>0.18981038573199713</v>
       </c>
       <c r="H94" s="8">
         <f t="shared" si="54"/>
-        <v>0.24366238782827521</v>
+        <v>0.24393148220345068</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" si="55"/>
-        <v>0.2873247756565504</v>
+        <v>0.28786296440690134</v>
       </c>
       <c r="J94" s="9">
         <f t="shared" si="56"/>
-        <v>2.6192727063154321E-2</v>
+        <v>2.6226298216499647E-2</v>
       </c>
       <c r="K94" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654780742157801</v>
+        <v>0.50655619876874669</v>
       </c>
       <c r="L94" s="9">
         <f t="shared" si="57"/>
-        <v>4.0915596957068805E-2</v>
+        <v>4.0982870550862673E-2</v>
       </c>
       <c r="M94" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022747247330524</v>
+        <v>0.51024428382328235</v>
       </c>
       <c r="N94" s="8">
         <f t="shared" si="58"/>
-        <v>-1.6084290939637109E-2</v>
+        <v>3.5435474014037502E-2</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="59"/>
-        <v>3.0864703395981765E-2</v>
+        <v>8.275962228695409E-2</v>
       </c>
       <c r="P94" s="8">
         <f t="shared" si="60"/>
-        <v>-1.3793510308649776E-2</v>
+        <v>5.0945602744325601E-2</v>
       </c>
       <c r="Q94" s="8">
         <f t="shared" si="61"/>
-        <v>3.2439331575766929E-2</v>
+        <v>9.7649829244119302E-2</v>
       </c>
       <c r="R94" s="9">
         <f t="shared" si="62"/>
-        <v>7.6005572929660863E-3</v>
+        <v>6.0177683221411787E-2</v>
       </c>
       <c r="S94" s="9">
         <f t="shared" si="15"/>
-        <v>0.50190013017594903</v>
+        <v>0.51503988235164622</v>
       </c>
       <c r="T94" s="9">
         <f t="shared" si="63"/>
-        <v>9.5643657551335651E-3</v>
+        <v>7.5632078058279678E-2</v>
       </c>
       <c r="U94" s="9">
         <f t="shared" si="17"/>
-        <v>0.50239107321144238</v>
+        <v>0.51889901151183682</v>
       </c>
       <c r="V94" s="9">
         <f t="shared" si="64"/>
-        <v>1.8052473427760515E-6</v>
+        <v>1.1309903057567967E-4</v>
       </c>
       <c r="W94" s="9">
         <f t="shared" si="65"/>
-        <v>2.8586155512387E-6</v>
+        <v>1.7858631806227026E-4</v>
       </c>
       <c r="X94" s="6">
         <f t="shared" si="66"/>
-        <v>4.6638628940147517E-6</v>
+        <v>2.9168534863794991E-4</v>
       </c>
       <c r="Y94" s="9">
         <f t="shared" si="67"/>
-        <v>-1.9853577104840186E-7</v>
+        <v>4.6676633091321837E-6</v>
       </c>
       <c r="Z94" s="9">
         <f t="shared" si="68"/>
-        <v>-3.9707154209680372E-7</v>
+        <v>9.3353266182643675E-6</v>
       </c>
       <c r="AA94" s="9">
         <f t="shared" si="69"/>
-        <v>4.2558059692084035E-7</v>
+        <v>9.6433960903241772E-6</v>
       </c>
       <c r="AB94" s="9">
         <f t="shared" si="70"/>
-        <v>8.511611938416807E-7</v>
+        <v>1.9286792180648354E-5</v>
       </c>
       <c r="AC94" s="9">
         <f t="shared" si="71"/>
-        <v>2.4062321848504606E-4</v>
+        <v>1.9029131082435675E-3</v>
       </c>
       <c r="AD94" s="9">
         <f t="shared" si="72"/>
-        <v>2.4237115389157848E-4</v>
+        <v>1.9167676527376465E-3</v>
       </c>
       <c r="AE94" s="9">
         <f t="shared" si="73"/>
-        <v>3.0279129849047589E-4</v>
+        <v>2.3899334973828661E-3</v>
       </c>
       <c r="AF94" s="9">
         <f t="shared" si="74"/>
-        <v>3.0499083532135044E-4</v>
+        <v>2.4073338925107044E-3</v>
       </c>
     </row>
     <row r="95" spans="2:32" x14ac:dyDescent="0.3">
@@ -19298,111 +19298,111 @@
       </c>
       <c r="F95" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477130532415936</v>
+        <v>0.14490052520268951</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954261064831876</v>
+        <v>0.18980105040537887</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="54"/>
-        <v>0.24366153666708137</v>
+        <v>0.24392183880736035</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="55"/>
-        <v>0.28732307333416274</v>
+        <v>0.28784367761472068</v>
       </c>
       <c r="J95" s="9">
         <f t="shared" si="56"/>
-        <v>2.6192826331039844E-2</v>
+        <v>2.6225131300672364E-2</v>
       </c>
       <c r="K95" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654783223429334</v>
+        <v>0.50655590708994602</v>
       </c>
       <c r="L95" s="9">
         <f t="shared" si="57"/>
-        <v>4.0915384166770347E-2</v>
+        <v>4.098045970184009E-2</v>
       </c>
       <c r="M95" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022741929798865</v>
+        <v>0.51024368136401921</v>
       </c>
       <c r="N95" s="8">
         <f t="shared" si="58"/>
-        <v>-1.6565537376607202E-2</v>
+        <v>3.3532560905793936E-2</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="59"/>
-        <v>3.0379961088198609E-2</v>
+        <v>8.0842854634216449E-2</v>
       </c>
       <c r="P95" s="8">
         <f t="shared" si="60"/>
-        <v>-1.4399092905630727E-2</v>
+        <v>4.8555669246942733E-2</v>
       </c>
       <c r="Q95" s="8">
         <f t="shared" si="61"/>
-        <v>3.1829349905124225E-2</v>
+        <v>9.52424953516086E-2</v>
       </c>
       <c r="R95" s="9">
         <f t="shared" si="62"/>
-        <v>7.109452096488349E-3</v>
+        <v>5.8235672567222174E-2</v>
       </c>
       <c r="S95" s="9">
         <f t="shared" si="15"/>
-        <v>0.50177735553786107</v>
+        <v>0.51455480495164307</v>
       </c>
       <c r="T95" s="9">
         <f t="shared" si="63"/>
-        <v>8.9463777625367769E-3</v>
+        <v>7.3193042530244723E-2</v>
       </c>
       <c r="U95" s="9">
         <f t="shared" si="17"/>
-        <v>0.50223657952310208</v>
+        <v>0.51829009602026255</v>
       </c>
       <c r="V95" s="9">
         <f t="shared" si="64"/>
-        <v>1.5794963539827057E-6</v>
+        <v>1.0592117359018688E-4</v>
       </c>
       <c r="W95" s="9">
         <f t="shared" si="65"/>
-        <v>2.5011439815797592E-6</v>
+        <v>1.6726380621521193E-4</v>
       </c>
       <c r="X95" s="6">
         <f t="shared" si="66"/>
-        <v>4.0806403355624653E-6</v>
+        <v>2.7318497980539881E-4</v>
       </c>
       <c r="Y95" s="9">
         <f t="shared" si="67"/>
-        <v>-1.92612429208923E-7</v>
+        <v>4.2947171820711978E-6</v>
       </c>
       <c r="Z95" s="9">
         <f t="shared" si="68"/>
-        <v>-3.8522485841784601E-7</v>
+        <v>8.5894343641423956E-6</v>
       </c>
       <c r="AA95" s="9">
         <f t="shared" si="69"/>
-        <v>3.9112902873459886E-7</v>
+        <v>9.1088035181174921E-6</v>
       </c>
       <c r="AB95" s="9">
         <f t="shared" si="70"/>
-        <v>7.8225805746919771E-7</v>
+        <v>1.8217607036234984E-5</v>
       </c>
       <c r="AC95" s="9">
         <f t="shared" si="71"/>
-        <v>2.2507605461288642E-4</v>
+        <v>1.8416437301913859E-3</v>
       </c>
       <c r="AD95" s="9">
         <f t="shared" si="72"/>
-        <v>2.2671101756445639E-4</v>
+        <v>1.8550510684045044E-3</v>
       </c>
       <c r="AE95" s="9">
         <f t="shared" si="73"/>
-        <v>2.8322795999708415E-4</v>
+        <v>2.3131396614063061E-3</v>
       </c>
       <c r="AF95" s="9">
         <f t="shared" si="74"/>
-        <v>2.8528534109984258E-4</v>
+        <v>2.3299795339974234E-3</v>
       </c>
     </row>
     <row r="96" spans="2:32" x14ac:dyDescent="0.3">
@@ -19420,111 +19420,111 @@
       </c>
       <c r="F96" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477169054901778</v>
+        <v>0.14489623048550743</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954338109803559</v>
+        <v>0.18979246097101474</v>
       </c>
       <c r="H96" s="8">
         <f t="shared" si="54"/>
-        <v>0.24366075440902391</v>
+        <v>0.24391273000384223</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" si="55"/>
-        <v>0.2873215088180478</v>
+        <v>0.28782546000768444</v>
       </c>
       <c r="J96" s="9">
         <f t="shared" si="56"/>
-        <v>2.6192922637254451E-2</v>
+        <v>2.6224057621376848E-2</v>
       </c>
       <c r="K96" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654785630671806</v>
+        <v>0.50655563871626685</v>
       </c>
       <c r="L96" s="9">
         <f t="shared" si="57"/>
-        <v>4.0915188602255972E-2</v>
+        <v>4.097818250096056E-2</v>
       </c>
       <c r="M96" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022737042731603</v>
+        <v>0.51024311230273955</v>
       </c>
       <c r="N96" s="8">
         <f t="shared" si="58"/>
-        <v>-1.7015689485832975E-2</v>
+        <v>3.1690917175602552E-2</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="59"/>
-        <v>2.9926539053069696E-2</v>
+        <v>7.8987803565811948E-2</v>
       </c>
       <c r="P96" s="8">
         <f t="shared" si="60"/>
-        <v>-1.4965548825624895E-2</v>
+        <v>4.6242529585536429E-2</v>
       </c>
       <c r="Q96" s="8">
         <f t="shared" si="61"/>
-        <v>3.125877922292454E-2</v>
+        <v>9.2912515817611174E-2</v>
       </c>
       <c r="R96" s="9">
         <f t="shared" si="62"/>
-        <v>6.6500782944086765E-3</v>
+        <v>5.6356195516768973E-2</v>
       </c>
       <c r="S96" s="9">
         <f t="shared" si="15"/>
-        <v>0.50166251344675405</v>
+        <v>0.51408532113713357</v>
       </c>
       <c r="T96" s="9">
         <f t="shared" si="63"/>
-        <v>8.3683180496069969E-3</v>
+        <v>7.0832385352712718E-2</v>
       </c>
       <c r="U96" s="9">
         <f t="shared" si="17"/>
-        <v>0.50209206730367828</v>
+        <v>0.51770069625629611</v>
       </c>
       <c r="V96" s="9">
         <f t="shared" si="64"/>
-        <v>1.3819754803190236E-6</v>
+        <v>9.9198135768090815E-5</v>
       </c>
       <c r="W96" s="9">
         <f t="shared" si="65"/>
-        <v>2.1883728015598545E-6</v>
+        <v>1.5665732397882759E-4</v>
       </c>
       <c r="X96" s="6">
         <f t="shared" si="66"/>
-        <v>3.5703482818788781E-6</v>
+        <v>2.5585545974691841E-4</v>
       </c>
       <c r="Y96" s="9">
         <f t="shared" si="67"/>
-        <v>-1.8620833233356108E-7</v>
+        <v>3.9478264001322555E-6</v>
       </c>
       <c r="Z96" s="9">
         <f t="shared" si="68"/>
-        <v>-3.7241666466712216E-7</v>
+        <v>7.895652800264511E-6</v>
       </c>
       <c r="AA96" s="9">
         <f t="shared" si="69"/>
-        <v>3.5977281613507899E-7</v>
+        <v>8.6055227606200311E-6</v>
       </c>
       <c r="AB96" s="9">
         <f t="shared" si="70"/>
-        <v>7.1954563227015797E-7</v>
+        <v>1.7211045521240062E-5</v>
       </c>
       <c r="AC96" s="9">
         <f t="shared" si="71"/>
-        <v>2.1053332799267932E-4</v>
+        <v>1.7823341541178153E-3</v>
       </c>
       <c r="AD96" s="9">
         <f t="shared" si="72"/>
-        <v>2.1206262151067713E-4</v>
+        <v>1.7953086619768798E-3</v>
       </c>
       <c r="AE96" s="9">
         <f t="shared" si="73"/>
-        <v>2.649284138036206E-4</v>
+        <v>2.2387875739153427E-3</v>
       </c>
       <c r="AF96" s="9">
         <f t="shared" si="74"/>
-        <v>2.6685282790862825E-4</v>
+        <v>2.2550848360787992E-3</v>
       </c>
     </row>
     <row r="97" spans="2:32" x14ac:dyDescent="0.3">
@@ -19542,111 +19542,111 @@
       </c>
       <c r="F97" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477206296568246</v>
+        <v>0.14489228265910731</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954412593136494</v>
+        <v>0.18978456531821447</v>
       </c>
       <c r="H97" s="8">
         <f t="shared" si="54"/>
-        <v>0.24366003486339163</v>
+        <v>0.24390412448108162</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" si="55"/>
-        <v>0.28732006972678326</v>
+        <v>0.28780824896216323</v>
       </c>
       <c r="J97" s="9">
         <f t="shared" si="56"/>
-        <v>2.6193015741420619E-2</v>
+        <v>2.6223070664776815E-2</v>
       </c>
       <c r="K97" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654787957876768</v>
+        <v>0.50655539201953115</v>
       </c>
       <c r="L97" s="9">
         <f t="shared" si="57"/>
-        <v>4.0915008715847911E-2</v>
+        <v>4.0976031120270401E-2</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022732547452987</v>
+        <v>0.51024257468328105</v>
       </c>
       <c r="N97" s="8">
         <f t="shared" si="58"/>
-        <v>-1.7436756141818333E-2</v>
+        <v>2.9908583021484737E-2</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="59"/>
-        <v>2.9502413810048343E-2</v>
+        <v>7.7192494903835063E-2</v>
       </c>
       <c r="P97" s="8">
         <f t="shared" si="60"/>
-        <v>-1.5495405653232137E-2</v>
+        <v>4.4003742011621085E-2</v>
       </c>
       <c r="Q97" s="8">
         <f t="shared" si="61"/>
-        <v>3.0725073567107283E-2</v>
+        <v>9.065743098153238E-2</v>
       </c>
       <c r="R97" s="9">
         <f t="shared" si="62"/>
-        <v>6.2203858429736684E-3</v>
+        <v>5.4537251343155749E-2</v>
       </c>
       <c r="S97" s="9">
         <f t="shared" si="15"/>
-        <v>0.50155509144645793</v>
+        <v>0.51363093444917829</v>
       </c>
       <c r="T97" s="9">
         <f t="shared" si="63"/>
-        <v>7.8276072342957324E-3</v>
+        <v>6.8547613783211961E-2</v>
       </c>
       <c r="U97" s="9">
         <f t="shared" si="17"/>
-        <v>0.5019568918167866</v>
+        <v>0.51713019639231417</v>
       </c>
       <c r="V97" s="9">
         <f t="shared" si="64"/>
-        <v>1.2091547034233156E-6</v>
+        <v>9.2901186978897708E-5</v>
       </c>
       <c r="W97" s="9">
         <f t="shared" si="65"/>
-        <v>1.9147127913031781E-6</v>
+        <v>1.4672181421962666E-4</v>
       </c>
       <c r="X97" s="6">
         <f t="shared" si="66"/>
-        <v>3.1238674947264937E-6</v>
+        <v>2.3962300119852436E-4</v>
       </c>
       <c r="Y97" s="9">
         <f t="shared" si="67"/>
-        <v>-1.7946251733720143E-7</v>
+        <v>3.6252733021709331E-6</v>
       </c>
       <c r="Z97" s="9">
         <f t="shared" si="68"/>
-        <v>-3.5892503467440285E-7</v>
+        <v>7.2505466043418663E-6</v>
       </c>
       <c r="AA97" s="9">
         <f t="shared" si="69"/>
-        <v>3.3120328805099474E-7</v>
+        <v>8.1316662918863838E-6</v>
       </c>
       <c r="AB97" s="9">
         <f t="shared" si="70"/>
-        <v>6.6240657610198947E-7</v>
+        <v>1.6263332583772768E-5</v>
       </c>
       <c r="AC97" s="9">
         <f t="shared" si="71"/>
-        <v>1.9693016371788951E-4</v>
+        <v>1.7249229033050293E-3</v>
       </c>
       <c r="AD97" s="9">
         <f t="shared" si="72"/>
-        <v>1.9836061859067688E-4</v>
+        <v>1.7374785012229887E-3</v>
       </c>
       <c r="AE97" s="9">
         <f t="shared" si="73"/>
-        <v>2.478110541354668E-4</v>
+        <v>2.1668020114303755E-3</v>
       </c>
       <c r="AF97" s="9">
         <f t="shared" si="74"/>
-        <v>2.4961109595347119E-4</v>
+        <v>2.1825740176871292E-3</v>
       </c>
     </row>
     <row r="98" spans="2:32" x14ac:dyDescent="0.3">
@@ -19664,111 +19664,111 @@
       </c>
       <c r="F98" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477242189071712</v>
+        <v>0.14488865738580514</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="53"/>
-        <v>0.1895448437814343</v>
+        <v>0.18977731477161014</v>
       </c>
       <c r="H98" s="8">
         <f t="shared" si="54"/>
-        <v>0.24365937245681554</v>
+        <v>0.24389599281478974</v>
       </c>
       <c r="I98" s="8">
         <f t="shared" si="55"/>
-        <v>0.28731874491363107</v>
+        <v>0.28779198562957947</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="56"/>
-        <v>2.6193105472679286E-2</v>
+        <v>2.6222164346451273E-2</v>
       </c>
       <c r="K98" s="9">
         <f t="shared" si="7"/>
-        <v>0.50654790200773514</v>
+        <v>0.50655516547889579</v>
       </c>
       <c r="L98" s="9">
         <f t="shared" si="57"/>
-        <v>4.0914843114203889E-2</v>
+        <v>4.0973998203697438E-2</v>
       </c>
       <c r="M98" s="9">
         <f t="shared" si="9"/>
-        <v>0.51022728409144047</v>
+        <v>0.51024206666740113</v>
       </c>
       <c r="N98" s="8">
         <f t="shared" si="58"/>
-        <v>-1.7830616469254112E-2</v>
+        <v>2.8183660118179708E-2</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="59"/>
-        <v>2.9105692572866989E-2</v>
+        <v>7.5455016402612068E-2</v>
       </c>
       <c r="P98" s="8">
         <f t="shared" si="60"/>
-        <v>-1.599102776150307E-2</v>
+        <v>4.1836940000190712E-2</v>
       </c>
       <c r="Q98" s="8">
         <f t="shared" si="61"/>
-        <v>3.0225851375200341E-2</v>
+        <v>8.8474856963845244E-2</v>
       </c>
       <c r="R98" s="9">
         <f t="shared" si="62"/>
-        <v>5.8184571090490935E-3</v>
+        <v>5.277690212465691E-2</v>
       </c>
       <c r="S98" s="9">
         <f t="shared" si="15"/>
-        <v>0.50145461017351312</v>
+        <v>0.51319116378279472</v>
       </c>
       <c r="T98" s="9">
         <f t="shared" si="63"/>
-        <v>7.321832492983172E-3</v>
+        <v>6.6336311930262348E-2</v>
       </c>
       <c r="U98" s="9">
         <f t="shared" si="17"/>
-        <v>0.50183044994583526</v>
+        <v>0.51657799912927826</v>
       </c>
       <c r="V98" s="9">
         <f t="shared" si="64"/>
-        <v>1.0579453784439282E-6</v>
+        <v>8.7003400972257601E-5</v>
       </c>
       <c r="W98" s="9">
         <f t="shared" si="65"/>
-        <v>1.6752735021041445E-6</v>
+        <v>1.3741502756517545E-4</v>
       </c>
       <c r="X98" s="6">
         <f t="shared" si="66"/>
-        <v>2.7332188805480729E-6</v>
+        <v>2.2441842853743307E-4</v>
       </c>
       <c r="Y98" s="9">
         <f t="shared" si="67"/>
-        <v>-1.7249153826148616E-7</v>
+        <v>3.3254495935353284E-6</v>
       </c>
       <c r="Z98" s="9">
         <f t="shared" si="68"/>
-        <v>-3.4498307652297233E-7</v>
+        <v>6.6508991870706568E-6</v>
       </c>
       <c r="AA98" s="9">
         <f t="shared" si="69"/>
-        <v>3.0514529829517536E-7</v>
+        <v>7.6854612439041175E-6</v>
       </c>
       <c r="AB98" s="9">
         <f t="shared" si="70"/>
-        <v>6.1029059659035072E-7</v>
+        <v>1.5370922487808235E-5</v>
       </c>
       <c r="AC98" s="9">
         <f t="shared" si="71"/>
-        <v>1.8420587385682553E-4</v>
+        <v>1.6693503156876553E-3</v>
       </c>
       <c r="AD98" s="9">
         <f t="shared" si="72"/>
-        <v>1.8554387918523715E-4</v>
+        <v>1.6815004823079519E-3</v>
       </c>
       <c r="AE98" s="9">
         <f t="shared" si="73"/>
-        <v>2.3179953828562485E-4</v>
+        <v>2.0971098406508885E-3</v>
       </c>
       <c r="AF98" s="9">
         <f t="shared" si="74"/>
-        <v>2.3348324690389936E-4</v>
+        <v>2.112373403814068E-3</v>
       </c>
     </row>
     <row r="99" spans="2:32" x14ac:dyDescent="0.3">
@@ -19786,111 +19786,111 @@
       </c>
       <c r="F99" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477276687379365</v>
+        <v>0.14488533193621161</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954553374758734</v>
+        <v>0.18977066387242306</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="54"/>
-        <v>0.24365876216621896</v>
+        <v>0.24388830735354583</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" si="55"/>
-        <v>0.2873175243324379</v>
+        <v>0.28777661470709165</v>
       </c>
       <c r="J99" s="9">
         <f t="shared" si="56"/>
-        <v>2.619319171844842E-2</v>
+        <v>2.6221332984052888E-2</v>
       </c>
       <c r="K99" s="9">
         <f t="shared" ref="K99:K100" si="75">1/(1+EXP(-J99))</f>
-        <v>0.50654792356547973</v>
+        <v>0.50655495767401892</v>
       </c>
       <c r="L99" s="9">
         <f t="shared" si="57"/>
-        <v>4.0914690541554735E-2</v>
+        <v>4.0972076838386454E-2</v>
       </c>
       <c r="M99" s="9">
         <f t="shared" ref="M99:M100" si="76">1/(1+EXP(-L99))</f>
-        <v>0.51022724596423674</v>
+        <v>0.51024158652761498</v>
       </c>
       <c r="N99" s="8">
         <f t="shared" si="58"/>
-        <v>-1.8199028216967762E-2</v>
+        <v>2.6514309802492052E-2</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="59"/>
-        <v>2.8734604814496516E-2</v>
+        <v>7.3773515920304122E-2</v>
       </c>
       <c r="P99" s="8">
         <f t="shared" si="60"/>
-        <v>-1.6454626838074322E-2</v>
+        <v>3.9739830159539823E-2</v>
       </c>
       <c r="Q99" s="8">
         <f t="shared" si="61"/>
-        <v>2.9758884881392542E-2</v>
+        <v>8.6362483560031178E-2</v>
       </c>
       <c r="R99" s="9">
         <f t="shared" si="62"/>
-        <v>5.4424983241566603E-3</v>
+        <v>5.1073270886653428E-2</v>
       </c>
       <c r="S99" s="9">
         <f t="shared" ref="S99:S100" si="77">1/(1+EXP(-R99))</f>
-        <v>0.50136062122248481</v>
+        <v>0.51276554295473409</v>
       </c>
       <c r="T99" s="9">
         <f t="shared" si="63"/>
-        <v>6.8487368181283162E-3</v>
+        <v>6.4196138612573769E-2</v>
       </c>
       <c r="U99" s="9">
         <f t="shared" ref="U99:U100" si="78">1/(1+EXP(-T99))</f>
-        <v>0.50171217751203545</v>
+        <v>0.51604352522479047</v>
       </c>
       <c r="V99" s="9">
         <f t="shared" si="64"/>
-        <v>9.2564505553803579E-7</v>
+        <v>8.1479543464580559E-5</v>
       </c>
       <c r="W99" s="9">
         <f t="shared" si="65"/>
-        <v>1.4657759163599535E-6</v>
+        <v>1.2869735081924401E-4</v>
       </c>
       <c r="X99" s="6">
         <f t="shared" si="66"/>
-        <v>2.3914209718979892E-6</v>
+        <v>2.1017689428382458E-4</v>
       </c>
       <c r="Y99" s="9">
         <f t="shared" si="67"/>
-        <v>-1.6539260613320208E-7</v>
+        <v>3.0468496110934204E-6</v>
       </c>
       <c r="Z99" s="9">
         <f t="shared" si="68"/>
-        <v>-3.3078521226640415E-7</v>
+        <v>6.0936992221868408E-6</v>
       </c>
       <c r="AA99" s="9">
         <f t="shared" si="69"/>
-        <v>2.8135336305879529E-7</v>
+        <v>7.2652425317362856E-6</v>
       </c>
       <c r="AB99" s="9">
         <f t="shared" si="70"/>
-        <v>5.6270672611759059E-7</v>
+        <v>1.4530485063472571E-5</v>
       </c>
       <c r="AC99" s="9">
         <f t="shared" si="71"/>
-        <v>1.7230368780629996E-4</v>
+        <v>1.6155585011439952E-3</v>
       </c>
       <c r="AD99" s="9">
         <f t="shared" si="72"/>
-        <v>1.7355521957346592E-4</v>
+        <v>1.6273162867401292E-3</v>
       </c>
       <c r="AE99" s="9">
         <f t="shared" si="73"/>
-        <v>2.1682244833946921E-4</v>
+        <v>2.0296399822839649E-3</v>
       </c>
       <c r="AF99" s="9">
         <f t="shared" si="74"/>
-        <v>2.1839734313937973E-4</v>
+        <v>2.0444113890340995E-3</v>
       </c>
     </row>
     <row r="100" spans="2:32" x14ac:dyDescent="0.3">
@@ -19908,111 +19908,111 @@
       </c>
       <c r="F100" s="8">
         <f t="shared" si="52"/>
-        <v>0.14477309765900592</v>
+        <v>0.14488228508660053</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="53"/>
-        <v>0.18954619531801187</v>
+        <v>0.18976457017320086</v>
       </c>
       <c r="H100" s="8">
         <f t="shared" si="54"/>
-        <v>0.24365819945949285</v>
+        <v>0.24388104211101411</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" si="55"/>
-        <v>0.28731639891898569</v>
+        <v>0.2877620842220282</v>
       </c>
       <c r="J100" s="9">
         <f t="shared" si="56"/>
-        <v>2.6193274414751486E-2</v>
+        <v>2.6220571271650117E-2</v>
       </c>
       <c r="K100" s="9">
         <f t="shared" si="75"/>
-        <v>0.5065479442360098</v>
+        <v>0.50655476727864601</v>
       </c>
       <c r="L100" s="9">
         <f t="shared" si="57"/>
-        <v>4.0914549864873216E-2</v>
+        <v>4.097026052775353E-2</v>
       </c>
       <c r="M100" s="9">
         <f t="shared" si="76"/>
-        <v>0.51022721080978073</v>
+        <v>0.51024113264046134</v>
       </c>
       <c r="N100" s="8">
         <f t="shared" si="58"/>
-        <v>-1.8543635592580363E-2</v>
+        <v>2.4898751301348058E-2</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="59"/>
-        <v>2.8387494375349584E-2</v>
+        <v>7.2146199633563987E-2</v>
       </c>
       <c r="P100" s="8">
         <f t="shared" si="60"/>
-        <v>-1.6888271734753262E-2</v>
+        <v>3.771019017725586E-2</v>
       </c>
       <c r="Q100" s="8">
         <f t="shared" si="61"/>
-        <v>2.9322090195113781E-2</v>
+        <v>8.4318072170997072E-2</v>
       </c>
       <c r="R100" s="9">
         <f t="shared" si="62"/>
-        <v>5.0908315889296729E-3</v>
+        <v>4.9424539787717769E-2</v>
       </c>
       <c r="S100" s="9">
         <f t="shared" si="77"/>
-        <v>0.50127270514855471</v>
+        <v>0.51235362027931086</v>
       </c>
       <c r="T100" s="9">
         <f t="shared" si="63"/>
-        <v>6.4062089664273479E-3</v>
+        <v>6.2124825255863034E-2</v>
       </c>
       <c r="U100" s="9">
         <f t="shared" si="78"/>
-        <v>0.50160154676438562</v>
+        <v>0.5155262130247612</v>
       </c>
       <c r="V100" s="9">
         <f t="shared" si="64"/>
-        <v>8.098891975788322E-7</v>
+        <v>7.6305967002700294E-5</v>
       </c>
       <c r="W100" s="9">
         <f t="shared" si="65"/>
-        <v>1.2824760192570236E-6</v>
+        <v>1.2053164544513223E-4</v>
       </c>
       <c r="X100" s="6">
         <f t="shared" si="66"/>
-        <v>2.092365216835856E-6</v>
+        <v>1.9683761244783252E-4</v>
       </c>
       <c r="Y100" s="9">
         <f t="shared" si="67"/>
-        <v>-1.5824631521636854E-7</v>
+        <v>2.7880639820461688E-6</v>
       </c>
       <c r="Z100" s="9">
         <f t="shared" si="68"/>
-        <v>-3.1649263043273707E-7</v>
+        <v>5.5761279640923377E-6</v>
       </c>
       <c r="AA100" s="9">
         <f t="shared" si="69"/>
-        <v>2.5960825967555459E-7</v>
+        <v>6.8694463732771155E-6</v>
       </c>
       <c r="AB100" s="9">
         <f t="shared" si="70"/>
-        <v>5.1921651935110917E-7</v>
+        <v>1.3738892746554231E-5</v>
       </c>
       <c r="AC100" s="9">
         <f t="shared" si="71"/>
-        <v>1.611704999060028E-4</v>
+        <v>1.563491298699842E-3</v>
       </c>
       <c r="AD100" s="9">
         <f t="shared" si="72"/>
-        <v>1.6234114769902953E-4</v>
+        <v>1.5748693382314615E-3</v>
       </c>
       <c r="AE100" s="9">
         <f t="shared" si="73"/>
-        <v>2.0281297443078432E-4</v>
+        <v>1.9643233731827274E-3</v>
       </c>
       <c r="AF100" s="9">
         <f t="shared" si="74"/>
-        <v>2.0428608868589335E-4</v>
+        <v>1.9786183993280872E-3</v>
       </c>
     </row>
   </sheetData>
@@ -20025,8 +20025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F54925-A26E-46DB-8B6F-169E61DB15DD}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
